--- a/applications/async-re/data/RE_data.xlsx
+++ b/applications/async-re/data/RE_data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr date1904="1" showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="260" yWindow="-80" windowWidth="18320" windowHeight="15600" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28640" windowHeight="16280" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,147 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="261" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="270" uniqueCount="95">
+  <si>
+    <t>64 exch</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>QB</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>60 seconds</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2 bigjobs</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>qb/louie</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>QB/Louie</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>effective time</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>XX(did not get active)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>#do not consider this data, I incorrectly configurd this run</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>64,64</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>8,8</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>20, 1516</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>###########################################################</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>#exchanges</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>total time</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>effective time</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t># replicas/BJ</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t># BJs</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>#BJ QB</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>#BJ Eric</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>#BJ Louie</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>#BJ Oliver</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>#BJ Ranger</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>#BJ Abe</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t># cores/BJ</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>qtime QB</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Incomplete run/data</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>20, 1516</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1740, 1740</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0, 0</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>#BJ Poseidon</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>#BJ Painter</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>qtime poseidon</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>qtime painter</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>QB/Eric/Louie/Oliver</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
   <si>
     <t>0,2640</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -88,10 +228,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>QB/Eric/Louie</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>qtime Eric</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -257,118 +393,6 @@
   </si>
   <si>
     <t>16 replicas</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>64 exch</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>QB</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>60 seconds</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>2 bigjobs</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>qb/louie</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>QB/Louie</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>effective time</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>XX(did not get active)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>#do not consider this data, I incorrectly configurd this run</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>64,64</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>8,8</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>20, 1516</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>###########################################################</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>#exchanges</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>total time</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>effective time</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t># replicas/BJ</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t># BJs</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>#BJ QB</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>#BJ Eric</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>#BJ Louie</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>#BJ Oliver</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>#BJ Ranger</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>#BJ Abe</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t># cores/BJ</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>qtime QB</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Incomplete run/data</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>20, 1516</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -506,11 +530,11 @@
           </c:val>
         </c:ser>
         <c:overlap val="100"/>
-        <c:axId val="458818856"/>
-        <c:axId val="458795720"/>
+        <c:axId val="485091576"/>
+        <c:axId val="485068392"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="458818856"/>
+        <c:axId val="485091576"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -531,18 +555,17 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="458795720"/>
+        <c:crossAx val="485068392"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="458795720"/>
+        <c:axId val="485068392"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -564,11 +587,10 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="458818856"/>
+        <c:crossAx val="485091576"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -657,24 +679,24 @@
         </c:ser>
         <c:gapWidth val="256"/>
         <c:overlap val="100"/>
-        <c:axId val="458954376"/>
-        <c:axId val="458959704"/>
+        <c:axId val="485234808"/>
+        <c:axId val="485240136"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="458954376"/>
+        <c:axId val="485234808"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="458959704"/>
+        <c:crossAx val="485240136"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="458959704"/>
+        <c:axId val="485240136"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -696,11 +718,10 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="458954376"/>
+        <c:crossAx val="485234808"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -757,14 +778,9 @@
           <c:tx>
             <c:v>Synchronous Replica Exchange</c:v>
           </c:tx>
-          <c:errBars>
-            <c:errBarType val="both"/>
-            <c:errValType val="percentage"/>
-            <c:val val="10.0"/>
-          </c:errBars>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$M$52:$M$54</c:f>
+              <c:f>Sheet1!$O$52:$O$54</c:f>
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
@@ -774,25 +790,25 @@
                   <c:v>QB/Eric</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>QB/Eric/Louie</c:v>
+                  <c:v>QB/Eric/Louie/Oliver</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$N$52:$N$54</c:f>
+              <c:f>Sheet1!$P$52:$P$54</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>140.2</c:v>
+                  <c:v>140.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>130.9</c:v>
+                  <c:v>127.5333333333333</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>115.3833333333333</c:v>
+                  <c:v>120.2833333333333</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -804,14 +820,9 @@
           <c:tx>
             <c:v>Asynchronous Replica Exchange</c:v>
           </c:tx>
-          <c:errBars>
-            <c:errBarType val="both"/>
-            <c:errValType val="percentage"/>
-            <c:val val="10.0"/>
-          </c:errBars>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$M$52:$M$54</c:f>
+              <c:f>Sheet1!$O$52:$O$54</c:f>
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
@@ -821,53 +832,53 @@
                   <c:v>QB/Eric</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>QB/Eric/Louie</c:v>
+                  <c:v>QB/Eric/Louie/Oliver</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$O$52:$O$54</c:f>
+              <c:f>Sheet1!$Q$52:$Q$54</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>40.75</c:v>
+                  <c:v>66.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>27.33333333333333</c:v>
+                  <c:v>24.68333333333333</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>22.46666666666666</c:v>
+                  <c:v>22.95</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:dLbls/>
-        <c:axId val="481533352"/>
-        <c:axId val="464107576"/>
+        <c:axId val="485221096"/>
+        <c:axId val="485262744"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="481533352"/>
+        <c:axId val="485221096"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="464107576"/>
+        <c:crossAx val="485262744"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="464107576"/>
+        <c:axId val="485262744"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="l"/>
+        <c:majorGridlines/>
         <c:title>
           <c:tx>
             <c:rich>
@@ -888,7 +899,7 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="481533352"/>
+        <c:crossAx val="485221096"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -941,13 +952,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
+      <xdr:col>10</xdr:col>
       <xdr:colOff>330200</xdr:colOff>
       <xdr:row>310</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
+      <xdr:col>16</xdr:col>
       <xdr:colOff>241300</xdr:colOff>
       <xdr:row>325</xdr:row>
       <xdr:rowOff>127000</xdr:rowOff>
@@ -971,16 +982,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>406400</xdr:colOff>
-      <xdr:row>42</xdr:row>
-      <xdr:rowOff>88900</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>215899</xdr:colOff>
+      <xdr:row>67</xdr:row>
+      <xdr:rowOff>25398</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>622300</xdr:colOff>
-      <xdr:row>59</xdr:row>
-      <xdr:rowOff>25400</xdr:rowOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>520700</xdr:colOff>
+      <xdr:row>85</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1322,10 +1333,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" mc:Ignorable="mv" mc:PreserveAttributes="mv:*">
-  <dimension ref="A1:T327"/>
+  <dimension ref="A1:X327"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="O55" sqref="O55"/>
+    <sheetView tabSelected="1" topLeftCell="E29" workbookViewId="0">
+      <selection activeCell="U79" sqref="U79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
@@ -1334,71 +1345,83 @@
     <col min="2" max="2" width="10.140625" customWidth="1"/>
     <col min="3" max="3" width="7.7109375" customWidth="1"/>
     <col min="4" max="4" width="9.28515625" customWidth="1"/>
-    <col min="5" max="5" width="8.85546875" customWidth="1"/>
-    <col min="6" max="6" width="8" customWidth="1"/>
-    <col min="12" max="12" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="7" width="8.85546875" customWidth="1"/>
+    <col min="8" max="8" width="8" customWidth="1"/>
+    <col min="14" max="14" width="16.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19">
+    <row r="1" spans="1:23">
       <c r="A1" t="s">
-        <v>39</v>
+        <v>73</v>
       </c>
       <c r="B1" t="s">
-        <v>79</v>
+        <v>18</v>
       </c>
       <c r="C1" t="s">
-        <v>80</v>
+        <v>19</v>
       </c>
       <c r="D1" t="s">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="E1" t="s">
-        <v>82</v>
+        <v>21</v>
       </c>
       <c r="F1" t="s">
-        <v>83</v>
+        <v>30</v>
       </c>
       <c r="G1" t="s">
-        <v>84</v>
+        <v>31</v>
       </c>
       <c r="H1" t="s">
-        <v>78</v>
+        <v>22</v>
       </c>
       <c r="I1" t="s">
-        <v>74</v>
+        <v>23</v>
       </c>
       <c r="J1" t="s">
-        <v>85</v>
+        <v>17</v>
       </c>
       <c r="K1" t="s">
-        <v>77</v>
+        <v>13</v>
       </c>
       <c r="L1" t="s">
-        <v>86</v>
+        <v>24</v>
       </c>
       <c r="M1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="N1" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="O1" t="s">
-        <v>19</v>
+        <v>51</v>
       </c>
       <c r="P1" t="s">
-        <v>20</v>
+        <v>52</v>
       </c>
       <c r="Q1" t="s">
-        <v>21</v>
+        <v>53</v>
       </c>
       <c r="R1" t="s">
-        <v>75</v>
+        <v>32</v>
       </c>
       <c r="S1" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="3" spans="1:19">
+        <v>33</v>
+      </c>
+      <c r="T1" t="s">
+        <v>54</v>
+      </c>
+      <c r="U1" t="s">
+        <v>55</v>
+      </c>
+      <c r="V1" t="s">
+        <v>14</v>
+      </c>
+      <c r="W1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:23">
       <c r="A3">
         <v>1</v>
       </c>
@@ -1408,32 +1431,32 @@
       <c r="C3">
         <v>1</v>
       </c>
-      <c r="H3">
+      <c r="J3">
         <v>2</v>
       </c>
-      <c r="I3">
+      <c r="K3">
         <v>32</v>
       </c>
-      <c r="J3">
+      <c r="L3">
         <v>32</v>
       </c>
-      <c r="K3">
-        <v>4</v>
-      </c>
-      <c r="L3">
+      <c r="M3">
+        <v>4</v>
+      </c>
+      <c r="N3">
         <v>240</v>
       </c>
-      <c r="M3">
+      <c r="O3">
         <v>0</v>
       </c>
-      <c r="R3">
+      <c r="V3">
         <v>1405</v>
       </c>
-      <c r="S3">
+      <c r="W3">
         <v>1405</v>
       </c>
     </row>
-    <row r="4" spans="1:19">
+    <row r="4" spans="1:23">
       <c r="A4">
         <v>2</v>
       </c>
@@ -1443,32 +1466,32 @@
       <c r="C4">
         <v>1</v>
       </c>
-      <c r="H4">
+      <c r="J4">
         <v>2</v>
       </c>
-      <c r="I4">
-        <v>64</v>
-      </c>
-      <c r="J4">
-        <v>64</v>
-      </c>
       <c r="K4">
+        <v>64</v>
+      </c>
+      <c r="L4">
+        <v>64</v>
+      </c>
+      <c r="M4">
         <v>8</v>
       </c>
-      <c r="L4">
+      <c r="N4">
         <v>0</v>
       </c>
-      <c r="M4">
+      <c r="O4">
         <v>0</v>
       </c>
-      <c r="R4">
+      <c r="V4">
         <v>2301</v>
       </c>
-      <c r="S4">
+      <c r="W4">
         <v>2301</v>
       </c>
     </row>
-    <row r="5" spans="1:19">
+    <row r="5" spans="1:23">
       <c r="A5">
         <v>3</v>
       </c>
@@ -1478,90 +1501,90 @@
       <c r="C5">
         <v>1</v>
       </c>
-      <c r="H5">
+      <c r="J5">
         <v>2</v>
       </c>
-      <c r="I5">
+      <c r="K5">
         <v>32</v>
       </c>
-      <c r="J5">
+      <c r="L5">
         <v>32</v>
       </c>
-      <c r="K5">
-        <v>4</v>
-      </c>
-      <c r="L5">
+      <c r="M5">
+        <v>4</v>
+      </c>
+      <c r="N5">
         <v>38794</v>
       </c>
-      <c r="M5">
+      <c r="O5">
         <v>36610</v>
       </c>
-      <c r="R5">
+      <c r="V5">
         <v>38794</v>
       </c>
-      <c r="S5">
+      <c r="W5">
         <v>2184</v>
       </c>
     </row>
-    <row r="6" spans="1:19">
+    <row r="6" spans="1:23">
       <c r="A6">
         <v>4</v>
       </c>
       <c r="B6">
         <v>1</v>
       </c>
-      <c r="H6">
-        <v>1</v>
-      </c>
-      <c r="I6">
-        <v>64</v>
-      </c>
       <c r="J6">
-        <v>64</v>
+        <v>1</v>
       </c>
       <c r="K6">
+        <v>64</v>
+      </c>
+      <c r="L6">
+        <v>64</v>
+      </c>
+      <c r="M6">
         <v>16</v>
       </c>
-      <c r="L6">
+      <c r="N6">
         <v>17062</v>
       </c>
-      <c r="R6">
+      <c r="V6">
         <v>19252</v>
       </c>
-      <c r="S6">
+      <c r="W6">
         <v>2190</v>
       </c>
     </row>
-    <row r="7" spans="1:19">
+    <row r="7" spans="1:23">
       <c r="A7">
         <v>5</v>
       </c>
       <c r="B7">
         <v>1</v>
       </c>
-      <c r="H7">
-        <v>1</v>
-      </c>
-      <c r="I7">
-        <v>64</v>
-      </c>
       <c r="J7">
+        <v>1</v>
+      </c>
+      <c r="K7">
+        <v>64</v>
+      </c>
+      <c r="L7">
         <v>128</v>
       </c>
-      <c r="K7">
+      <c r="M7">
         <v>16</v>
       </c>
-      <c r="L7">
+      <c r="N7">
         <v>0</v>
       </c>
-      <c r="R7">
+      <c r="V7">
         <v>2289</v>
       </c>
-      <c r="S7">
+      <c r="W7">
         <v>2289</v>
       </c>
     </row>
-    <row r="8" spans="1:19">
+    <row r="8" spans="1:23">
       <c r="A8">
         <f>A7+1</f>
         <v>6</v>
@@ -1569,29 +1592,29 @@
       <c r="B8">
         <v>1</v>
       </c>
-      <c r="H8">
-        <v>1</v>
-      </c>
-      <c r="I8">
+      <c r="J8">
+        <v>1</v>
+      </c>
+      <c r="K8">
         <v>128</v>
       </c>
-      <c r="J8">
+      <c r="L8">
         <v>128</v>
       </c>
-      <c r="K8">
+      <c r="M8">
         <v>16</v>
       </c>
-      <c r="L8">
+      <c r="N8">
         <v>36</v>
       </c>
-      <c r="R8">
+      <c r="V8">
         <v>4406</v>
       </c>
-      <c r="S8">
+      <c r="W8">
         <v>4370</v>
       </c>
     </row>
-    <row r="9" spans="1:19">
+    <row r="9" spans="1:23">
       <c r="A9">
         <f>A8+1</f>
         <v>7</v>
@@ -1602,32 +1625,32 @@
       <c r="C9">
         <v>1</v>
       </c>
-      <c r="H9">
+      <c r="J9">
         <v>2</v>
       </c>
-      <c r="I9">
+      <c r="K9">
         <v>32</v>
       </c>
-      <c r="J9">
+      <c r="L9">
         <v>32</v>
       </c>
-      <c r="K9">
-        <v>4</v>
-      </c>
-      <c r="L9">
+      <c r="M9">
+        <v>4</v>
+      </c>
+      <c r="N9">
         <v>2377</v>
       </c>
-      <c r="M9">
+      <c r="O9">
         <v>0</v>
       </c>
-      <c r="R9">
+      <c r="V9">
         <v>2377</v>
       </c>
-      <c r="S9">
+      <c r="W9">
         <v>2377</v>
       </c>
     </row>
-    <row r="10" spans="1:19">
+    <row r="10" spans="1:23">
       <c r="A10">
         <f t="shared" ref="A10:A38" si="0">A9+1</f>
         <v>8</v>
@@ -1638,32 +1661,32 @@
       <c r="C10">
         <v>1</v>
       </c>
-      <c r="H10">
+      <c r="J10">
         <v>2</v>
       </c>
-      <c r="I10">
+      <c r="K10">
         <v>32</v>
       </c>
-      <c r="J10">
+      <c r="L10">
         <v>32</v>
       </c>
-      <c r="K10">
-        <v>4</v>
-      </c>
-      <c r="L10">
+      <c r="M10">
+        <v>4</v>
+      </c>
+      <c r="N10">
         <v>2482</v>
       </c>
-      <c r="M10">
+      <c r="O10">
         <v>0</v>
       </c>
-      <c r="R10">
+      <c r="V10">
         <v>2482</v>
       </c>
-      <c r="S10">
+      <c r="W10">
         <v>2482</v>
       </c>
     </row>
-    <row r="11" spans="1:19">
+    <row r="11" spans="1:23">
       <c r="A11">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -1674,32 +1697,32 @@
       <c r="D11">
         <v>1</v>
       </c>
-      <c r="H11">
+      <c r="J11">
         <v>2</v>
       </c>
-      <c r="I11">
+      <c r="K11">
         <v>32</v>
       </c>
-      <c r="J11">
+      <c r="L11">
         <v>32</v>
       </c>
-      <c r="K11">
-        <v>4</v>
-      </c>
-      <c r="L11">
+      <c r="M11">
+        <v>4</v>
+      </c>
+      <c r="N11">
         <v>210</v>
       </c>
-      <c r="N11">
+      <c r="P11">
         <v>30</v>
       </c>
-      <c r="R11">
+      <c r="V11">
         <v>1647</v>
       </c>
-      <c r="S11">
+      <c r="W11">
         <v>1617</v>
       </c>
     </row>
-    <row r="12" spans="1:19">
+    <row r="12" spans="1:23">
       <c r="A12">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -1707,29 +1730,29 @@
       <c r="D12">
         <v>1</v>
       </c>
-      <c r="H12">
-        <v>1</v>
-      </c>
-      <c r="I12">
+      <c r="J12">
+        <v>1</v>
+      </c>
+      <c r="K12">
         <v>32</v>
       </c>
-      <c r="J12">
+      <c r="L12">
         <v>128</v>
       </c>
-      <c r="K12">
+      <c r="M12">
         <v>16</v>
       </c>
-      <c r="N12">
+      <c r="P12">
         <v>85</v>
       </c>
-      <c r="R12">
+      <c r="V12">
         <v>1432</v>
       </c>
-      <c r="S12">
+      <c r="W12">
         <v>1347</v>
       </c>
     </row>
-    <row r="13" spans="1:19">
+    <row r="13" spans="1:23">
       <c r="A13">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -1737,29 +1760,29 @@
       <c r="D13">
         <v>1</v>
       </c>
-      <c r="H13">
-        <v>1</v>
-      </c>
-      <c r="I13">
-        <v>64</v>
-      </c>
       <c r="J13">
+        <v>1</v>
+      </c>
+      <c r="K13">
+        <v>64</v>
+      </c>
+      <c r="L13">
         <v>128</v>
       </c>
-      <c r="K13">
+      <c r="M13">
         <v>16</v>
       </c>
-      <c r="N13">
+      <c r="P13">
         <v>98</v>
       </c>
-      <c r="R13">
+      <c r="V13">
         <v>1771</v>
       </c>
-      <c r="S13">
+      <c r="W13">
         <v>1673</v>
       </c>
     </row>
-    <row r="14" spans="1:19">
+    <row r="14" spans="1:23">
       <c r="A14">
         <f t="shared" si="0"/>
         <v>12</v>
@@ -1767,29 +1790,29 @@
       <c r="D14">
         <v>1</v>
       </c>
-      <c r="H14">
-        <v>1</v>
-      </c>
-      <c r="I14">
+      <c r="J14">
+        <v>1</v>
+      </c>
+      <c r="K14">
         <v>128</v>
       </c>
-      <c r="J14">
+      <c r="L14">
         <v>128</v>
       </c>
-      <c r="K14">
+      <c r="M14">
         <v>16</v>
       </c>
-      <c r="N14">
+      <c r="P14">
         <v>72</v>
       </c>
-      <c r="R14">
+      <c r="V14">
         <v>3037</v>
       </c>
-      <c r="S14">
+      <c r="W14">
         <v>2965</v>
       </c>
     </row>
-    <row r="15" spans="1:19">
+    <row r="15" spans="1:23">
       <c r="A15">
         <f t="shared" si="0"/>
         <v>13</v>
@@ -1797,38 +1820,38 @@
       <c r="B15">
         <v>1</v>
       </c>
-      <c r="H15">
-        <v>1</v>
-      </c>
-      <c r="I15">
-        <v>64</v>
-      </c>
       <c r="J15">
+        <v>1</v>
+      </c>
+      <c r="K15">
+        <v>64</v>
+      </c>
+      <c r="L15">
         <v>128</v>
       </c>
-      <c r="K15">
+      <c r="M15">
         <v>16</v>
       </c>
-      <c r="L15">
+      <c r="N15">
         <v>10</v>
       </c>
-      <c r="R15">
+      <c r="V15">
         <v>1417</v>
       </c>
-      <c r="S15">
+      <c r="W15">
         <v>1407</v>
       </c>
     </row>
-    <row r="16" spans="1:19">
+    <row r="16" spans="1:23">
       <c r="A16">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="17" spans="1:19">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="17" spans="1:23">
       <c r="A17">
         <f t="shared" si="0"/>
         <v>15</v>
@@ -1836,29 +1859,29 @@
       <c r="D17">
         <v>2</v>
       </c>
-      <c r="H17">
+      <c r="J17">
         <v>2</v>
       </c>
-      <c r="I17">
-        <v>64</v>
-      </c>
-      <c r="J17">
-        <v>64</v>
-      </c>
       <c r="K17">
+        <v>64</v>
+      </c>
+      <c r="L17">
+        <v>64</v>
+      </c>
+      <c r="M17">
         <v>8</v>
       </c>
-      <c r="N17" t="s">
-        <v>88</v>
-      </c>
-      <c r="R17">
+      <c r="P17" t="s">
+        <v>27</v>
+      </c>
+      <c r="V17">
         <v>2286</v>
       </c>
-      <c r="S17">
+      <c r="W17">
         <v>2266</v>
       </c>
     </row>
-    <row r="18" spans="1:19">
+    <row r="18" spans="1:23">
       <c r="A18">
         <f t="shared" si="0"/>
         <v>16</v>
@@ -1869,32 +1892,32 @@
       <c r="D18">
         <v>1</v>
       </c>
-      <c r="H18">
+      <c r="J18">
         <v>2</v>
       </c>
-      <c r="I18">
-        <v>64</v>
-      </c>
-      <c r="J18">
-        <v>64</v>
-      </c>
       <c r="K18">
+        <v>64</v>
+      </c>
+      <c r="L18">
+        <v>64</v>
+      </c>
+      <c r="M18">
         <v>8</v>
       </c>
-      <c r="L18">
+      <c r="N18">
         <v>0</v>
       </c>
-      <c r="N18">
+      <c r="P18">
         <v>20</v>
       </c>
-      <c r="R18">
+      <c r="V18">
         <v>1670</v>
       </c>
-      <c r="S18">
+      <c r="W18">
         <v>1670</v>
       </c>
     </row>
-    <row r="19" spans="1:19">
+    <row r="19" spans="1:23">
       <c r="A19">
         <f t="shared" si="0"/>
         <v>17</v>
@@ -1908,35 +1931,35 @@
       <c r="E19">
         <v>1</v>
       </c>
-      <c r="H19">
+      <c r="J19">
         <v>2</v>
       </c>
-      <c r="I19">
-        <v>64</v>
-      </c>
-      <c r="J19">
+      <c r="K19">
+        <v>64</v>
+      </c>
+      <c r="L19">
         <v>72</v>
       </c>
-      <c r="K19">
+      <c r="M19">
         <v>6</v>
       </c>
-      <c r="L19">
+      <c r="N19">
         <v>2106</v>
       </c>
-      <c r="M19">
+      <c r="O19">
         <v>0</v>
       </c>
-      <c r="O19">
+      <c r="Q19">
         <v>120</v>
       </c>
-      <c r="R19">
+      <c r="V19">
         <v>2106</v>
       </c>
-      <c r="S19">
+      <c r="W19">
         <v>2106</v>
       </c>
     </row>
-    <row r="20" spans="1:19">
+    <row r="20" spans="1:23">
       <c r="A20">
         <f t="shared" si="0"/>
         <v>18</v>
@@ -1950,35 +1973,35 @@
       <c r="E20">
         <v>1</v>
       </c>
-      <c r="H20">
+      <c r="J20">
         <v>3</v>
       </c>
-      <c r="I20">
-        <v>64</v>
-      </c>
-      <c r="J20">
+      <c r="K20">
+        <v>64</v>
+      </c>
+      <c r="L20">
         <v>72</v>
       </c>
-      <c r="K20">
+      <c r="M20">
         <v>6</v>
       </c>
-      <c r="M20">
+      <c r="O20">
         <v>20</v>
       </c>
-      <c r="N20">
+      <c r="P20">
         <v>86</v>
       </c>
-      <c r="O20">
+      <c r="Q20">
         <v>116</v>
       </c>
-      <c r="R20">
+      <c r="V20">
         <v>1570</v>
       </c>
-      <c r="S20">
+      <c r="W20">
         <v>1550</v>
       </c>
     </row>
-    <row r="21" spans="1:19">
+    <row r="21" spans="1:23">
       <c r="A21">
         <f t="shared" si="0"/>
         <v>19</v>
@@ -1992,35 +2015,35 @@
       <c r="E21">
         <v>1</v>
       </c>
-      <c r="H21">
+      <c r="J21">
         <v>3</v>
       </c>
-      <c r="I21">
-        <v>64</v>
-      </c>
-      <c r="J21">
+      <c r="K21">
+        <v>64</v>
+      </c>
+      <c r="L21">
         <v>72</v>
       </c>
-      <c r="K21">
+      <c r="M21">
         <v>6</v>
-      </c>
-      <c r="M21">
-        <v>0</v>
-      </c>
-      <c r="N21">
-        <v>0</v>
       </c>
       <c r="O21">
         <v>0</v>
       </c>
-      <c r="R21">
+      <c r="P21">
+        <v>0</v>
+      </c>
+      <c r="Q21">
+        <v>0</v>
+      </c>
+      <c r="V21">
         <v>1615</v>
       </c>
-      <c r="S21">
+      <c r="W21">
         <v>1615</v>
       </c>
     </row>
-    <row r="22" spans="1:19">
+    <row r="22" spans="1:23">
       <c r="A22">
         <f t="shared" si="0"/>
         <v>20</v>
@@ -2034,35 +2057,35 @@
       <c r="E22">
         <v>1</v>
       </c>
-      <c r="H22">
+      <c r="J22">
         <v>3</v>
       </c>
-      <c r="I22">
-        <v>64</v>
-      </c>
-      <c r="J22">
+      <c r="K22">
+        <v>64</v>
+      </c>
+      <c r="L22">
         <v>72</v>
       </c>
-      <c r="K22">
+      <c r="M22">
         <v>6</v>
-      </c>
-      <c r="M22">
-        <v>0</v>
-      </c>
-      <c r="N22">
-        <v>16</v>
       </c>
       <c r="O22">
         <v>0</v>
       </c>
-      <c r="R22">
+      <c r="P22">
+        <v>16</v>
+      </c>
+      <c r="Q22">
+        <v>0</v>
+      </c>
+      <c r="V22">
         <v>1648</v>
       </c>
-      <c r="S22">
+      <c r="W22">
         <v>1648</v>
       </c>
     </row>
-    <row r="23" spans="1:19">
+    <row r="23" spans="1:23">
       <c r="A23">
         <f t="shared" si="0"/>
         <v>21</v>
@@ -2076,35 +2099,35 @@
       <c r="E23">
         <v>1</v>
       </c>
-      <c r="H23">
+      <c r="J23">
         <v>3</v>
       </c>
-      <c r="I23">
-        <v>64</v>
-      </c>
-      <c r="J23">
+      <c r="K23">
+        <v>64</v>
+      </c>
+      <c r="L23">
         <v>72</v>
       </c>
-      <c r="K23">
+      <c r="M23">
         <v>6</v>
       </c>
-      <c r="M23">
+      <c r="O23">
         <v>12</v>
       </c>
-      <c r="N23">
+      <c r="P23">
         <v>72</v>
       </c>
-      <c r="O23">
+      <c r="Q23">
         <v>18</v>
       </c>
-      <c r="R23">
+      <c r="V23">
         <v>1661</v>
       </c>
-      <c r="S23">
+      <c r="W23">
         <v>1649</v>
       </c>
     </row>
-    <row r="24" spans="1:19">
+    <row r="24" spans="1:23">
       <c r="A24">
         <f t="shared" si="0"/>
         <v>22</v>
@@ -2118,35 +2141,35 @@
       <c r="E24">
         <v>1</v>
       </c>
-      <c r="H24">
+      <c r="J24">
         <v>3</v>
       </c>
-      <c r="I24">
-        <v>64</v>
-      </c>
-      <c r="J24">
+      <c r="K24">
+        <v>64</v>
+      </c>
+      <c r="L24">
         <v>72</v>
       </c>
-      <c r="K24">
+      <c r="M24">
         <v>6</v>
-      </c>
-      <c r="M24">
-        <v>0</v>
-      </c>
-      <c r="N24">
-        <v>76</v>
       </c>
       <c r="O24">
         <v>0</v>
       </c>
-      <c r="R24">
+      <c r="P24">
+        <v>76</v>
+      </c>
+      <c r="Q24">
+        <v>0</v>
+      </c>
+      <c r="V24">
         <v>1593</v>
       </c>
-      <c r="S24">
+      <c r="W24">
         <v>1593</v>
       </c>
     </row>
-    <row r="25" spans="1:19">
+    <row r="25" spans="1:23">
       <c r="A25">
         <f t="shared" si="0"/>
         <v>23</v>
@@ -2154,36 +2177,36 @@
       <c r="B25">
         <v>1</v>
       </c>
-      <c r="F25">
-        <v>1</v>
-      </c>
       <c r="H25">
+        <v>1</v>
+      </c>
+      <c r="J25">
         <v>2</v>
       </c>
-      <c r="I25">
-        <v>64</v>
-      </c>
-      <c r="J25">
+      <c r="K25">
+        <v>64</v>
+      </c>
+      <c r="L25">
         <v>128</v>
       </c>
-      <c r="K25">
+      <c r="M25">
         <v>8</v>
       </c>
-      <c r="L25">
+      <c r="N25">
         <v>0</v>
       </c>
-      <c r="P25">
+      <c r="T25">
         <v>633</v>
       </c>
-      <c r="R25">
+      <c r="V25">
         <f>46*60</f>
         <v>2760</v>
       </c>
-      <c r="S25">
+      <c r="W25">
         <v>2760</v>
       </c>
     </row>
-    <row r="26" spans="1:19">
+    <row r="26" spans="1:23">
       <c r="A26">
         <f t="shared" si="0"/>
         <v>24</v>
@@ -2191,36 +2214,36 @@
       <c r="B26">
         <v>1</v>
       </c>
-      <c r="F26">
-        <v>1</v>
-      </c>
       <c r="H26">
+        <v>1</v>
+      </c>
+      <c r="J26">
         <v>2</v>
       </c>
-      <c r="I26">
+      <c r="K26">
         <v>32</v>
       </c>
-      <c r="J26">
-        <v>64</v>
-      </c>
-      <c r="K26">
-        <v>4</v>
-      </c>
       <c r="L26">
+        <v>64</v>
+      </c>
+      <c r="M26">
+        <v>4</v>
+      </c>
+      <c r="N26">
         <v>0</v>
       </c>
-      <c r="P26">
+      <c r="T26">
         <v>120</v>
       </c>
-      <c r="R26">
+      <c r="V26">
         <f>49*60</f>
         <v>2940</v>
       </c>
-      <c r="S26">
+      <c r="W26">
         <v>2940</v>
       </c>
     </row>
-    <row r="27" spans="1:19">
+    <row r="27" spans="1:23">
       <c r="A27">
         <f t="shared" si="0"/>
         <v>25</v>
@@ -2228,46 +2251,46 @@
       <c r="B27">
         <v>1</v>
       </c>
-      <c r="F27">
-        <v>1</v>
-      </c>
       <c r="H27">
+        <v>1</v>
+      </c>
+      <c r="J27">
         <v>2</v>
       </c>
-      <c r="I27">
-        <v>64</v>
-      </c>
-      <c r="J27">
-        <v>64</v>
-      </c>
       <c r="K27">
-        <v>4</v>
+        <v>64</v>
       </c>
       <c r="L27">
+        <v>64</v>
+      </c>
+      <c r="M27">
+        <v>4</v>
+      </c>
+      <c r="N27">
         <v>180</v>
       </c>
-      <c r="P27">
+      <c r="T27">
         <f>38*60</f>
         <v>2280</v>
       </c>
-      <c r="R27">
+      <c r="V27">
         <f>38*60</f>
         <v>2280</v>
       </c>
-      <c r="S27">
+      <c r="W27">
         <v>2100</v>
       </c>
     </row>
-    <row r="28" spans="1:19">
+    <row r="28" spans="1:23">
       <c r="A28">
         <f t="shared" si="0"/>
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="29" spans="1:19">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="29" spans="1:23">
       <c r="A29">
         <f t="shared" si="0"/>
         <v>27</v>
@@ -2275,29 +2298,29 @@
       <c r="B29">
         <v>4</v>
       </c>
-      <c r="H29">
-        <v>4</v>
-      </c>
-      <c r="I29">
-        <v>64</v>
-      </c>
       <c r="J29">
-        <v>64</v>
+        <v>4</v>
       </c>
       <c r="K29">
-        <v>4</v>
-      </c>
-      <c r="L29" t="s">
-        <v>13</v>
-      </c>
-      <c r="R29">
+        <v>64</v>
+      </c>
+      <c r="L29">
+        <v>64</v>
+      </c>
+      <c r="M29">
+        <v>4</v>
+      </c>
+      <c r="N29" t="s">
+        <v>48</v>
+      </c>
+      <c r="V29">
         <v>1143</v>
       </c>
-      <c r="S29">
+      <c r="W29">
         <v>1143</v>
       </c>
     </row>
-    <row r="30" spans="1:19">
+    <row r="30" spans="1:23">
       <c r="A30">
         <f t="shared" si="0"/>
         <v>28</v>
@@ -2308,32 +2331,32 @@
       <c r="C30">
         <v>2</v>
       </c>
-      <c r="H30">
-        <v>4</v>
-      </c>
-      <c r="I30">
-        <v>64</v>
-      </c>
       <c r="J30">
-        <v>64</v>
+        <v>4</v>
       </c>
       <c r="K30">
-        <v>4</v>
-      </c>
-      <c r="L30" t="s">
-        <v>0</v>
+        <v>64</v>
+      </c>
+      <c r="L30">
+        <v>64</v>
       </c>
       <c r="M30">
+        <v>4</v>
+      </c>
+      <c r="N30" t="s">
+        <v>35</v>
+      </c>
+      <c r="O30">
         <v>4219</v>
       </c>
-      <c r="R30">
+      <c r="V30">
         <v>4219</v>
       </c>
-      <c r="S30">
+      <c r="W30">
         <v>4219</v>
       </c>
     </row>
-    <row r="31" spans="1:19">
+    <row r="31" spans="1:23">
       <c r="A31">
         <f t="shared" si="0"/>
         <v>29</v>
@@ -2341,36 +2364,36 @@
       <c r="B31">
         <v>2</v>
       </c>
-      <c r="F31">
+      <c r="H31">
         <v>2</v>
       </c>
-      <c r="H31">
-        <v>4</v>
-      </c>
-      <c r="I31">
-        <v>64</v>
-      </c>
       <c r="J31">
-        <v>64</v>
+        <v>4</v>
       </c>
       <c r="K31">
-        <v>4</v>
-      </c>
-      <c r="L31" t="s">
-        <v>1</v>
-      </c>
-      <c r="P31">
-        <v>1740</v>
-      </c>
-      <c r="R31">
+        <v>64</v>
+      </c>
+      <c r="L31">
+        <v>64</v>
+      </c>
+      <c r="M31">
+        <v>4</v>
+      </c>
+      <c r="N31" t="s">
+        <v>36</v>
+      </c>
+      <c r="T31" t="s">
+        <v>28</v>
+      </c>
+      <c r="V31">
         <f>29*60</f>
         <v>1740</v>
       </c>
-      <c r="S31">
+      <c r="W31">
         <v>1740</v>
       </c>
     </row>
-    <row r="32" spans="1:19">
+    <row r="32" spans="1:23">
       <c r="A32">
         <f t="shared" si="0"/>
         <v>30</v>
@@ -2381,32 +2404,32 @@
       <c r="C32">
         <v>2</v>
       </c>
-      <c r="H32">
-        <v>4</v>
-      </c>
-      <c r="I32">
-        <v>64</v>
-      </c>
       <c r="J32">
-        <v>64</v>
+        <v>4</v>
       </c>
       <c r="K32">
-        <v>4</v>
-      </c>
-      <c r="L32" t="s">
-        <v>2</v>
-      </c>
-      <c r="M32" t="s">
-        <v>4</v>
-      </c>
-      <c r="R32">
+        <v>64</v>
+      </c>
+      <c r="L32">
+        <v>64</v>
+      </c>
+      <c r="M32">
+        <v>4</v>
+      </c>
+      <c r="N32" t="s">
+        <v>37</v>
+      </c>
+      <c r="O32" t="s">
+        <v>39</v>
+      </c>
+      <c r="V32">
         <v>1443</v>
       </c>
-      <c r="S32">
+      <c r="W32">
         <v>1443</v>
       </c>
     </row>
-    <row r="33" spans="1:19">
+    <row r="33" spans="1:23">
       <c r="A33">
         <f t="shared" si="0"/>
         <v>31</v>
@@ -2417,33 +2440,33 @@
       <c r="C33">
         <v>2</v>
       </c>
-      <c r="H33">
-        <v>4</v>
-      </c>
-      <c r="I33">
-        <v>64</v>
-      </c>
       <c r="J33">
-        <v>64</v>
+        <v>4</v>
       </c>
       <c r="K33">
-        <v>4</v>
-      </c>
-      <c r="L33" t="s">
-        <v>9</v>
-      </c>
-      <c r="M33" t="s">
-        <v>3</v>
-      </c>
-      <c r="R33">
+        <v>64</v>
+      </c>
+      <c r="L33">
+        <v>64</v>
+      </c>
+      <c r="M33">
+        <v>4</v>
+      </c>
+      <c r="N33" t="s">
+        <v>44</v>
+      </c>
+      <c r="O33" t="s">
+        <v>38</v>
+      </c>
+      <c r="V33">
         <f>21*60</f>
         <v>1260</v>
       </c>
-      <c r="S33">
+      <c r="W33">
         <v>1260</v>
       </c>
     </row>
-    <row r="34" spans="1:19">
+    <row r="34" spans="1:23">
       <c r="A34">
         <f t="shared" si="0"/>
         <v>32</v>
@@ -2451,30 +2474,30 @@
       <c r="B34">
         <v>4</v>
       </c>
-      <c r="H34">
-        <v>4</v>
-      </c>
-      <c r="I34">
-        <v>64</v>
-      </c>
       <c r="J34">
-        <v>64</v>
+        <v>4</v>
       </c>
       <c r="K34">
-        <v>4</v>
-      </c>
-      <c r="L34" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="R34">
+        <v>64</v>
+      </c>
+      <c r="L34">
+        <v>64</v>
+      </c>
+      <c r="M34">
+        <v>4</v>
+      </c>
+      <c r="N34" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="V34">
         <v>6840</v>
       </c>
-      <c r="S34">
+      <c r="W34">
         <f>6840-489</f>
         <v>6351</v>
       </c>
     </row>
-    <row r="35" spans="1:19">
+    <row r="35" spans="1:23">
       <c r="A35">
         <f t="shared" si="0"/>
         <v>33</v>
@@ -2488,36 +2511,36 @@
       <c r="D35">
         <v>2</v>
       </c>
-      <c r="H35">
-        <v>4</v>
-      </c>
-      <c r="I35">
-        <v>64</v>
-      </c>
       <c r="J35">
-        <v>64</v>
+        <v>4</v>
       </c>
       <c r="K35">
-        <v>4</v>
+        <v>64</v>
       </c>
       <c r="L35">
+        <v>64</v>
+      </c>
+      <c r="M35">
+        <v>4</v>
+      </c>
+      <c r="N35">
         <v>491</v>
       </c>
-      <c r="M35">
+      <c r="O35">
         <v>0</v>
       </c>
-      <c r="N35" t="s">
-        <v>5</v>
-      </c>
-      <c r="R35">
+      <c r="P35" t="s">
+        <v>40</v>
+      </c>
+      <c r="V35">
         <f>22*60</f>
         <v>1320</v>
       </c>
-      <c r="S35">
+      <c r="W35">
         <v>1320</v>
       </c>
     </row>
-    <row r="36" spans="1:19">
+    <row r="36" spans="1:23">
       <c r="A36">
         <f t="shared" si="0"/>
         <v>34</v>
@@ -2531,86 +2554,171 @@
       <c r="D36">
         <v>2</v>
       </c>
-      <c r="H36">
-        <v>4</v>
-      </c>
-      <c r="I36">
-        <v>64</v>
-      </c>
       <c r="J36">
-        <v>64</v>
+        <v>4</v>
       </c>
       <c r="K36">
-        <v>4</v>
+        <v>64</v>
       </c>
       <c r="L36">
+        <v>64</v>
+      </c>
+      <c r="M36">
+        <v>4</v>
+      </c>
+      <c r="N36">
         <f>34*60</f>
         <v>2040</v>
       </c>
-      <c r="M36">
+      <c r="O36">
         <v>0</v>
       </c>
-      <c r="N36" t="s">
-        <v>5</v>
-      </c>
-      <c r="R36">
+      <c r="P36" t="s">
+        <v>40</v>
+      </c>
+      <c r="V36">
         <f>24*60</f>
         <v>1440</v>
       </c>
-      <c r="S36">
+      <c r="W36">
         <f>24*60</f>
         <v>1440</v>
       </c>
     </row>
-    <row r="37" spans="1:19">
+    <row r="37" spans="1:23">
       <c r="A37">
         <f t="shared" si="0"/>
         <v>35</v>
       </c>
-    </row>
-    <row r="38" spans="1:19">
+      <c r="B37">
+        <v>1</v>
+      </c>
+      <c r="E37">
+        <v>1</v>
+      </c>
+      <c r="F37">
+        <v>1</v>
+      </c>
+      <c r="G37">
+        <v>1</v>
+      </c>
+      <c r="J37">
+        <v>4</v>
+      </c>
+      <c r="K37">
+        <v>64</v>
+      </c>
+      <c r="L37">
+        <v>64</v>
+      </c>
+      <c r="M37">
+        <v>4</v>
+      </c>
+      <c r="N37">
+        <v>0</v>
+      </c>
+      <c r="Q37">
+        <v>30</v>
+      </c>
+      <c r="R37">
+        <v>60</v>
+      </c>
+      <c r="S37">
+        <v>30</v>
+      </c>
+      <c r="V37">
+        <v>1495</v>
+      </c>
+      <c r="W37">
+        <v>1495</v>
+      </c>
+    </row>
+    <row r="38" spans="1:23">
       <c r="A38">
         <f t="shared" si="0"/>
         <v>36</v>
       </c>
-    </row>
-    <row r="42" spans="1:19">
+      <c r="B38">
+        <v>1</v>
+      </c>
+      <c r="C38">
+        <v>1</v>
+      </c>
+      <c r="F38">
+        <v>1</v>
+      </c>
+      <c r="G38">
+        <v>1</v>
+      </c>
+      <c r="J38">
+        <v>4</v>
+      </c>
+      <c r="K38">
+        <v>64</v>
+      </c>
+      <c r="L38">
+        <v>64</v>
+      </c>
+      <c r="M38">
+        <v>4</v>
+      </c>
+      <c r="N38">
+        <v>0</v>
+      </c>
+      <c r="O38">
+        <v>0</v>
+      </c>
+      <c r="R38">
+        <v>60</v>
+      </c>
+      <c r="S38">
+        <v>60</v>
+      </c>
+      <c r="V38">
+        <f>21*60</f>
+        <v>1260</v>
+      </c>
+      <c r="W38">
+        <v>1260</v>
+      </c>
+    </row>
+    <row r="42" spans="1:23">
       <c r="A42" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="43" spans="1:19">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="43" spans="1:23">
       <c r="A43">
         <v>1</v>
       </c>
       <c r="B43">
         <v>4</v>
       </c>
-      <c r="H43">
-        <v>4</v>
-      </c>
-      <c r="I43">
-        <v>64</v>
-      </c>
       <c r="J43">
-        <v>64</v>
+        <v>4</v>
       </c>
       <c r="K43">
-        <v>4</v>
-      </c>
-      <c r="L43" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="R43">
+        <v>64</v>
+      </c>
+      <c r="L43">
+        <v>64</v>
+      </c>
+      <c r="M43">
+        <v>4</v>
+      </c>
+      <c r="N43" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="V43">
         <f>143*60</f>
         <v>8580</v>
       </c>
-      <c r="S43">
+      <c r="W43">
         <f>8580-180</f>
         <v>8400</v>
       </c>
     </row>
-    <row r="44" spans="1:19">
+    <row r="44" spans="1:23">
       <c r="A44">
         <v>2</v>
       </c>
@@ -2620,33 +2728,32 @@
       <c r="C44">
         <v>2</v>
       </c>
-      <c r="H44">
-        <v>4</v>
-      </c>
-      <c r="I44">
-        <v>64</v>
-      </c>
       <c r="J44">
-        <v>64</v>
+        <v>4</v>
       </c>
       <c r="K44">
-        <v>4</v>
-      </c>
-      <c r="L44" t="s">
-        <v>10</v>
-      </c>
-      <c r="M44" t="s">
-        <v>11</v>
-      </c>
-      <c r="R44">
-        <f>130*60</f>
-        <v>7800</v>
-      </c>
-      <c r="S44">
-        <v>7800</v>
-      </c>
-    </row>
-    <row r="45" spans="1:19">
+        <v>64</v>
+      </c>
+      <c r="L44">
+        <v>64</v>
+      </c>
+      <c r="M44">
+        <v>4</v>
+      </c>
+      <c r="N44" t="s">
+        <v>45</v>
+      </c>
+      <c r="O44" t="s">
+        <v>46</v>
+      </c>
+      <c r="V44">
+        <v>7850</v>
+      </c>
+      <c r="W44">
+        <v>7850</v>
+      </c>
+    </row>
+    <row r="45" spans="1:23">
       <c r="A45">
         <v>3</v>
       </c>
@@ -2656,105 +2763,242 @@
       <c r="D45">
         <v>2</v>
       </c>
-      <c r="H45">
-        <v>4</v>
-      </c>
-      <c r="I45">
-        <v>64</v>
-      </c>
       <c r="J45">
-        <v>64</v>
+        <v>4</v>
       </c>
       <c r="K45">
-        <v>4</v>
-      </c>
-      <c r="L45" t="s">
-        <v>11</v>
+        <v>64</v>
+      </c>
+      <c r="L45">
+        <v>64</v>
+      </c>
+      <c r="M45">
+        <v>4</v>
       </c>
       <c r="N45" t="s">
-        <v>11</v>
-      </c>
-      <c r="R45">
-        <v>6923</v>
-      </c>
-      <c r="S45">
-        <v>6923</v>
-      </c>
-    </row>
-    <row r="52" spans="13:15">
-      <c r="M52" t="s">
-        <v>14</v>
-      </c>
-      <c r="N52">
-        <f>8412/60</f>
-        <v>140.19999999999999</v>
-      </c>
-      <c r="O52">
-        <f>2445/60</f>
-        <v>40.75</v>
-      </c>
-    </row>
-    <row r="53" spans="13:15">
-      <c r="M53" t="s">
-        <v>15</v>
-      </c>
-      <c r="N53">
-        <f>7854/60</f>
-        <v>130.9</v>
-      </c>
-      <c r="O53">
-        <f>1640/60</f>
-        <v>27.333333333333332</v>
-      </c>
-    </row>
-    <row r="54" spans="13:15">
-      <c r="M54" t="s">
-        <v>16</v>
-      </c>
-      <c r="N54">
-        <f>6923/60</f>
-        <v>115.38333333333334</v>
-      </c>
-      <c r="O54">
-        <f>1348/60</f>
-        <v>22.466666666666665</v>
-      </c>
-    </row>
-    <row r="55" spans="13:15">
-      <c r="O55" s="3"/>
-    </row>
-    <row r="66" spans="1:20">
+        <v>46</v>
+      </c>
+      <c r="P45" t="s">
+        <v>46</v>
+      </c>
+      <c r="V45">
+        <v>7652</v>
+      </c>
+      <c r="W45">
+        <v>7652</v>
+      </c>
+    </row>
+    <row r="46" spans="1:23">
+      <c r="A46">
+        <v>4</v>
+      </c>
+      <c r="C46">
+        <v>2</v>
+      </c>
+      <c r="D46">
+        <v>2</v>
+      </c>
+      <c r="J46">
+        <v>4</v>
+      </c>
+      <c r="K46">
+        <v>64</v>
+      </c>
+      <c r="L46">
+        <v>64</v>
+      </c>
+      <c r="M46">
+        <v>4</v>
+      </c>
+      <c r="O46" t="s">
+        <v>29</v>
+      </c>
+      <c r="P46" t="s">
+        <v>29</v>
+      </c>
+      <c r="V46">
+        <v>7112</v>
+      </c>
+      <c r="W46">
+        <v>7112</v>
+      </c>
+    </row>
+    <row r="47" spans="1:23">
+      <c r="A47">
+        <v>5</v>
+      </c>
+      <c r="B47">
+        <v>1</v>
+      </c>
+      <c r="E47">
+        <v>1</v>
+      </c>
+      <c r="F47">
+        <v>1</v>
+      </c>
+      <c r="G47">
+        <v>1</v>
+      </c>
+      <c r="J47">
+        <v>4</v>
+      </c>
+      <c r="K47">
+        <v>64</v>
+      </c>
+      <c r="L47">
+        <v>64</v>
+      </c>
+      <c r="M47">
+        <v>4</v>
+      </c>
+      <c r="N47">
+        <v>120</v>
+      </c>
+      <c r="Q47">
+        <v>60</v>
+      </c>
+      <c r="R47">
+        <v>60</v>
+      </c>
+      <c r="S47">
+        <v>60</v>
+      </c>
+      <c r="V47">
+        <v>8350</v>
+      </c>
+      <c r="W47">
+        <f>8350-120</f>
+        <v>8230</v>
+      </c>
+    </row>
+    <row r="48" spans="1:23">
+      <c r="A48">
+        <v>6</v>
+      </c>
+      <c r="C48">
+        <v>1</v>
+      </c>
+      <c r="D48">
+        <v>1</v>
+      </c>
+      <c r="E48">
+        <v>1</v>
+      </c>
+      <c r="F48">
+        <v>1</v>
+      </c>
+      <c r="J48">
+        <v>4</v>
+      </c>
+      <c r="K48">
+        <v>64</v>
+      </c>
+      <c r="L48">
+        <v>64</v>
+      </c>
+      <c r="M48">
+        <v>4</v>
+      </c>
+      <c r="O48">
+        <v>0</v>
+      </c>
+      <c r="P48">
+        <v>0</v>
+      </c>
+      <c r="Q48">
+        <v>0</v>
+      </c>
+      <c r="R48">
+        <v>0</v>
+      </c>
+      <c r="V48">
+        <v>7217</v>
+      </c>
+      <c r="W48">
+        <v>7217</v>
+      </c>
+    </row>
+    <row r="52" spans="15:19">
+      <c r="O52" t="s">
+        <v>49</v>
+      </c>
+      <c r="P52">
+        <f>W43/60</f>
+        <v>140</v>
+      </c>
+      <c r="Q52">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="53" spans="15:19">
+      <c r="O53" t="s">
+        <v>50</v>
+      </c>
+      <c r="P53">
+        <f>W45/60</f>
+        <v>127.53333333333333</v>
+      </c>
+      <c r="Q53">
+        <f>1481/60</f>
+        <v>24.683333333333334</v>
+      </c>
+    </row>
+    <row r="54" spans="15:19">
+      <c r="O54" t="s">
+        <v>34</v>
+      </c>
+      <c r="P54">
+        <f>7217/60</f>
+        <v>120.28333333333333</v>
+      </c>
+      <c r="Q54">
+        <f>1377/60</f>
+        <v>22.95</v>
+      </c>
+    </row>
+    <row r="55" spans="15:19">
+      <c r="Q55" s="3"/>
+      <c r="R55" s="3"/>
+      <c r="S55" s="3"/>
+    </row>
+    <row r="66" spans="1:24">
       <c r="A66" t="s">
-        <v>12</v>
+        <v>47</v>
       </c>
       <c r="F66" t="s">
-        <v>12</v>
+        <v>47</v>
       </c>
       <c r="G66" t="s">
-        <v>12</v>
-      </c>
-      <c r="K66" t="s">
-        <v>12</v>
-      </c>
-      <c r="L66" t="s">
-        <v>12</v>
-      </c>
-      <c r="O66" t="s">
-        <v>12</v>
-      </c>
-      <c r="P66" t="s">
-        <v>12</v>
+        <v>47</v>
+      </c>
+      <c r="H66" t="s">
+        <v>47</v>
+      </c>
+      <c r="I66" t="s">
+        <v>47</v>
+      </c>
+      <c r="M66" t="s">
+        <v>47</v>
+      </c>
+      <c r="N66" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q66" t="s">
+        <v>47</v>
       </c>
       <c r="T66" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="68" spans="1:20">
+        <v>47</v>
+      </c>
+      <c r="X66" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="68" spans="1:24">
       <c r="A68">
         <v>1</v>
       </c>
       <c r="B68" t="s">
-        <v>28</v>
+        <v>62</v>
       </c>
       <c r="C68">
         <v>32</v>
@@ -2766,9 +3010,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="1:20">
+    <row r="69" spans="1:24">
       <c r="B69" t="s">
-        <v>29</v>
+        <v>63</v>
       </c>
       <c r="C69">
         <v>64</v>
@@ -2780,9 +3024,9 @@
         <v>32</v>
       </c>
     </row>
-    <row r="70" spans="1:20">
+    <row r="70" spans="1:24">
       <c r="B70" t="s">
-        <v>35</v>
+        <v>69</v>
       </c>
       <c r="C70">
         <v>2</v>
@@ -2794,9 +3038,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="71" spans="1:20">
+    <row r="71" spans="1:24">
       <c r="B71" t="s">
-        <v>30</v>
+        <v>64</v>
       </c>
       <c r="C71">
         <v>8</v>
@@ -2808,9 +3052,9 @@
         <v>4</v>
       </c>
     </row>
-    <row r="72" spans="1:20">
+    <row r="72" spans="1:24">
       <c r="B72" t="s">
-        <v>32</v>
+        <v>66</v>
       </c>
       <c r="D72">
         <v>240</v>
@@ -2819,9 +3063,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:20">
+    <row r="73" spans="1:24">
       <c r="B73" t="s">
-        <v>34</v>
+        <v>68</v>
       </c>
       <c r="C73">
         <v>1405</v>
@@ -2833,33 +3077,33 @@
         <v>1405</v>
       </c>
     </row>
-    <row r="74" spans="1:20">
+    <row r="74" spans="1:24">
       <c r="B74" t="s">
-        <v>67</v>
+        <v>6</v>
       </c>
       <c r="C74">
         <v>1405</v>
       </c>
     </row>
-    <row r="76" spans="1:20">
+    <row r="76" spans="1:24">
       <c r="A76">
         <v>2</v>
       </c>
       <c r="B76" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="77" spans="1:20">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="77" spans="1:24">
       <c r="B77" t="s">
-        <v>28</v>
+        <v>62</v>
       </c>
       <c r="C77">
         <v>64</v>
       </c>
     </row>
-    <row r="78" spans="1:20">
+    <row r="78" spans="1:24">
       <c r="B78" t="s">
-        <v>29</v>
+        <v>63</v>
       </c>
       <c r="C78">
         <v>128</v>
@@ -2871,9 +3115,9 @@
         <v>64</v>
       </c>
     </row>
-    <row r="79" spans="1:20">
+    <row r="79" spans="1:24">
       <c r="B79" t="s">
-        <v>35</v>
+        <v>69</v>
       </c>
       <c r="C79">
         <v>2</v>
@@ -2884,10 +3128,14 @@
       <c r="E79">
         <v>1</v>
       </c>
-    </row>
-    <row r="80" spans="1:20">
+      <c r="U79">
+        <f>20/140</f>
+        <v>0.14285714285714285</v>
+      </c>
+    </row>
+    <row r="80" spans="1:24">
       <c r="B80" t="s">
-        <v>30</v>
+        <v>64</v>
       </c>
       <c r="C80">
         <v>16</v>
@@ -2898,10 +3146,14 @@
       <c r="E80">
         <v>8</v>
       </c>
-    </row>
-    <row r="81" spans="1:5">
+      <c r="U80">
+        <f>40/60</f>
+        <v>0.66666666666666663</v>
+      </c>
+    </row>
+    <row r="81" spans="1:16">
       <c r="B81" t="s">
-        <v>32</v>
+        <v>66</v>
       </c>
       <c r="D81">
         <v>0</v>
@@ -2910,9 +3162,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:5">
+    <row r="82" spans="1:16">
       <c r="B82" t="s">
-        <v>34</v>
+        <v>68</v>
       </c>
       <c r="C82">
         <v>2301</v>
@@ -2924,78 +3176,82 @@
         <v>2301</v>
       </c>
     </row>
-    <row r="83" spans="1:5">
+    <row r="83" spans="1:16">
       <c r="B83" t="s">
-        <v>67</v>
+        <v>6</v>
       </c>
       <c r="C83">
         <v>2301</v>
       </c>
     </row>
-    <row r="84" spans="1:5">
+    <row r="84" spans="1:16">
       <c r="B84" s="1"/>
     </row>
-    <row r="85" spans="1:5">
+    <row r="85" spans="1:16">
       <c r="A85">
         <v>3</v>
       </c>
       <c r="B85" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="86" spans="1:5">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="86" spans="1:16">
       <c r="B86" t="s">
-        <v>27</v>
+        <v>61</v>
       </c>
       <c r="C86">
         <v>32</v>
       </c>
-    </row>
-    <row r="87" spans="1:5">
+      <c r="P86">
+        <f>18/40</f>
+        <v>0.45</v>
+      </c>
+    </row>
+    <row r="87" spans="1:16">
       <c r="B87" t="s">
-        <v>24</v>
+        <v>58</v>
       </c>
       <c r="C87">
         <v>64</v>
       </c>
       <c r="D87" t="s">
-        <v>40</v>
+        <v>74</v>
       </c>
       <c r="E87">
         <v>32</v>
       </c>
     </row>
-    <row r="88" spans="1:5">
+    <row r="88" spans="1:16">
       <c r="B88" t="s">
-        <v>26</v>
+        <v>60</v>
       </c>
       <c r="C88">
         <v>2</v>
       </c>
       <c r="D88" t="s">
-        <v>41</v>
+        <v>75</v>
       </c>
       <c r="E88">
         <v>1</v>
       </c>
     </row>
-    <row r="89" spans="1:5">
+    <row r="89" spans="1:16">
       <c r="B89" t="s">
-        <v>25</v>
+        <v>59</v>
       </c>
       <c r="C89">
         <v>8</v>
       </c>
       <c r="D89" t="s">
-        <v>42</v>
+        <v>76</v>
       </c>
       <c r="E89">
         <v>4</v>
       </c>
     </row>
-    <row r="90" spans="1:5">
+    <row r="90" spans="1:16">
       <c r="B90" t="s">
-        <v>31</v>
+        <v>65</v>
       </c>
       <c r="D90">
         <v>38794</v>
@@ -3005,9 +3261,9 @@
         <v>36610</v>
       </c>
     </row>
-    <row r="91" spans="1:5">
+    <row r="91" spans="1:16">
       <c r="B91" t="s">
-        <v>33</v>
+        <v>67</v>
       </c>
       <c r="C91">
         <v>38794</v>
@@ -3019,33 +3275,33 @@
         <v>2184</v>
       </c>
     </row>
-    <row r="92" spans="1:5">
+    <row r="92" spans="1:16">
       <c r="B92" t="s">
-        <v>44</v>
+        <v>78</v>
       </c>
       <c r="C92">
         <v>2184</v>
       </c>
     </row>
-    <row r="94" spans="1:5">
+    <row r="94" spans="1:16">
       <c r="A94">
         <v>4</v>
       </c>
       <c r="B94" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="95" spans="1:5">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="95" spans="1:16">
       <c r="B95" t="s">
-        <v>27</v>
+        <v>61</v>
       </c>
       <c r="C95">
         <v>64</v>
       </c>
     </row>
-    <row r="96" spans="1:5">
+    <row r="96" spans="1:16">
       <c r="B96" t="s">
-        <v>24</v>
+        <v>58</v>
       </c>
       <c r="C96">
         <v>64</v>
@@ -3056,7 +3312,7 @@
     </row>
     <row r="97" spans="1:4">
       <c r="B97" t="s">
-        <v>26</v>
+        <v>60</v>
       </c>
       <c r="C97">
         <v>1</v>
@@ -3067,7 +3323,7 @@
     </row>
     <row r="98" spans="1:4">
       <c r="B98" t="s">
-        <v>25</v>
+        <v>59</v>
       </c>
       <c r="C98">
         <v>16</v>
@@ -3078,7 +3334,7 @@
     </row>
     <row r="99" spans="1:4">
       <c r="B99" t="s">
-        <v>31</v>
+        <v>65</v>
       </c>
       <c r="D99">
         <f>501416-484354</f>
@@ -3087,7 +3343,7 @@
     </row>
     <row r="100" spans="1:4">
       <c r="B100" t="s">
-        <v>33</v>
+        <v>67</v>
       </c>
       <c r="C100">
         <f>503606-484354</f>
@@ -3096,7 +3352,7 @@
     </row>
     <row r="101" spans="1:4">
       <c r="B101" t="s">
-        <v>44</v>
+        <v>78</v>
       </c>
       <c r="C101">
         <f>19252-17062</f>
@@ -3112,12 +3368,12 @@
         <v>5</v>
       </c>
       <c r="B103" t="s">
-        <v>38</v>
+        <v>72</v>
       </c>
     </row>
     <row r="104" spans="1:4">
       <c r="B104" t="s">
-        <v>27</v>
+        <v>61</v>
       </c>
       <c r="C104">
         <v>64</v>
@@ -3125,7 +3381,7 @@
     </row>
     <row r="105" spans="1:4">
       <c r="B105" t="s">
-        <v>24</v>
+        <v>58</v>
       </c>
       <c r="C105">
         <v>128</v>
@@ -3136,7 +3392,7 @@
     </row>
     <row r="106" spans="1:4">
       <c r="B106" t="s">
-        <v>26</v>
+        <v>60</v>
       </c>
       <c r="C106">
         <v>1</v>
@@ -3147,7 +3403,7 @@
     </row>
     <row r="107" spans="1:4">
       <c r="B107" t="s">
-        <v>25</v>
+        <v>59</v>
       </c>
       <c r="C107">
         <v>16</v>
@@ -3158,12 +3414,12 @@
     </row>
     <row r="108" spans="1:4">
       <c r="B108" t="s">
-        <v>31</v>
+        <v>65</v>
       </c>
     </row>
     <row r="109" spans="1:4">
       <c r="B109" t="s">
-        <v>33</v>
+        <v>67</v>
       </c>
       <c r="C109">
         <f>7417-5128</f>
@@ -3172,7 +3428,7 @@
     </row>
     <row r="110" spans="1:4">
       <c r="B110" t="s">
-        <v>44</v>
+        <v>78</v>
       </c>
       <c r="C110">
         <f>7417-5128</f>
@@ -3184,12 +3440,12 @@
         <v>6</v>
       </c>
       <c r="B112" t="s">
-        <v>38</v>
+        <v>72</v>
       </c>
     </row>
     <row r="113" spans="1:5">
       <c r="B113" t="s">
-        <v>27</v>
+        <v>61</v>
       </c>
       <c r="C113">
         <v>128</v>
@@ -3197,7 +3453,7 @@
     </row>
     <row r="114" spans="1:5">
       <c r="B114" t="s">
-        <v>24</v>
+        <v>58</v>
       </c>
       <c r="C114">
         <v>128</v>
@@ -3208,7 +3464,7 @@
     </row>
     <row r="115" spans="1:5">
       <c r="B115" t="s">
-        <v>26</v>
+        <v>60</v>
       </c>
       <c r="C115">
         <v>1</v>
@@ -3219,7 +3475,7 @@
     </row>
     <row r="116" spans="1:5">
       <c r="B116" t="s">
-        <v>25</v>
+        <v>59</v>
       </c>
       <c r="C116">
         <v>16</v>
@@ -3230,7 +3486,7 @@
     </row>
     <row r="117" spans="1:5">
       <c r="B117" t="s">
-        <v>31</v>
+        <v>65</v>
       </c>
       <c r="D117">
         <v>36</v>
@@ -3238,7 +3494,7 @@
     </row>
     <row r="118" spans="1:5">
       <c r="B118" t="s">
-        <v>33</v>
+        <v>67</v>
       </c>
       <c r="C118">
         <v>4406</v>
@@ -3246,7 +3502,7 @@
     </row>
     <row r="119" spans="1:5">
       <c r="B119" t="s">
-        <v>44</v>
+        <v>78</v>
       </c>
       <c r="C119">
         <v>4370</v>
@@ -3257,12 +3513,12 @@
         <v>7</v>
       </c>
       <c r="B121" t="s">
-        <v>38</v>
+        <v>72</v>
       </c>
     </row>
     <row r="122" spans="1:5">
       <c r="B122" t="s">
-        <v>27</v>
+        <v>61</v>
       </c>
       <c r="C122">
         <v>32</v>
@@ -3270,13 +3526,13 @@
     </row>
     <row r="123" spans="1:5">
       <c r="B123" t="s">
-        <v>24</v>
+        <v>58</v>
       </c>
       <c r="C123">
         <v>64</v>
       </c>
       <c r="D123" t="s">
-        <v>68</v>
+        <v>7</v>
       </c>
       <c r="E123">
         <v>32</v>
@@ -3284,7 +3540,7 @@
     </row>
     <row r="124" spans="1:5">
       <c r="B124" t="s">
-        <v>26</v>
+        <v>60</v>
       </c>
       <c r="C124">
         <v>2</v>
@@ -3298,13 +3554,13 @@
     </row>
     <row r="125" spans="1:5">
       <c r="B125" t="s">
-        <v>25</v>
+        <v>59</v>
       </c>
       <c r="C125">
         <v>8</v>
       </c>
       <c r="D125" t="s">
-        <v>46</v>
+        <v>80</v>
       </c>
       <c r="E125">
         <v>4</v>
@@ -3312,7 +3568,7 @@
     </row>
     <row r="126" spans="1:5">
       <c r="B126" t="s">
-        <v>31</v>
+        <v>65</v>
       </c>
       <c r="D126">
         <v>2377</v>
@@ -3323,7 +3579,7 @@
     </row>
     <row r="127" spans="1:5">
       <c r="B127" t="s">
-        <v>33</v>
+        <v>67</v>
       </c>
       <c r="C127">
         <f>6565-4188</f>
@@ -3332,45 +3588,45 @@
     </row>
     <row r="128" spans="1:5">
       <c r="B128" t="s">
-        <v>44</v>
+        <v>78</v>
       </c>
       <c r="C128">
         <v>2377</v>
       </c>
     </row>
-    <row r="130" spans="1:6">
+    <row r="130" spans="1:8">
       <c r="A130">
         <v>8</v>
       </c>
       <c r="B130" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="131" spans="1:6">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="131" spans="1:8">
       <c r="B131" t="s">
-        <v>27</v>
+        <v>61</v>
       </c>
       <c r="C131">
         <v>32</v>
       </c>
     </row>
-    <row r="132" spans="1:6">
+    <row r="132" spans="1:8">
       <c r="B132" t="s">
-        <v>24</v>
+        <v>58</v>
       </c>
       <c r="C132">
         <v>64</v>
       </c>
       <c r="D132" t="s">
-        <v>45</v>
+        <v>79</v>
       </c>
       <c r="E132">
         <v>32</v>
       </c>
     </row>
-    <row r="133" spans="1:6">
+    <row r="133" spans="1:8">
       <c r="B133" t="s">
-        <v>26</v>
+        <v>60</v>
       </c>
       <c r="C133">
         <v>2</v>
@@ -3382,64 +3638,64 @@
         <v>1</v>
       </c>
     </row>
-    <row r="134" spans="1:6">
+    <row r="134" spans="1:8">
       <c r="B134" t="s">
-        <v>25</v>
+        <v>59</v>
       </c>
       <c r="C134">
         <v>8</v>
       </c>
       <c r="D134" t="s">
-        <v>45</v>
+        <v>79</v>
       </c>
       <c r="E134">
         <v>4</v>
       </c>
     </row>
-    <row r="135" spans="1:6">
+    <row r="135" spans="1:8">
       <c r="B135" t="s">
-        <v>31</v>
+        <v>65</v>
       </c>
       <c r="D135">
         <v>2482</v>
       </c>
     </row>
-    <row r="136" spans="1:6">
+    <row r="136" spans="1:8">
       <c r="B136" t="s">
-        <v>33</v>
+        <v>67</v>
       </c>
       <c r="C136">
         <f>61813-59331</f>
         <v>2482</v>
       </c>
     </row>
-    <row r="137" spans="1:6">
+    <row r="137" spans="1:8">
       <c r="B137" t="s">
-        <v>43</v>
+        <v>77</v>
       </c>
       <c r="C137">
         <v>2482</v>
       </c>
     </row>
-    <row r="139" spans="1:6">
+    <row r="139" spans="1:8">
       <c r="A139">
         <v>9</v>
       </c>
       <c r="B139" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="140" spans="1:6">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="140" spans="1:8">
       <c r="B140" t="s">
-        <v>27</v>
+        <v>61</v>
       </c>
       <c r="C140">
         <v>32</v>
       </c>
     </row>
-    <row r="141" spans="1:6">
+    <row r="141" spans="1:8">
       <c r="B141" t="s">
-        <v>24</v>
+        <v>58</v>
       </c>
       <c r="C141">
         <v>64</v>
@@ -3447,13 +3703,13 @@
       <c r="D141">
         <v>32</v>
       </c>
-      <c r="F141">
+      <c r="H141">
         <v>32</v>
       </c>
     </row>
-    <row r="142" spans="1:6">
+    <row r="142" spans="1:8">
       <c r="B142" t="s">
-        <v>26</v>
+        <v>60</v>
       </c>
       <c r="C142">
         <v>2</v>
@@ -3461,13 +3717,13 @@
       <c r="D142">
         <v>1</v>
       </c>
-      <c r="F142">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="143" spans="1:6">
+      <c r="H142">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="143" spans="1:8">
       <c r="B143" t="s">
-        <v>25</v>
+        <v>59</v>
       </c>
       <c r="C143">
         <v>8</v>
@@ -3475,271 +3731,271 @@
       <c r="D143">
         <v>4</v>
       </c>
-      <c r="F143">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="144" spans="1:6">
+      <c r="H143">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="144" spans="1:8">
       <c r="B144" t="s">
-        <v>31</v>
+        <v>65</v>
       </c>
       <c r="D144">
         <v>210</v>
       </c>
-      <c r="F144">
+      <c r="H144">
         <v>30</v>
       </c>
     </row>
-    <row r="145" spans="1:6">
+    <row r="145" spans="1:8">
       <c r="B145" t="s">
-        <v>33</v>
+        <v>67</v>
       </c>
       <c r="C145">
         <f>8939-7292</f>
         <v>1647</v>
       </c>
     </row>
-    <row r="146" spans="1:6">
+    <row r="146" spans="1:8">
       <c r="B146" t="s">
-        <v>43</v>
+        <v>77</v>
       </c>
       <c r="C146">
         <v>1617</v>
       </c>
     </row>
-    <row r="148" spans="1:6">
+    <row r="148" spans="1:8">
       <c r="A148">
         <v>10</v>
       </c>
       <c r="B148" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="149" spans="1:6">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="149" spans="1:8">
       <c r="B149" t="s">
-        <v>27</v>
+        <v>61</v>
       </c>
       <c r="C149">
         <v>32</v>
       </c>
     </row>
-    <row r="150" spans="1:6">
+    <row r="150" spans="1:8">
       <c r="B150" t="s">
-        <v>24</v>
+        <v>58</v>
       </c>
       <c r="C150">
         <v>128</v>
       </c>
-      <c r="F150">
+      <c r="H150">
         <v>128</v>
       </c>
     </row>
-    <row r="151" spans="1:6">
+    <row r="151" spans="1:8">
       <c r="B151" t="s">
-        <v>26</v>
+        <v>60</v>
       </c>
       <c r="C151">
         <v>1</v>
       </c>
-      <c r="F151">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="152" spans="1:6">
+      <c r="H151">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="152" spans="1:8">
       <c r="B152" t="s">
-        <v>25</v>
+        <v>59</v>
       </c>
       <c r="C152">
         <v>16</v>
       </c>
-      <c r="F152">
+      <c r="H152">
         <v>16</v>
       </c>
     </row>
-    <row r="153" spans="1:6">
+    <row r="153" spans="1:8">
       <c r="B153" t="s">
-        <v>31</v>
-      </c>
-      <c r="F153">
+        <v>65</v>
+      </c>
+      <c r="H153">
         <v>85</v>
       </c>
     </row>
-    <row r="154" spans="1:6">
+    <row r="154" spans="1:8">
       <c r="B154" t="s">
-        <v>33</v>
+        <v>67</v>
       </c>
       <c r="C154">
         <v>1432</v>
       </c>
     </row>
-    <row r="155" spans="1:6">
+    <row r="155" spans="1:8">
       <c r="B155" t="s">
-        <v>43</v>
+        <v>77</v>
       </c>
       <c r="C155">
         <f>1432-85</f>
         <v>1347</v>
       </c>
     </row>
-    <row r="157" spans="1:6">
+    <row r="157" spans="1:8">
       <c r="A157">
         <v>11</v>
       </c>
       <c r="B157" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="158" spans="1:6">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="158" spans="1:8">
       <c r="B158" t="s">
-        <v>27</v>
+        <v>61</v>
       </c>
       <c r="C158">
         <v>64</v>
       </c>
     </row>
-    <row r="159" spans="1:6">
+    <row r="159" spans="1:8">
       <c r="B159" t="s">
-        <v>24</v>
+        <v>58</v>
       </c>
       <c r="C159">
         <v>128</v>
       </c>
-      <c r="F159">
+      <c r="H159">
         <v>128</v>
       </c>
     </row>
-    <row r="160" spans="1:6">
+    <row r="160" spans="1:8">
       <c r="B160" t="s">
-        <v>26</v>
+        <v>60</v>
       </c>
       <c r="C160">
         <v>1</v>
       </c>
-      <c r="F160">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="161" spans="1:6">
+      <c r="H160">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="161" spans="1:8">
       <c r="B161" t="s">
-        <v>25</v>
+        <v>59</v>
       </c>
       <c r="C161">
         <v>16</v>
       </c>
-      <c r="F161">
+      <c r="H161">
         <v>16</v>
       </c>
     </row>
-    <row r="162" spans="1:6">
+    <row r="162" spans="1:8">
       <c r="B162" t="s">
-        <v>31</v>
-      </c>
-      <c r="F162">
+        <v>65</v>
+      </c>
+      <c r="H162">
         <v>98</v>
       </c>
     </row>
-    <row r="163" spans="1:6">
+    <row r="163" spans="1:8">
       <c r="B163" t="s">
-        <v>33</v>
+        <v>67</v>
       </c>
       <c r="C163">
         <v>1771</v>
       </c>
     </row>
-    <row r="164" spans="1:6">
+    <row r="164" spans="1:8">
       <c r="B164" t="s">
-        <v>43</v>
+        <v>77</v>
       </c>
       <c r="C164">
         <f>1771-98</f>
         <v>1673</v>
       </c>
     </row>
-    <row r="166" spans="1:6">
+    <row r="166" spans="1:8">
       <c r="A166">
         <v>12</v>
       </c>
       <c r="B166" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="167" spans="1:6">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="167" spans="1:8">
       <c r="B167" t="s">
-        <v>27</v>
+        <v>61</v>
       </c>
       <c r="C167">
         <v>128</v>
       </c>
     </row>
-    <row r="168" spans="1:6">
+    <row r="168" spans="1:8">
       <c r="B168" t="s">
-        <v>24</v>
+        <v>58</v>
       </c>
       <c r="C168">
         <v>128</v>
       </c>
-      <c r="F168">
+      <c r="H168">
         <v>128</v>
       </c>
     </row>
-    <row r="169" spans="1:6">
+    <row r="169" spans="1:8">
       <c r="B169" t="s">
-        <v>26</v>
+        <v>60</v>
       </c>
       <c r="C169">
         <v>1</v>
       </c>
-      <c r="F169">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="170" spans="1:6">
+      <c r="H169">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="170" spans="1:8">
       <c r="B170" t="s">
-        <v>25</v>
+        <v>59</v>
       </c>
       <c r="C170">
         <v>16</v>
       </c>
-      <c r="F170">
+      <c r="H170">
         <v>16</v>
       </c>
     </row>
-    <row r="171" spans="1:6">
+    <row r="171" spans="1:8">
       <c r="B171" t="s">
-        <v>31</v>
-      </c>
-      <c r="F171">
+        <v>65</v>
+      </c>
+      <c r="H171">
         <v>72</v>
       </c>
     </row>
-    <row r="172" spans="1:6">
+    <row r="172" spans="1:8">
       <c r="B172" t="s">
-        <v>33</v>
+        <v>67</v>
       </c>
       <c r="C172">
         <v>3037</v>
       </c>
     </row>
-    <row r="173" spans="1:6">
+    <row r="173" spans="1:8">
       <c r="B173" t="s">
-        <v>43</v>
+        <v>77</v>
       </c>
       <c r="C173">
         <f>3037-72</f>
         <v>2965</v>
       </c>
     </row>
-    <row r="175" spans="1:6">
+    <row r="175" spans="1:8">
       <c r="A175">
         <v>13</v>
       </c>
       <c r="B175" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="176" spans="1:6">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="176" spans="1:8">
       <c r="B176" t="s">
-        <v>27</v>
+        <v>61</v>
       </c>
       <c r="C176">
         <v>64</v>
@@ -3747,7 +4003,7 @@
     </row>
     <row r="177" spans="1:4">
       <c r="B177" t="s">
-        <v>24</v>
+        <v>58</v>
       </c>
       <c r="C177">
         <v>128</v>
@@ -3758,7 +4014,7 @@
     </row>
     <row r="178" spans="1:4">
       <c r="B178" t="s">
-        <v>26</v>
+        <v>60</v>
       </c>
       <c r="C178">
         <v>1</v>
@@ -3766,7 +4022,7 @@
     </row>
     <row r="179" spans="1:4">
       <c r="B179" t="s">
-        <v>25</v>
+        <v>59</v>
       </c>
       <c r="C179">
         <v>16</v>
@@ -3777,7 +4033,7 @@
     </row>
     <row r="180" spans="1:4">
       <c r="B180" t="s">
-        <v>31</v>
+        <v>65</v>
       </c>
       <c r="D180">
         <v>10</v>
@@ -3785,7 +4041,7 @@
     </row>
     <row r="181" spans="1:4">
       <c r="B181" t="s">
-        <v>33</v>
+        <v>67</v>
       </c>
       <c r="C181">
         <v>1417</v>
@@ -3793,7 +4049,7 @@
     </row>
     <row r="182" spans="1:4">
       <c r="B182" t="s">
-        <v>43</v>
+        <v>77</v>
       </c>
       <c r="C182">
         <v>1407</v>
@@ -3804,15 +4060,15 @@
         <v>14</v>
       </c>
       <c r="B184" t="s">
-        <v>37</v>
+        <v>71</v>
       </c>
       <c r="D184" t="s">
-        <v>69</v>
+        <v>8</v>
       </c>
     </row>
     <row r="185" spans="1:4">
       <c r="B185" t="s">
-        <v>27</v>
+        <v>61</v>
       </c>
       <c r="C185">
         <v>64</v>
@@ -3820,7 +4076,7 @@
     </row>
     <row r="186" spans="1:4">
       <c r="B186" t="s">
-        <v>24</v>
+        <v>58</v>
       </c>
       <c r="C186">
         <v>64</v>
@@ -3831,7 +4087,7 @@
     </row>
     <row r="187" spans="1:4">
       <c r="B187" t="s">
-        <v>26</v>
+        <v>60</v>
       </c>
       <c r="C187">
         <v>1</v>
@@ -3842,7 +4098,7 @@
     </row>
     <row r="188" spans="1:4">
       <c r="B188" t="s">
-        <v>25</v>
+        <v>59</v>
       </c>
       <c r="C188">
         <v>8</v>
@@ -3853,7 +4109,7 @@
     </row>
     <row r="189" spans="1:4">
       <c r="B189" t="s">
-        <v>31</v>
+        <v>65</v>
       </c>
       <c r="D189">
         <v>31</v>
@@ -3861,7 +4117,7 @@
     </row>
     <row r="190" spans="1:4">
       <c r="B190" t="s">
-        <v>33</v>
+        <v>67</v>
       </c>
       <c r="C190">
         <v>4028</v>
@@ -3869,105 +4125,105 @@
     </row>
     <row r="191" spans="1:4">
       <c r="B191" t="s">
-        <v>43</v>
+        <v>77</v>
       </c>
       <c r="C191">
         <f>4028-31</f>
         <v>3997</v>
       </c>
     </row>
-    <row r="193" spans="1:6">
+    <row r="193" spans="1:8">
       <c r="A193">
         <v>15</v>
       </c>
       <c r="B193" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="194" spans="1:6">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="194" spans="1:8">
       <c r="B194" t="s">
-        <v>27</v>
+        <v>61</v>
       </c>
       <c r="C194">
         <v>64</v>
       </c>
     </row>
-    <row r="195" spans="1:6">
+    <row r="195" spans="1:8">
       <c r="B195" t="s">
-        <v>24</v>
+        <v>58</v>
       </c>
       <c r="C195">
         <v>128</v>
       </c>
-      <c r="F195" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="196" spans="1:6">
+      <c r="H195" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="196" spans="1:8">
       <c r="B196" t="s">
-        <v>26</v>
+        <v>60</v>
       </c>
       <c r="C196">
         <v>2</v>
       </c>
-      <c r="F196" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="197" spans="1:6">
+      <c r="H196" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="197" spans="1:8">
       <c r="B197" t="s">
-        <v>25</v>
+        <v>59</v>
       </c>
       <c r="C197">
         <v>16</v>
       </c>
-      <c r="F197" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="198" spans="1:6">
+      <c r="H197" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="198" spans="1:8">
       <c r="B198" t="s">
-        <v>31</v>
-      </c>
-      <c r="F198" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="199" spans="1:6">
+        <v>65</v>
+      </c>
+      <c r="H198" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="199" spans="1:8">
       <c r="B199" t="s">
-        <v>33</v>
+        <v>67</v>
       </c>
       <c r="C199">
         <v>2286</v>
       </c>
     </row>
-    <row r="200" spans="1:6">
+    <row r="200" spans="1:8">
       <c r="B200" t="s">
-        <v>43</v>
+        <v>77</v>
       </c>
       <c r="C200">
         <v>2266</v>
       </c>
     </row>
-    <row r="202" spans="1:6">
+    <row r="202" spans="1:8">
       <c r="A202">
         <v>16</v>
       </c>
       <c r="B202" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="203" spans="1:6">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="203" spans="1:8">
       <c r="B203" t="s">
-        <v>27</v>
+        <v>61</v>
       </c>
       <c r="C203">
         <v>64</v>
       </c>
     </row>
-    <row r="204" spans="1:6">
+    <row r="204" spans="1:8">
       <c r="B204" t="s">
-        <v>24</v>
+        <v>58</v>
       </c>
       <c r="C204">
         <v>128</v>
@@ -3975,13 +4231,13 @@
       <c r="D204">
         <v>64</v>
       </c>
-      <c r="F204">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="205" spans="1:6">
+      <c r="H204">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="205" spans="1:8">
       <c r="B205" t="s">
-        <v>26</v>
+        <v>60</v>
       </c>
       <c r="C205">
         <v>2</v>
@@ -3989,13 +4245,13 @@
       <c r="D205">
         <v>1</v>
       </c>
-      <c r="F205">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="206" spans="1:6">
+      <c r="H205">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="206" spans="1:8">
       <c r="B206" t="s">
-        <v>25</v>
+        <v>59</v>
       </c>
       <c r="C206">
         <v>16</v>
@@ -4003,56 +4259,56 @@
       <c r="D206">
         <v>8</v>
       </c>
-      <c r="F206">
+      <c r="H206">
         <v>8</v>
       </c>
     </row>
-    <row r="207" spans="1:6">
+    <row r="207" spans="1:8">
       <c r="B207" t="s">
-        <v>31</v>
+        <v>65</v>
       </c>
       <c r="D207">
         <v>0</v>
       </c>
-      <c r="F207">
+      <c r="H207">
         <v>20</v>
       </c>
     </row>
-    <row r="208" spans="1:6">
+    <row r="208" spans="1:8">
       <c r="B208" t="s">
-        <v>33</v>
+        <v>67</v>
       </c>
       <c r="C208">
         <v>1670</v>
       </c>
     </row>
-    <row r="209" spans="1:7">
+    <row r="209" spans="1:9">
       <c r="B209" t="s">
-        <v>43</v>
+        <v>77</v>
       </c>
       <c r="C209">
         <v>1670</v>
       </c>
     </row>
-    <row r="212" spans="1:7">
+    <row r="212" spans="1:9">
       <c r="A212">
         <v>17</v>
       </c>
       <c r="B212" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="213" spans="1:7">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="213" spans="1:9">
       <c r="B213" t="s">
-        <v>27</v>
+        <v>61</v>
       </c>
       <c r="C213">
         <v>64</v>
       </c>
     </row>
-    <row r="214" spans="1:7">
+    <row r="214" spans="1:9">
       <c r="B214" t="s">
-        <v>24</v>
+        <v>58</v>
       </c>
       <c r="C214">
         <v>216</v>
@@ -4063,13 +4319,13 @@
       <c r="E214">
         <v>72</v>
       </c>
-      <c r="G214">
+      <c r="I214">
         <v>72</v>
       </c>
     </row>
-    <row r="215" spans="1:7">
+    <row r="215" spans="1:9">
       <c r="B215" t="s">
-        <v>26</v>
+        <v>60</v>
       </c>
       <c r="C215">
         <v>3</v>
@@ -4080,13 +4336,13 @@
       <c r="E215">
         <v>1</v>
       </c>
-      <c r="G215">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="216" spans="1:7">
+      <c r="I215">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="216" spans="1:9">
       <c r="B216" t="s">
-        <v>25</v>
+        <v>59</v>
       </c>
       <c r="C216">
         <v>18</v>
@@ -4097,13 +4353,13 @@
       <c r="E216">
         <v>6</v>
       </c>
-      <c r="G216">
+      <c r="I216">
         <v>6</v>
       </c>
     </row>
-    <row r="217" spans="1:7">
+    <row r="217" spans="1:9">
       <c r="B217" t="s">
-        <v>31</v>
+        <v>65</v>
       </c>
       <c r="D217">
         <v>2106</v>
@@ -4111,45 +4367,45 @@
       <c r="E217">
         <v>0</v>
       </c>
-      <c r="G217">
+      <c r="I217">
         <v>120</v>
       </c>
     </row>
-    <row r="218" spans="1:7">
+    <row r="218" spans="1:9">
       <c r="B218" t="s">
-        <v>33</v>
+        <v>67</v>
       </c>
       <c r="C218">
         <v>2106</v>
       </c>
     </row>
-    <row r="219" spans="1:7">
+    <row r="219" spans="1:9">
       <c r="B219" t="s">
-        <v>43</v>
+        <v>77</v>
       </c>
       <c r="C219">
         <v>2106</v>
       </c>
     </row>
-    <row r="221" spans="1:7">
+    <row r="221" spans="1:9">
       <c r="A221">
         <v>18</v>
       </c>
       <c r="B221" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="222" spans="1:7">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="222" spans="1:9">
       <c r="B222" t="s">
-        <v>27</v>
+        <v>61</v>
       </c>
       <c r="C222">
         <v>64</v>
       </c>
     </row>
-    <row r="223" spans="1:7">
+    <row r="223" spans="1:9">
       <c r="B223" t="s">
-        <v>24</v>
+        <v>58</v>
       </c>
       <c r="C223">
         <v>216</v>
@@ -4157,16 +4413,16 @@
       <c r="E223">
         <v>72</v>
       </c>
-      <c r="F223">
+      <c r="H223">
         <v>72</v>
       </c>
-      <c r="G223">
+      <c r="I223">
         <v>72</v>
       </c>
     </row>
-    <row r="224" spans="1:7">
+    <row r="224" spans="1:9">
       <c r="B224" t="s">
-        <v>26</v>
+        <v>60</v>
       </c>
       <c r="C224">
         <v>3</v>
@@ -4174,16 +4430,16 @@
       <c r="E224">
         <v>1</v>
       </c>
-      <c r="F224">
-        <v>1</v>
-      </c>
-      <c r="G224">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="225" spans="1:7">
+      <c r="H224">
+        <v>1</v>
+      </c>
+      <c r="I224">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="225" spans="1:9">
       <c r="B225" t="s">
-        <v>25</v>
+        <v>59</v>
       </c>
       <c r="C225">
         <v>18</v>
@@ -4191,62 +4447,62 @@
       <c r="E225">
         <v>6</v>
       </c>
-      <c r="F225">
+      <c r="H225">
         <v>6</v>
       </c>
-      <c r="G225">
+      <c r="I225">
         <v>6</v>
       </c>
     </row>
-    <row r="226" spans="1:7">
+    <row r="226" spans="1:9">
       <c r="B226" t="s">
-        <v>31</v>
+        <v>65</v>
       </c>
       <c r="E226">
         <v>20</v>
       </c>
-      <c r="F226">
+      <c r="H226">
         <v>86</v>
       </c>
-      <c r="G226">
+      <c r="I226">
         <v>116</v>
       </c>
     </row>
-    <row r="227" spans="1:7">
+    <row r="227" spans="1:9">
       <c r="B227" t="s">
-        <v>33</v>
+        <v>67</v>
       </c>
       <c r="C227">
         <v>1570</v>
       </c>
     </row>
-    <row r="228" spans="1:7">
+    <row r="228" spans="1:9">
       <c r="B228" t="s">
-        <v>43</v>
+        <v>77</v>
       </c>
       <c r="C228">
         <v>1550</v>
       </c>
     </row>
-    <row r="230" spans="1:7">
+    <row r="230" spans="1:9">
       <c r="A230">
         <v>19</v>
       </c>
       <c r="B230" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="231" spans="1:7">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="231" spans="1:9">
       <c r="B231" t="s">
-        <v>27</v>
+        <v>61</v>
       </c>
       <c r="C231">
         <v>64</v>
       </c>
     </row>
-    <row r="232" spans="1:7">
+    <row r="232" spans="1:9">
       <c r="B232" t="s">
-        <v>24</v>
+        <v>58</v>
       </c>
       <c r="C232">
         <v>216</v>
@@ -4254,16 +4510,16 @@
       <c r="E232">
         <v>72</v>
       </c>
-      <c r="F232">
+      <c r="H232">
         <v>72</v>
       </c>
-      <c r="G232">
+      <c r="I232">
         <v>72</v>
       </c>
     </row>
-    <row r="233" spans="1:7">
+    <row r="233" spans="1:9">
       <c r="B233" t="s">
-        <v>26</v>
+        <v>60</v>
       </c>
       <c r="C233">
         <v>3</v>
@@ -4271,16 +4527,16 @@
       <c r="E233">
         <v>1</v>
       </c>
-      <c r="F233">
-        <v>1</v>
-      </c>
-      <c r="G233">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="234" spans="1:7">
+      <c r="H233">
+        <v>1</v>
+      </c>
+      <c r="I233">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="234" spans="1:9">
       <c r="B234" t="s">
-        <v>25</v>
+        <v>59</v>
       </c>
       <c r="C234">
         <v>18</v>
@@ -4288,62 +4544,62 @@
       <c r="E234">
         <v>6</v>
       </c>
-      <c r="F234">
+      <c r="H234">
         <v>6</v>
       </c>
-      <c r="G234">
+      <c r="I234">
         <v>6</v>
       </c>
     </row>
-    <row r="235" spans="1:7">
+    <row r="235" spans="1:9">
       <c r="B235" t="s">
-        <v>31</v>
+        <v>65</v>
       </c>
       <c r="E235">
         <v>0</v>
       </c>
-      <c r="F235">
+      <c r="H235">
         <v>0</v>
       </c>
-      <c r="G235">
+      <c r="I235">
         <v>0</v>
       </c>
     </row>
-    <row r="236" spans="1:7">
+    <row r="236" spans="1:9">
       <c r="B236" t="s">
-        <v>33</v>
+        <v>67</v>
       </c>
       <c r="C236">
         <v>1615</v>
       </c>
     </row>
-    <row r="237" spans="1:7">
+    <row r="237" spans="1:9">
       <c r="B237" t="s">
-        <v>43</v>
+        <v>77</v>
       </c>
       <c r="C237">
         <v>1615</v>
       </c>
     </row>
-    <row r="239" spans="1:7">
+    <row r="239" spans="1:9">
       <c r="A239">
         <v>20</v>
       </c>
       <c r="B239" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="240" spans="1:7">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="240" spans="1:9">
       <c r="B240" t="s">
-        <v>27</v>
+        <v>61</v>
       </c>
       <c r="C240">
         <v>64</v>
       </c>
     </row>
-    <row r="241" spans="1:7">
+    <row r="241" spans="1:9">
       <c r="B241" t="s">
-        <v>24</v>
+        <v>58</v>
       </c>
       <c r="C241">
         <v>216</v>
@@ -4351,16 +4607,16 @@
       <c r="E241">
         <v>72</v>
       </c>
-      <c r="F241">
+      <c r="H241">
         <v>72</v>
       </c>
-      <c r="G241">
+      <c r="I241">
         <v>72</v>
       </c>
     </row>
-    <row r="242" spans="1:7">
+    <row r="242" spans="1:9">
       <c r="B242" t="s">
-        <v>26</v>
+        <v>60</v>
       </c>
       <c r="C242">
         <v>3</v>
@@ -4368,16 +4624,16 @@
       <c r="E242">
         <v>1</v>
       </c>
-      <c r="F242">
-        <v>1</v>
-      </c>
-      <c r="G242">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="243" spans="1:7">
+      <c r="H242">
+        <v>1</v>
+      </c>
+      <c r="I242">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="243" spans="1:9">
       <c r="B243" t="s">
-        <v>25</v>
+        <v>59</v>
       </c>
       <c r="C243">
         <v>18</v>
@@ -4385,62 +4641,62 @@
       <c r="E243">
         <v>6</v>
       </c>
-      <c r="F243">
+      <c r="H243">
         <v>6</v>
       </c>
-      <c r="G243">
+      <c r="I243">
         <v>6</v>
       </c>
     </row>
-    <row r="244" spans="1:7">
+    <row r="244" spans="1:9">
       <c r="B244" t="s">
-        <v>31</v>
+        <v>65</v>
       </c>
       <c r="E244">
         <v>0</v>
       </c>
-      <c r="F244">
+      <c r="H244">
         <v>16</v>
       </c>
-      <c r="G244">
+      <c r="I244">
         <v>0</v>
       </c>
     </row>
-    <row r="245" spans="1:7">
+    <row r="245" spans="1:9">
       <c r="B245" t="s">
-        <v>33</v>
+        <v>67</v>
       </c>
       <c r="C245">
         <v>1648</v>
       </c>
     </row>
-    <row r="246" spans="1:7">
+    <row r="246" spans="1:9">
       <c r="B246" t="s">
-        <v>43</v>
+        <v>77</v>
       </c>
       <c r="C246">
         <v>1648</v>
       </c>
     </row>
-    <row r="248" spans="1:7">
+    <row r="248" spans="1:9">
       <c r="A248">
         <v>21</v>
       </c>
       <c r="B248" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="249" spans="1:7">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="249" spans="1:9">
       <c r="B249" t="s">
-        <v>27</v>
+        <v>61</v>
       </c>
       <c r="C249">
         <v>64</v>
       </c>
     </row>
-    <row r="250" spans="1:7">
+    <row r="250" spans="1:9">
       <c r="B250" t="s">
-        <v>24</v>
+        <v>58</v>
       </c>
       <c r="C250">
         <v>216</v>
@@ -4448,16 +4704,16 @@
       <c r="E250">
         <v>72</v>
       </c>
-      <c r="F250">
+      <c r="H250">
         <v>72</v>
       </c>
-      <c r="G250">
+      <c r="I250">
         <v>72</v>
       </c>
     </row>
-    <row r="251" spans="1:7">
+    <row r="251" spans="1:9">
       <c r="B251" t="s">
-        <v>26</v>
+        <v>60</v>
       </c>
       <c r="C251">
         <v>3</v>
@@ -4465,16 +4721,16 @@
       <c r="E251">
         <v>1</v>
       </c>
-      <c r="F251">
-        <v>1</v>
-      </c>
-      <c r="G251">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="252" spans="1:7">
+      <c r="H251">
+        <v>1</v>
+      </c>
+      <c r="I251">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="252" spans="1:9">
       <c r="B252" t="s">
-        <v>25</v>
+        <v>59</v>
       </c>
       <c r="C252">
         <v>18</v>
@@ -4482,62 +4738,62 @@
       <c r="E252">
         <v>6</v>
       </c>
-      <c r="F252">
+      <c r="H252">
         <v>6</v>
       </c>
-      <c r="G252">
+      <c r="I252">
         <v>6</v>
       </c>
     </row>
-    <row r="253" spans="1:7">
+    <row r="253" spans="1:9">
       <c r="B253" t="s">
-        <v>31</v>
+        <v>65</v>
       </c>
       <c r="E253">
         <v>12</v>
       </c>
-      <c r="F253">
+      <c r="H253">
         <v>72</v>
       </c>
-      <c r="G253">
+      <c r="I253">
         <v>18</v>
       </c>
     </row>
-    <row r="254" spans="1:7">
+    <row r="254" spans="1:9">
       <c r="B254" t="s">
-        <v>33</v>
+        <v>67</v>
       </c>
       <c r="C254">
         <v>1661</v>
       </c>
     </row>
-    <row r="255" spans="1:7">
+    <row r="255" spans="1:9">
       <c r="B255" t="s">
-        <v>43</v>
+        <v>77</v>
       </c>
       <c r="C255">
         <v>1649</v>
       </c>
     </row>
-    <row r="260" spans="1:7">
+    <row r="260" spans="1:9">
       <c r="A260">
         <v>22</v>
       </c>
       <c r="B260" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="261" spans="1:7">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="261" spans="1:9">
       <c r="B261" t="s">
-        <v>27</v>
+        <v>61</v>
       </c>
       <c r="C261">
         <v>64</v>
       </c>
     </row>
-    <row r="262" spans="1:7">
+    <row r="262" spans="1:9">
       <c r="B262" t="s">
-        <v>24</v>
+        <v>58</v>
       </c>
       <c r="C262">
         <v>216</v>
@@ -4545,16 +4801,16 @@
       <c r="E262">
         <v>72</v>
       </c>
-      <c r="F262">
+      <c r="H262">
         <v>72</v>
       </c>
-      <c r="G262">
+      <c r="I262">
         <v>72</v>
       </c>
     </row>
-    <row r="263" spans="1:7">
+    <row r="263" spans="1:9">
       <c r="B263" t="s">
-        <v>26</v>
+        <v>60</v>
       </c>
       <c r="C263">
         <v>3</v>
@@ -4562,16 +4818,16 @@
       <c r="E263">
         <v>1</v>
       </c>
-      <c r="F263">
-        <v>1</v>
-      </c>
-      <c r="G263">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="264" spans="1:7">
+      <c r="H263">
+        <v>1</v>
+      </c>
+      <c r="I263">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="264" spans="1:9">
       <c r="B264" t="s">
-        <v>25</v>
+        <v>59</v>
       </c>
       <c r="C264">
         <v>18</v>
@@ -4579,38 +4835,38 @@
       <c r="E264">
         <v>6</v>
       </c>
-      <c r="F264">
+      <c r="H264">
         <v>6</v>
       </c>
-      <c r="G264">
+      <c r="I264">
         <v>6</v>
       </c>
     </row>
-    <row r="265" spans="1:7">
+    <row r="265" spans="1:9">
       <c r="B265" t="s">
-        <v>31</v>
+        <v>65</v>
       </c>
       <c r="E265">
         <v>0</v>
       </c>
-      <c r="F265">
+      <c r="H265">
         <v>76</v>
       </c>
-      <c r="G265">
+      <c r="I265">
         <v>0</v>
       </c>
     </row>
-    <row r="266" spans="1:7">
+    <row r="266" spans="1:9">
       <c r="B266" t="s">
-        <v>33</v>
+        <v>67</v>
       </c>
       <c r="C266">
         <v>1593</v>
       </c>
     </row>
-    <row r="267" spans="1:7">
+    <row r="267" spans="1:9">
       <c r="B267" t="s">
-        <v>43</v>
+        <v>77</v>
       </c>
       <c r="C267">
         <v>1593</v>
@@ -4618,20 +4874,20 @@
     </row>
     <row r="291" spans="1:4">
       <c r="A291" t="s">
-        <v>73</v>
+        <v>12</v>
       </c>
     </row>
     <row r="293" spans="1:4">
       <c r="A293" t="s">
-        <v>53</v>
+        <v>87</v>
       </c>
       <c r="B293" t="s">
-        <v>54</v>
+        <v>88</v>
       </c>
     </row>
     <row r="294" spans="1:4">
       <c r="A294" t="s">
-        <v>51</v>
+        <v>85</v>
       </c>
       <c r="B294">
         <v>32</v>
@@ -4642,12 +4898,12 @@
     </row>
     <row r="295" spans="1:4">
       <c r="A295" t="s">
-        <v>47</v>
+        <v>81</v>
       </c>
     </row>
     <row r="296" spans="1:4">
       <c r="A296" t="s">
-        <v>48</v>
+        <v>82</v>
       </c>
       <c r="B296">
         <v>1405</v>
@@ -4655,7 +4911,7 @@
     </row>
     <row r="297" spans="1:4">
       <c r="A297" t="s">
-        <v>49</v>
+        <v>83</v>
       </c>
       <c r="B297">
         <v>1617</v>
@@ -4663,18 +4919,18 @@
     </row>
     <row r="300" spans="1:4">
       <c r="A300" t="s">
-        <v>55</v>
+        <v>89</v>
       </c>
       <c r="B300" t="s">
-        <v>60</v>
+        <v>94</v>
       </c>
       <c r="D300" t="s">
-        <v>64</v>
+        <v>3</v>
       </c>
     </row>
     <row r="301" spans="1:4">
       <c r="A301" t="s">
-        <v>52</v>
+        <v>86</v>
       </c>
       <c r="B301">
         <v>64</v>
@@ -4688,7 +4944,7 @@
     </row>
     <row r="302" spans="1:4">
       <c r="A302" t="s">
-        <v>22</v>
+        <v>56</v>
       </c>
       <c r="B302">
         <v>2190</v>
@@ -4696,7 +4952,7 @@
     </row>
     <row r="303" spans="1:4">
       <c r="A303" t="s">
-        <v>50</v>
+        <v>84</v>
       </c>
       <c r="B303">
         <v>2301</v>
@@ -4707,7 +4963,7 @@
     </row>
     <row r="304" spans="1:4">
       <c r="A304" t="s">
-        <v>23</v>
+        <v>57</v>
       </c>
       <c r="B304">
         <v>1771</v>
@@ -4719,25 +4975,25 @@
         <v>2226</v>
       </c>
     </row>
-    <row r="305" spans="1:6">
+    <row r="305" spans="1:8">
       <c r="A305" t="s">
-        <v>65</v>
+        <v>4</v>
       </c>
       <c r="D305">
         <v>1671</v>
       </c>
     </row>
-    <row r="306" spans="1:6">
+    <row r="306" spans="1:8">
       <c r="A306" t="s">
-        <v>55</v>
+        <v>89</v>
       </c>
       <c r="B306" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="307" spans="1:6">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="307" spans="1:8">
       <c r="A307" t="s">
-        <v>52</v>
+        <v>86</v>
       </c>
       <c r="B307">
         <v>64</v>
@@ -4750,9 +5006,9 @@
         <v>0.22709338009644892</v>
       </c>
     </row>
-    <row r="308" spans="1:6">
+    <row r="308" spans="1:8">
       <c r="A308" t="s">
-        <v>57</v>
+        <v>91</v>
       </c>
       <c r="B308">
         <v>2289</v>
@@ -4761,41 +5017,41 @@
         <v>4370</v>
       </c>
     </row>
-    <row r="309" spans="1:6">
+    <row r="309" spans="1:8">
       <c r="A309" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="310" spans="1:6">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="310" spans="1:8">
       <c r="A310" t="s">
-        <v>59</v>
+        <v>93</v>
       </c>
       <c r="C310">
         <v>3037</v>
       </c>
     </row>
-    <row r="312" spans="1:6">
-      <c r="F312" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="313" spans="1:6">
-      <c r="F313">
+    <row r="312" spans="1:8">
+      <c r="H312" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="313" spans="1:8">
+      <c r="H313">
         <v>3868</v>
       </c>
     </row>
-    <row r="314" spans="1:6">
-      <c r="F314">
+    <row r="314" spans="1:8">
+      <c r="H314">
         <v>6154</v>
       </c>
     </row>
-    <row r="315" spans="1:6">
-      <c r="F315">
+    <row r="315" spans="1:8">
+      <c r="H315">
         <f>6154-3868</f>
         <v>2286</v>
       </c>
     </row>
-    <row r="316" spans="1:6">
+    <row r="316" spans="1:8">
       <c r="A316">
         <v>32</v>
       </c>
@@ -4807,7 +5063,7 @@
         <v>1617</v>
       </c>
     </row>
-    <row r="317" spans="1:6">
+    <row r="317" spans="1:8">
       <c r="A317">
         <v>64</v>
       </c>
@@ -4819,7 +5075,7 @@
         <v>2301</v>
       </c>
     </row>
-    <row r="318" spans="1:6">
+    <row r="318" spans="1:8">
       <c r="A318">
         <v>128</v>
       </c>
@@ -4830,48 +5086,48 @@
       <c r="C318">
         <v>4251</v>
       </c>
-      <c r="F318">
+      <c r="H318">
         <f>3602-1931</f>
         <v>1671</v>
       </c>
     </row>
-    <row r="321" spans="1:6">
+    <row r="321" spans="1:8">
       <c r="D321">
         <f>4199-1162</f>
         <v>3037</v>
       </c>
     </row>
-    <row r="324" spans="1:6">
+    <row r="324" spans="1:8">
       <c r="D324">
         <f>1771/60</f>
         <v>29.516666666666666</v>
       </c>
     </row>
-    <row r="325" spans="1:6">
+    <row r="325" spans="1:8">
       <c r="A325" t="s">
-        <v>61</v>
+        <v>0</v>
       </c>
       <c r="D325">
         <f>2301/60</f>
         <v>38.35</v>
       </c>
-      <c r="F325">
+      <c r="H325">
         <f>2301/60</f>
         <v>38.35</v>
       </c>
     </row>
-    <row r="326" spans="1:6">
+    <row r="326" spans="1:8">
       <c r="A326" t="s">
-        <v>62</v>
+        <v>1</v>
       </c>
       <c r="B326">
         <f>2286/60</f>
         <v>38.1</v>
       </c>
     </row>
-    <row r="327" spans="1:6">
+    <row r="327" spans="1:8">
       <c r="A327" t="s">
-        <v>66</v>
+        <v>5</v>
       </c>
       <c r="B327">
         <f>1671/60</f>
@@ -4885,7 +5141,6 @@
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <drawing r:id="rId1"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="http://schemas.microsoft.com/office/mac/excel/2008/main">

--- a/applications/async-re/data/RE_data.xlsx
+++ b/applications/async-re/data/RE_data.xlsx
@@ -22,7 +22,224 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="270" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="313" uniqueCount="121">
+  <si>
+    <t>did not get active</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>60, infi, infi, infi</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>infi, infi</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>64 pairwise</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>12+1.56</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>16 pairwise</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>64 pairwise</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>#8</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>#37</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>#38</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0, 0</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>queue time</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>total time</t>
+  </si>
+  <si>
+    <t>total time</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t># of bigjobs</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>###########</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>###############</t>
+  </si>
+  <si>
+    <t>###############</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Run #</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>XX32</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>XX1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>XX4</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>eff time</t>
+  </si>
+  <si>
+    <t>eff time</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>XX</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>XX</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Improved</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>20, 60</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>120, 120</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>60, 60</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0, 1320</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0, 0, *, *</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0, 0, 0, 0</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>BJ launch</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Async</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sync</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>file staging and subjob laucnhing</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>at each exchange job/file management</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>times</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>#ex</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>#ex steps</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>QueenBee</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>QB/Eric</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>QB/Louie</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>QB/Eric</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Exchanges</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>exchanges</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>64 cores</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>8 replicas</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>128 cores</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>16 replicas</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>qb</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>qb/eric</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>louie</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>16 replicas</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
   <si>
     <t>64 exch</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -281,119 +498,6 @@
   </si>
   <si>
     <t>queue time</t>
-  </si>
-  <si>
-    <t>queue time</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>total time</t>
-  </si>
-  <si>
-    <t>total time</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t># of bigjobs</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>###########</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>###############</t>
-  </si>
-  <si>
-    <t>###############</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Run #</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>XX32</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>XX1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>XX4</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>eff time</t>
-  </si>
-  <si>
-    <t>eff time</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>XX</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>XX</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>QueenBee</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>QB/Eric</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>QB/Louie</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>QB/Eric</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Exchanges</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>exchanges</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>64 cores</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>8 replicas</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>128 cores</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>16 replicas</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>qb</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>qb/eric</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>louie</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>16 replicas</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -494,7 +598,7 @@
           </c:errBars>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$A$316:$A$318</c:f>
+              <c:f>Sheet1!$A$342:$A$344</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
@@ -512,7 +616,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$316:$B$318</c:f>
+              <c:f>Sheet1!$B$342:$B$344</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
@@ -530,11 +634,11 @@
           </c:val>
         </c:ser>
         <c:overlap val="100"/>
-        <c:axId val="485091576"/>
-        <c:axId val="485068392"/>
+        <c:axId val="470292040"/>
+        <c:axId val="470268984"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="485091576"/>
+        <c:axId val="470292040"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -555,17 +659,18 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="485068392"/>
+        <c:crossAx val="470268984"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="485068392"/>
+        <c:axId val="470268984"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -587,10 +692,11 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="485091576"/>
+        <c:crossAx val="470292040"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -649,7 +755,7 @@
           </c:errBars>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$A$326:$A$327</c:f>
+              <c:f>Sheet1!$A$352:$A$353</c:f>
               <c:strCache>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
@@ -663,7 +769,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$326:$B$327</c:f>
+              <c:f>Sheet1!$B$352:$B$353</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
@@ -679,24 +785,24 @@
         </c:ser>
         <c:gapWidth val="256"/>
         <c:overlap val="100"/>
-        <c:axId val="485234808"/>
-        <c:axId val="485240136"/>
+        <c:axId val="470435384"/>
+        <c:axId val="470440712"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="485234808"/>
+        <c:axId val="470435384"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="485240136"/>
+        <c:crossAx val="470440712"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="485240136"/>
+        <c:axId val="470440712"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -718,10 +824,11 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="485234808"/>
+        <c:crossAx val="470435384"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -764,9 +871,8 @@
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="1"/>
   <c:lang val="en-US"/>
-  <c:style val="1"/>
+  <c:style val="18"/>
   <c:chart>
-    <c:autoTitleDeleted val="1"/>
     <c:plotArea>
       <c:layout/>
       <c:barChart>
@@ -776,11 +882,11 @@
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
-            <c:v>Synchronous Replica Exchange</c:v>
+            <c:v>Synchronous RE</c:v>
           </c:tx>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$O$52:$O$54</c:f>
+              <c:f>Sheet1!$O$78:$O$80</c:f>
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
@@ -797,18 +903,18 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$P$52:$P$54</c:f>
+              <c:f>Sheet1!$P$78:$P$80</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>140.0</c:v>
+                  <c:v>52.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>127.5333333333333</c:v>
+                  <c:v>26.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>120.2833333333333</c:v>
+                  <c:v>20.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -818,11 +924,11 @@
           <c:idx val="1"/>
           <c:order val="1"/>
           <c:tx>
-            <c:v>Asynchronous Replica Exchange</c:v>
+            <c:v>Asynchronous RE</c:v>
           </c:tx>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$O$52:$O$54</c:f>
+              <c:f>Sheet1!$O$78:$O$80</c:f>
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
@@ -839,41 +945,41 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$Q$52:$Q$54</c:f>
+              <c:f>Sheet1!$Q$78:$Q$80</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>66.0</c:v>
+                  <c:v>49.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>24.68333333333333</c:v>
+                  <c:v>23.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>22.95</c:v>
+                  <c:v>17.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="485221096"/>
-        <c:axId val="485262744"/>
+        <c:axId val="470475752"/>
+        <c:axId val="69825272"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="485221096"/>
+        <c:axId val="470475752"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="485262744"/>
+        <c:crossAx val="69825272"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="485262744"/>
+        <c:axId val="69825272"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -899,7 +1005,7 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="485221096"/>
+        <c:crossAx val="470475752"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -924,13 +1030,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>334</xdr:row>
+      <xdr:row>360</xdr:row>
       <xdr:rowOff>50800</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>698500</xdr:colOff>
-      <xdr:row>350</xdr:row>
+      <xdr:row>376</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -954,13 +1060,13 @@
     <xdr:from>
       <xdr:col>10</xdr:col>
       <xdr:colOff>330200</xdr:colOff>
-      <xdr:row>310</xdr:row>
+      <xdr:row>336</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
       <xdr:colOff>241300</xdr:colOff>
-      <xdr:row>325</xdr:row>
+      <xdr:row>351</xdr:row>
       <xdr:rowOff>127000</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -982,20 +1088,20 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>215899</xdr:colOff>
-      <xdr:row>67</xdr:row>
-      <xdr:rowOff>25398</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>437443</xdr:colOff>
+      <xdr:row>89</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
-      <xdr:colOff>520700</xdr:colOff>
-      <xdr:row>85</xdr:row>
-      <xdr:rowOff>63500</xdr:rowOff>
+      <xdr:colOff>296333</xdr:colOff>
+      <xdr:row>107</xdr:row>
+      <xdr:rowOff>127001</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="6" name="Chart 5"/>
+        <xdr:cNvPr id="7" name="Chart 6"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -1333,10 +1439,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" mc:Ignorable="mv" mc:PreserveAttributes="mv:*">
-  <dimension ref="A1:X327"/>
+  <dimension ref="A1:Y353"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E29" workbookViewId="0">
-      <selection activeCell="U79" sqref="U79"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0">
+      <selection activeCell="E84" sqref="E84"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
@@ -1352,73 +1458,73 @@
   <sheetData>
     <row r="1" spans="1:23">
       <c r="A1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" t="s">
         <v>73</v>
       </c>
-      <c r="B1" t="s">
-        <v>18</v>
-      </c>
       <c r="C1" t="s">
-        <v>19</v>
+        <v>74</v>
       </c>
       <c r="D1" t="s">
-        <v>20</v>
+        <v>75</v>
       </c>
       <c r="E1" t="s">
-        <v>21</v>
+        <v>76</v>
       </c>
       <c r="F1" t="s">
-        <v>30</v>
+        <v>85</v>
       </c>
       <c r="G1" t="s">
-        <v>31</v>
+        <v>86</v>
       </c>
       <c r="H1" t="s">
-        <v>22</v>
+        <v>77</v>
       </c>
       <c r="I1" t="s">
-        <v>23</v>
+        <v>78</v>
       </c>
       <c r="J1" t="s">
-        <v>17</v>
+        <v>72</v>
       </c>
       <c r="K1" t="s">
-        <v>13</v>
+        <v>68</v>
       </c>
       <c r="L1" t="s">
-        <v>24</v>
+        <v>79</v>
       </c>
       <c r="M1" t="s">
-        <v>16</v>
+        <v>71</v>
       </c>
       <c r="N1" t="s">
-        <v>25</v>
+        <v>80</v>
       </c>
       <c r="O1" t="s">
-        <v>51</v>
+        <v>106</v>
       </c>
       <c r="P1" t="s">
-        <v>52</v>
+        <v>107</v>
       </c>
       <c r="Q1" t="s">
-        <v>53</v>
+        <v>108</v>
       </c>
       <c r="R1" t="s">
-        <v>32</v>
+        <v>87</v>
       </c>
       <c r="S1" t="s">
-        <v>33</v>
+        <v>88</v>
       </c>
       <c r="T1" t="s">
-        <v>54</v>
+        <v>109</v>
       </c>
       <c r="U1" t="s">
-        <v>55</v>
+        <v>110</v>
       </c>
       <c r="V1" t="s">
-        <v>14</v>
+        <v>69</v>
       </c>
       <c r="W1" t="s">
-        <v>15</v>
+        <v>70</v>
       </c>
     </row>
     <row r="3" spans="1:23">
@@ -1848,7 +1954,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>26</v>
+        <v>81</v>
       </c>
     </row>
     <row r="17" spans="1:23">
@@ -1872,7 +1978,7 @@
         <v>8</v>
       </c>
       <c r="P17" t="s">
-        <v>27</v>
+        <v>82</v>
       </c>
       <c r="V17">
         <v>2286</v>
@@ -2287,7 +2393,7 @@
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>26</v>
+        <v>81</v>
       </c>
     </row>
     <row r="29" spans="1:23">
@@ -2311,7 +2417,7 @@
         <v>4</v>
       </c>
       <c r="N29" t="s">
-        <v>48</v>
+        <v>103</v>
       </c>
       <c r="V29">
         <v>1143</v>
@@ -2344,7 +2450,7 @@
         <v>4</v>
       </c>
       <c r="N30" t="s">
-        <v>35</v>
+        <v>90</v>
       </c>
       <c r="O30">
         <v>4219</v>
@@ -2380,10 +2486,10 @@
         <v>4</v>
       </c>
       <c r="N31" t="s">
-        <v>36</v>
+        <v>91</v>
       </c>
       <c r="T31" t="s">
-        <v>28</v>
+        <v>83</v>
       </c>
       <c r="V31">
         <f>29*60</f>
@@ -2417,10 +2523,10 @@
         <v>4</v>
       </c>
       <c r="N32" t="s">
-        <v>37</v>
+        <v>92</v>
       </c>
       <c r="O32" t="s">
-        <v>39</v>
+        <v>94</v>
       </c>
       <c r="V32">
         <v>1443</v>
@@ -2453,10 +2559,10 @@
         <v>4</v>
       </c>
       <c r="N33" t="s">
-        <v>44</v>
+        <v>99</v>
       </c>
       <c r="O33" t="s">
-        <v>38</v>
+        <v>93</v>
       </c>
       <c r="V33">
         <f>21*60</f>
@@ -2487,7 +2593,7 @@
         <v>4</v>
       </c>
       <c r="N34" s="2" t="s">
-        <v>42</v>
+        <v>97</v>
       </c>
       <c r="V34">
         <v>6840</v>
@@ -2530,7 +2636,7 @@
         <v>0</v>
       </c>
       <c r="P35" t="s">
-        <v>40</v>
+        <v>95</v>
       </c>
       <c r="V35">
         <f>22*60</f>
@@ -2574,7 +2680,7 @@
         <v>0</v>
       </c>
       <c r="P36" t="s">
-        <v>40</v>
+        <v>95</v>
       </c>
       <c r="V36">
         <f>24*60</f>
@@ -2682,16 +2788,136 @@
         <v>1260</v>
       </c>
     </row>
+    <row r="39" spans="1:23">
+      <c r="A39" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="40" spans="1:23">
+      <c r="A40">
+        <v>1</v>
+      </c>
+      <c r="D40">
+        <v>2</v>
+      </c>
+      <c r="E40">
+        <v>2</v>
+      </c>
+      <c r="J40">
+        <v>4</v>
+      </c>
+      <c r="K40">
+        <v>64</v>
+      </c>
+      <c r="L40">
+        <v>64</v>
+      </c>
+      <c r="M40">
+        <v>4</v>
+      </c>
+      <c r="P40" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q40" t="s">
+        <v>27</v>
+      </c>
+      <c r="V40">
+        <f>14*60</f>
+        <v>840</v>
+      </c>
+      <c r="W40">
+        <v>820</v>
+      </c>
+    </row>
+    <row r="41" spans="1:23">
+      <c r="A41">
+        <v>2</v>
+      </c>
+      <c r="D41">
+        <v>2</v>
+      </c>
+      <c r="E41">
+        <v>2</v>
+      </c>
+      <c r="J41">
+        <v>4</v>
+      </c>
+      <c r="K41">
+        <v>64</v>
+      </c>
+      <c r="L41">
+        <v>64</v>
+      </c>
+      <c r="M41">
+        <v>4</v>
+      </c>
+      <c r="P41" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q41" t="s">
+        <v>29</v>
+      </c>
+      <c r="V41">
+        <f>22*60</f>
+        <v>1320</v>
+      </c>
+      <c r="W41">
+        <v>1320</v>
+      </c>
+    </row>
     <row r="42" spans="1:23">
-      <c r="A42" t="s">
-        <v>41</v>
+      <c r="A42">
+        <v>3</v>
+      </c>
+      <c r="B42">
+        <v>1</v>
+      </c>
+      <c r="D42">
+        <v>1</v>
+      </c>
+      <c r="E42">
+        <v>1</v>
+      </c>
+      <c r="G42">
+        <v>1</v>
+      </c>
+      <c r="J42">
+        <v>4</v>
+      </c>
+      <c r="K42">
+        <v>64</v>
+      </c>
+      <c r="L42">
+        <v>64</v>
+      </c>
+      <c r="M42">
+        <v>4</v>
+      </c>
+      <c r="N42">
+        <v>1140</v>
+      </c>
+      <c r="P42">
+        <v>60</v>
+      </c>
+      <c r="Q42">
+        <v>60</v>
+      </c>
+      <c r="S42">
+        <v>60</v>
+      </c>
+      <c r="V42">
+        <f>19*60</f>
+        <v>1140</v>
+      </c>
+      <c r="W42">
+        <v>1140</v>
       </c>
     </row>
     <row r="43" spans="1:23">
       <c r="A43">
-        <v>1</v>
-      </c>
-      <c r="B43">
+        <v>4</v>
+      </c>
+      <c r="E43">
         <v>4</v>
       </c>
       <c r="J43">
@@ -2706,2434 +2932,3106 @@
       <c r="M43">
         <v>4</v>
       </c>
-      <c r="N43" s="2" t="s">
+      <c r="Q43" t="s">
+        <v>31</v>
+      </c>
+      <c r="V43">
+        <f>25*60</f>
+        <v>1500</v>
+      </c>
+      <c r="W43">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="44" spans="1:23">
+      <c r="A44">
+        <v>5</v>
+      </c>
+      <c r="G44">
+        <v>4</v>
+      </c>
+      <c r="J44">
+        <v>4</v>
+      </c>
+      <c r="K44">
+        <v>64</v>
+      </c>
+      <c r="L44">
+        <v>64</v>
+      </c>
+      <c r="M44">
+        <v>4</v>
+      </c>
+      <c r="S44" t="s">
+        <v>32</v>
+      </c>
+      <c r="V44">
+        <f>15*60</f>
+        <v>900</v>
+      </c>
+      <c r="W44">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="45" spans="1:23">
+      <c r="A45" t="s">
+        <v>8</v>
+      </c>
+      <c r="C45">
+        <v>1</v>
+      </c>
+      <c r="J45">
+        <v>1</v>
+      </c>
+      <c r="K45">
+        <v>64</v>
+      </c>
+      <c r="L45">
+        <v>64</v>
+      </c>
+      <c r="M45">
+        <v>8</v>
+      </c>
+      <c r="O45">
+        <v>0</v>
+      </c>
+      <c r="V45">
+        <f>46*60</f>
+        <v>2760</v>
+      </c>
+      <c r="W45">
+        <v>2760</v>
+      </c>
+    </row>
+    <row r="46" spans="1:23">
+      <c r="A46" t="s">
+        <v>9</v>
+      </c>
+      <c r="C46">
+        <v>1</v>
+      </c>
+      <c r="J46">
+        <v>1</v>
+      </c>
+      <c r="K46">
+        <v>64</v>
+      </c>
+      <c r="L46">
+        <v>64</v>
+      </c>
+      <c r="M46">
+        <v>8</v>
+      </c>
+      <c r="O46">
+        <v>0</v>
+      </c>
+      <c r="V46">
+        <f>46*60</f>
+        <v>2760</v>
+      </c>
+      <c r="W46">
+        <v>2760</v>
+      </c>
+    </row>
+    <row r="47" spans="1:23">
+      <c r="A47">
+        <v>39</v>
+      </c>
+      <c r="C47">
+        <v>1</v>
+      </c>
+      <c r="J47">
+        <v>1</v>
+      </c>
+      <c r="K47">
+        <v>16</v>
+      </c>
+      <c r="L47">
+        <v>64</v>
+      </c>
+      <c r="M47">
+        <v>4</v>
+      </c>
+      <c r="O47">
+        <v>0</v>
+      </c>
+      <c r="V47">
+        <v>1200</v>
+      </c>
+      <c r="W47">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="48" spans="1:23">
+      <c r="A48">
+        <v>40</v>
+      </c>
+      <c r="C48">
+        <v>1</v>
+      </c>
+      <c r="J48">
+        <v>1</v>
+      </c>
+      <c r="K48">
+        <v>16</v>
+      </c>
+      <c r="L48">
+        <v>64</v>
+      </c>
+      <c r="M48">
+        <v>4</v>
+      </c>
+      <c r="O48">
+        <v>0</v>
+      </c>
+      <c r="V48">
+        <v>660</v>
+      </c>
+      <c r="W48">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="49" spans="1:25">
+      <c r="A49">
+        <v>41</v>
+      </c>
+      <c r="C49">
+        <v>2</v>
+      </c>
+      <c r="E49">
+        <v>2</v>
+      </c>
+      <c r="J49">
+        <v>4</v>
+      </c>
+      <c r="K49">
+        <v>64</v>
+      </c>
+      <c r="L49">
+        <v>64</v>
+      </c>
+      <c r="M49">
+        <v>4</v>
+      </c>
+      <c r="O49" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q49" t="s">
+        <v>10</v>
+      </c>
+      <c r="V49">
+        <f>23*60</f>
+        <v>1380</v>
+      </c>
+      <c r="W49">
+        <v>1380</v>
+      </c>
+    </row>
+    <row r="50" spans="1:25">
+      <c r="A50">
+        <v>42</v>
+      </c>
+      <c r="D50">
+        <v>2</v>
+      </c>
+      <c r="E50">
+        <v>2</v>
+      </c>
+      <c r="J50">
+        <v>4</v>
+      </c>
+      <c r="K50">
+        <v>64</v>
+      </c>
+      <c r="L50">
+        <v>64</v>
+      </c>
+      <c r="M50">
+        <v>4</v>
+      </c>
+      <c r="P50" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q50" t="s">
+        <v>29</v>
+      </c>
+      <c r="V50">
+        <f>18*60</f>
+        <v>1080</v>
+      </c>
+      <c r="W50">
+        <v>1020</v>
+      </c>
+    </row>
+    <row r="51" spans="1:25">
+      <c r="A51">
         <v>43</v>
       </c>
-      <c r="V43">
+      <c r="F51">
+        <v>4</v>
+      </c>
+      <c r="J51">
+        <v>4</v>
+      </c>
+      <c r="K51">
+        <v>64</v>
+      </c>
+      <c r="L51">
+        <v>64</v>
+      </c>
+      <c r="M51">
+        <v>4</v>
+      </c>
+      <c r="R51" t="s">
+        <v>1</v>
+      </c>
+      <c r="V51">
+        <f>50*60</f>
+        <v>3000</v>
+      </c>
+      <c r="W51">
+        <v>2940</v>
+      </c>
+    </row>
+    <row r="55" spans="1:25">
+      <c r="A55" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="56" spans="1:25">
+      <c r="A56">
+        <v>1</v>
+      </c>
+      <c r="B56">
+        <v>4</v>
+      </c>
+      <c r="J56">
+        <v>4</v>
+      </c>
+      <c r="K56">
+        <v>64</v>
+      </c>
+      <c r="L56">
+        <v>64</v>
+      </c>
+      <c r="M56">
+        <v>4</v>
+      </c>
+      <c r="N56" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="V56">
         <f>143*60</f>
         <v>8580</v>
       </c>
-      <c r="W43">
+      <c r="W56">
         <f>8580-180</f>
         <v>8400</v>
       </c>
-    </row>
-    <row r="44" spans="1:23">
-      <c r="A44">
+      <c r="X56">
+        <f>25*60</f>
+        <v>1500</v>
+      </c>
+      <c r="Y56" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="57" spans="1:25">
+      <c r="A57">
         <v>2</v>
       </c>
-      <c r="B44">
+      <c r="B57">
         <v>2</v>
       </c>
-      <c r="C44">
+      <c r="C57">
         <v>2</v>
       </c>
-      <c r="J44">
-        <v>4</v>
-      </c>
-      <c r="K44">
-        <v>64</v>
-      </c>
-      <c r="L44">
-        <v>64</v>
-      </c>
-      <c r="M44">
-        <v>4</v>
-      </c>
-      <c r="N44" t="s">
-        <v>45</v>
-      </c>
-      <c r="O44" t="s">
-        <v>46</v>
-      </c>
-      <c r="V44">
+      <c r="J57">
+        <v>4</v>
+      </c>
+      <c r="K57">
+        <v>64</v>
+      </c>
+      <c r="L57">
+        <v>64</v>
+      </c>
+      <c r="M57">
+        <v>4</v>
+      </c>
+      <c r="N57" t="s">
+        <v>100</v>
+      </c>
+      <c r="O57" t="s">
+        <v>101</v>
+      </c>
+      <c r="V57">
         <v>7850</v>
       </c>
-      <c r="W44">
+      <c r="W57">
         <v>7850</v>
       </c>
-    </row>
-    <row r="45" spans="1:23">
-      <c r="A45">
+      <c r="X57">
+        <f>27*60</f>
+        <v>1620</v>
+      </c>
+      <c r="Y57" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="58" spans="1:25">
+      <c r="A58">
         <v>3</v>
       </c>
-      <c r="C45">
+      <c r="C58">
         <v>2</v>
       </c>
-      <c r="D45">
+      <c r="D58">
         <v>2</v>
       </c>
-      <c r="J45">
-        <v>4</v>
-      </c>
-      <c r="K45">
-        <v>64</v>
-      </c>
-      <c r="L45">
-        <v>64</v>
-      </c>
-      <c r="M45">
-        <v>4</v>
-      </c>
-      <c r="N45" t="s">
-        <v>46</v>
-      </c>
-      <c r="P45" t="s">
-        <v>46</v>
-      </c>
-      <c r="V45">
+      <c r="J58">
+        <v>4</v>
+      </c>
+      <c r="K58">
+        <v>64</v>
+      </c>
+      <c r="L58">
+        <v>64</v>
+      </c>
+      <c r="M58">
+        <v>4</v>
+      </c>
+      <c r="N58" t="s">
+        <v>101</v>
+      </c>
+      <c r="P58" t="s">
+        <v>101</v>
+      </c>
+      <c r="V58">
         <v>7652</v>
       </c>
-      <c r="W45">
+      <c r="W58">
         <v>7652</v>
       </c>
-    </row>
-    <row r="46" spans="1:23">
-      <c r="A46">
-        <v>4</v>
-      </c>
-      <c r="C46">
+      <c r="X58">
+        <f>18*60</f>
+        <v>1080</v>
+      </c>
+      <c r="Y58" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="59" spans="1:25">
+      <c r="A59">
+        <v>4</v>
+      </c>
+      <c r="C59">
         <v>2</v>
       </c>
-      <c r="D46">
+      <c r="D59">
         <v>2</v>
       </c>
-      <c r="J46">
-        <v>4</v>
-      </c>
-      <c r="K46">
-        <v>64</v>
-      </c>
-      <c r="L46">
-        <v>64</v>
-      </c>
-      <c r="M46">
-        <v>4</v>
-      </c>
-      <c r="O46" t="s">
-        <v>29</v>
-      </c>
-      <c r="P46" t="s">
-        <v>29</v>
-      </c>
-      <c r="V46">
+      <c r="J59">
+        <v>4</v>
+      </c>
+      <c r="K59">
+        <v>64</v>
+      </c>
+      <c r="L59">
+        <v>64</v>
+      </c>
+      <c r="M59">
+        <v>4</v>
+      </c>
+      <c r="O59" t="s">
+        <v>84</v>
+      </c>
+      <c r="P59" t="s">
+        <v>84</v>
+      </c>
+      <c r="V59">
         <v>7112</v>
       </c>
-      <c r="W46">
+      <c r="W59">
         <v>7112</v>
       </c>
-    </row>
-    <row r="47" spans="1:23">
-      <c r="A47">
+      <c r="X59">
+        <f>16*60</f>
+        <v>960</v>
+      </c>
+      <c r="Y59" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="60" spans="1:25">
+      <c r="A60">
         <v>5</v>
       </c>
-      <c r="B47">
-        <v>1</v>
-      </c>
-      <c r="E47">
-        <v>1</v>
-      </c>
-      <c r="F47">
-        <v>1</v>
-      </c>
-      <c r="G47">
-        <v>1</v>
-      </c>
-      <c r="J47">
-        <v>4</v>
-      </c>
-      <c r="K47">
-        <v>64</v>
-      </c>
-      <c r="L47">
-        <v>64</v>
-      </c>
-      <c r="M47">
-        <v>4</v>
-      </c>
-      <c r="N47">
+      <c r="B60">
+        <v>1</v>
+      </c>
+      <c r="E60">
+        <v>1</v>
+      </c>
+      <c r="F60">
+        <v>1</v>
+      </c>
+      <c r="G60">
+        <v>1</v>
+      </c>
+      <c r="J60">
+        <v>4</v>
+      </c>
+      <c r="K60">
+        <v>64</v>
+      </c>
+      <c r="L60">
+        <v>64</v>
+      </c>
+      <c r="M60">
+        <v>4</v>
+      </c>
+      <c r="N60">
         <v>120</v>
       </c>
-      <c r="Q47">
+      <c r="Q60">
         <v>60</v>
       </c>
-      <c r="R47">
+      <c r="R60">
         <v>60</v>
       </c>
-      <c r="S47">
+      <c r="S60">
         <v>60</v>
       </c>
-      <c r="V47">
+      <c r="V60">
         <v>8350</v>
       </c>
-      <c r="W47">
+      <c r="W60">
         <f>8350-120</f>
         <v>8230</v>
       </c>
-    </row>
-    <row r="48" spans="1:23">
-      <c r="A48">
+      <c r="X60">
+        <f>23*60</f>
+        <v>1380</v>
+      </c>
+      <c r="Y60" t="s">
         <v>6</v>
       </c>
-      <c r="C48">
-        <v>1</v>
-      </c>
-      <c r="D48">
-        <v>1</v>
-      </c>
-      <c r="E48">
-        <v>1</v>
-      </c>
-      <c r="F48">
-        <v>1</v>
-      </c>
-      <c r="J48">
-        <v>4</v>
-      </c>
-      <c r="K48">
-        <v>64</v>
-      </c>
-      <c r="L48">
-        <v>64</v>
-      </c>
-      <c r="M48">
-        <v>4</v>
-      </c>
-      <c r="O48">
+    </row>
+    <row r="61" spans="1:25">
+      <c r="A61">
+        <v>6</v>
+      </c>
+      <c r="C61">
+        <v>1</v>
+      </c>
+      <c r="D61">
+        <v>1</v>
+      </c>
+      <c r="E61">
+        <v>1</v>
+      </c>
+      <c r="F61">
+        <v>1</v>
+      </c>
+      <c r="J61">
+        <v>4</v>
+      </c>
+      <c r="K61">
+        <v>64</v>
+      </c>
+      <c r="L61">
+        <v>64</v>
+      </c>
+      <c r="M61">
+        <v>4</v>
+      </c>
+      <c r="O61">
         <v>0</v>
       </c>
-      <c r="P48">
+      <c r="P61">
         <v>0</v>
       </c>
-      <c r="Q48">
+      <c r="Q61">
         <v>0</v>
       </c>
-      <c r="R48">
+      <c r="R61">
         <v>0</v>
       </c>
-      <c r="V48">
+      <c r="V61">
         <v>7217</v>
       </c>
-      <c r="W48">
+      <c r="W61">
         <v>7217</v>
       </c>
-    </row>
-    <row r="52" spans="15:19">
-      <c r="O52" t="s">
+      <c r="X61">
+        <f>18*60</f>
+        <v>1080</v>
+      </c>
+      <c r="Y61" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="62" spans="1:25">
+      <c r="A62">
+        <v>7</v>
+      </c>
+      <c r="C62">
+        <v>1</v>
+      </c>
+      <c r="J62">
+        <v>1</v>
+      </c>
+      <c r="K62">
+        <v>64</v>
+      </c>
+      <c r="L62">
+        <v>64</v>
+      </c>
+      <c r="M62">
+        <v>8</v>
+      </c>
+      <c r="O62">
+        <v>0</v>
+      </c>
+      <c r="V62">
+        <v>10053</v>
+      </c>
+      <c r="W62">
+        <v>10053</v>
+      </c>
+      <c r="X62">
+        <v>660</v>
+      </c>
+      <c r="Y62" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="63" spans="1:25">
+      <c r="A63" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="64" spans="1:25">
+      <c r="A64" t="s">
+        <v>7</v>
+      </c>
+      <c r="C64">
+        <v>1</v>
+      </c>
+      <c r="J64">
+        <v>1</v>
+      </c>
+      <c r="K64">
+        <v>16</v>
+      </c>
+      <c r="L64">
+        <v>64</v>
+      </c>
+      <c r="M64">
+        <v>8</v>
+      </c>
+      <c r="O64">
+        <v>60</v>
+      </c>
+      <c r="V64">
+        <v>2173</v>
+      </c>
+      <c r="W64">
+        <v>2113</v>
+      </c>
+      <c r="X64">
+        <v>600</v>
+      </c>
+      <c r="Y64" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="65" spans="1:25">
+      <c r="A65">
+        <v>9</v>
+      </c>
+      <c r="C65">
+        <v>1</v>
+      </c>
+      <c r="J65">
+        <v>1</v>
+      </c>
+      <c r="K65">
+        <v>8</v>
+      </c>
+      <c r="L65">
+        <v>64</v>
+      </c>
+      <c r="M65">
+        <v>4</v>
+      </c>
+      <c r="O65">
+        <v>0</v>
+      </c>
+      <c r="V65">
+        <v>691</v>
+      </c>
+      <c r="W65">
+        <v>691</v>
+      </c>
+      <c r="X65">
+        <v>691</v>
+      </c>
+      <c r="Y65" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="66" spans="1:25">
+      <c r="A66">
+        <v>10</v>
+      </c>
+      <c r="C66">
+        <v>1</v>
+      </c>
+      <c r="J66">
+        <v>1</v>
+      </c>
+      <c r="K66">
+        <v>8</v>
+      </c>
+      <c r="L66">
+        <v>64</v>
+      </c>
+      <c r="M66">
+        <v>4</v>
+      </c>
+      <c r="O66">
+        <v>0</v>
+      </c>
+      <c r="V66">
+        <v>698</v>
+      </c>
+      <c r="W66">
+        <v>698</v>
+      </c>
+      <c r="X66">
+        <v>698</v>
+      </c>
+      <c r="Y66" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="67" spans="1:25">
+      <c r="A67">
+        <v>11</v>
+      </c>
+      <c r="D67">
+        <v>2</v>
+      </c>
+      <c r="E67">
+        <v>2</v>
+      </c>
+      <c r="J67">
+        <v>2</v>
+      </c>
+      <c r="K67">
+        <v>18</v>
+      </c>
+      <c r="L67">
+        <v>64</v>
+      </c>
+      <c r="M67">
+        <v>4</v>
+      </c>
+      <c r="P67" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q67" t="s">
+        <v>29</v>
+      </c>
+      <c r="V67">
+        <v>1740</v>
+      </c>
+      <c r="W67">
+        <v>1740</v>
+      </c>
+      <c r="X67">
+        <v>900</v>
+      </c>
+      <c r="Y67" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="68" spans="1:25">
+      <c r="A68">
+        <v>12</v>
+      </c>
+      <c r="C68">
+        <v>2</v>
+      </c>
+      <c r="E68">
+        <v>2</v>
+      </c>
+      <c r="J68">
+        <v>4</v>
+      </c>
+      <c r="K68">
+        <v>18</v>
+      </c>
+      <c r="L68">
+        <v>64</v>
+      </c>
+      <c r="M68">
+        <v>4</v>
+      </c>
+      <c r="O68" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q68" t="s">
+        <v>29</v>
+      </c>
+      <c r="V68">
+        <f>28*60</f>
+        <v>1680</v>
+      </c>
+      <c r="W68">
+        <v>1620</v>
+      </c>
+      <c r="X68">
+        <f>26*60</f>
+        <v>1560</v>
+      </c>
+      <c r="Y68" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="69" spans="1:25">
+      <c r="A69">
+        <v>13</v>
+      </c>
+      <c r="B69">
+        <v>1</v>
+      </c>
+      <c r="E69">
+        <v>3</v>
+      </c>
+      <c r="J69">
+        <v>4</v>
+      </c>
+      <c r="K69">
+        <v>32</v>
+      </c>
+      <c r="L69">
+        <v>64</v>
+      </c>
+      <c r="M69">
+        <v>4</v>
+      </c>
+      <c r="N69">
+        <v>0</v>
+      </c>
+      <c r="Q69">
+        <f>30*60</f>
+        <v>1800</v>
+      </c>
+      <c r="V69">
+        <f>55*60</f>
+        <v>3300</v>
+      </c>
+      <c r="W69">
+        <f>55*60</f>
+        <v>3300</v>
+      </c>
+      <c r="X69">
+        <f>43*60</f>
+        <v>2580</v>
+      </c>
+      <c r="Y69" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="78" spans="1:25">
+      <c r="O78" t="s">
+        <v>104</v>
+      </c>
+      <c r="P78">
+        <v>52</v>
+      </c>
+      <c r="Q78">
+        <f>2940/60</f>
         <v>49</v>
       </c>
-      <c r="P52">
-        <f>W43/60</f>
-        <v>140</v>
-      </c>
-      <c r="Q52">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="53" spans="15:19">
-      <c r="O53" t="s">
-        <v>50</v>
-      </c>
-      <c r="P53">
-        <f>W45/60</f>
-        <v>127.53333333333333</v>
-      </c>
-      <c r="Q53">
-        <f>1481/60</f>
-        <v>24.683333333333334</v>
-      </c>
-    </row>
-    <row r="54" spans="15:19">
-      <c r="O54" t="s">
+    </row>
+    <row r="79" spans="1:25">
+      <c r="O79" t="s">
+        <v>105</v>
+      </c>
+      <c r="P79">
+        <f>1560/60</f>
+        <v>26</v>
+      </c>
+      <c r="Q79">
+        <f>1380/60</f>
+        <v>23</v>
+      </c>
+    </row>
+    <row r="80" spans="1:25">
+      <c r="O80" t="s">
+        <v>89</v>
+      </c>
+      <c r="P80">
+        <v>20</v>
+      </c>
+      <c r="Q80">
+        <f>1020/60</f>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="81" spans="1:24">
+      <c r="Q81" s="3"/>
+      <c r="R81" s="3"/>
+    </row>
+    <row r="83" spans="1:24">
+      <c r="S83" s="3"/>
+    </row>
+    <row r="86" spans="1:24">
+      <c r="C86" t="s">
         <v>34</v>
       </c>
-      <c r="P54">
-        <f>7217/60</f>
-        <v>120.28333333333333</v>
-      </c>
-      <c r="Q54">
-        <f>1377/60</f>
-        <v>22.95</v>
-      </c>
-    </row>
-    <row r="55" spans="15:19">
-      <c r="Q55" s="3"/>
-      <c r="R55" s="3"/>
-      <c r="S55" s="3"/>
-    </row>
-    <row r="66" spans="1:24">
-      <c r="A66" t="s">
-        <v>47</v>
-      </c>
-      <c r="F66" t="s">
-        <v>47</v>
-      </c>
-      <c r="G66" t="s">
-        <v>47</v>
-      </c>
-      <c r="H66" t="s">
-        <v>47</v>
-      </c>
-      <c r="I66" t="s">
-        <v>47</v>
-      </c>
-      <c r="M66" t="s">
-        <v>47</v>
-      </c>
-      <c r="N66" t="s">
-        <v>47</v>
-      </c>
-      <c r="Q66" t="s">
-        <v>47</v>
-      </c>
-      <c r="T66" t="s">
-        <v>47</v>
-      </c>
-      <c r="X66" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="68" spans="1:24">
-      <c r="A68">
-        <v>1</v>
-      </c>
-      <c r="B68" t="s">
-        <v>62</v>
-      </c>
-      <c r="C68">
-        <v>32</v>
-      </c>
-      <c r="D68">
-        <v>1</v>
-      </c>
-      <c r="E68">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="69" spans="1:24">
-      <c r="B69" t="s">
-        <v>63</v>
-      </c>
-      <c r="C69">
-        <v>64</v>
-      </c>
-      <c r="D69">
-        <v>32</v>
-      </c>
-      <c r="E69">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="70" spans="1:24">
-      <c r="B70" t="s">
-        <v>69</v>
-      </c>
-      <c r="C70">
-        <v>2</v>
-      </c>
-      <c r="D70">
-        <v>1</v>
-      </c>
-      <c r="E70">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="71" spans="1:24">
-      <c r="B71" t="s">
-        <v>64</v>
-      </c>
-      <c r="C71">
-        <v>8</v>
-      </c>
-      <c r="D71">
-        <v>4</v>
-      </c>
-      <c r="E71">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="72" spans="1:24">
-      <c r="B72" t="s">
-        <v>66</v>
-      </c>
-      <c r="D72">
-        <v>240</v>
-      </c>
-      <c r="E72">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="73" spans="1:24">
-      <c r="B73" t="s">
-        <v>68</v>
-      </c>
-      <c r="C73">
-        <v>1405</v>
-      </c>
-      <c r="D73">
-        <v>1160</v>
-      </c>
-      <c r="E73">
-        <v>1405</v>
-      </c>
-    </row>
-    <row r="74" spans="1:24">
-      <c r="B74" t="s">
-        <v>6</v>
-      </c>
-      <c r="C74">
-        <v>1405</v>
-      </c>
-    </row>
-    <row r="76" spans="1:24">
-      <c r="A76">
-        <v>2</v>
-      </c>
-      <c r="B76" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="77" spans="1:24">
-      <c r="B77" t="s">
-        <v>62</v>
-      </c>
-      <c r="C77">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="78" spans="1:24">
-      <c r="B78" t="s">
-        <v>63</v>
-      </c>
-      <c r="C78">
-        <v>128</v>
-      </c>
-      <c r="D78">
-        <v>64</v>
-      </c>
-      <c r="E78">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="79" spans="1:24">
-      <c r="B79" t="s">
-        <v>69</v>
-      </c>
-      <c r="C79">
-        <v>2</v>
-      </c>
-      <c r="D79">
-        <v>1</v>
-      </c>
-      <c r="E79">
-        <v>1</v>
-      </c>
-      <c r="U79">
-        <f>20/140</f>
-        <v>0.14285714285714285</v>
-      </c>
-    </row>
-    <row r="80" spans="1:24">
-      <c r="B80" t="s">
-        <v>64</v>
-      </c>
-      <c r="C80">
-        <v>16</v>
-      </c>
-      <c r="D80">
-        <v>8</v>
-      </c>
-      <c r="E80">
-        <v>8</v>
-      </c>
-      <c r="U80">
-        <f>40/60</f>
-        <v>0.66666666666666663</v>
-      </c>
-    </row>
-    <row r="81" spans="1:16">
-      <c r="B81" t="s">
-        <v>66</v>
-      </c>
-      <c r="D81">
-        <v>0</v>
-      </c>
-      <c r="E81">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="82" spans="1:16">
-      <c r="B82" t="s">
-        <v>68</v>
-      </c>
-      <c r="C82">
-        <v>2301</v>
-      </c>
-      <c r="D82">
-        <v>2301</v>
-      </c>
-      <c r="E82">
-        <v>2301</v>
-      </c>
-    </row>
-    <row r="83" spans="1:16">
-      <c r="B83" t="s">
-        <v>6</v>
-      </c>
-      <c r="C83">
-        <v>2301</v>
-      </c>
-    </row>
-    <row r="84" spans="1:16">
-      <c r="B84" s="1"/>
-    </row>
-    <row r="85" spans="1:16">
-      <c r="A85">
+      <c r="D86" t="s">
+        <v>38</v>
+      </c>
+      <c r="E86" t="s">
+        <v>35</v>
+      </c>
+      <c r="F86" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="87" spans="1:24">
+      <c r="B87" t="s">
+        <v>33</v>
+      </c>
+      <c r="C87">
+        <v>4.78</v>
+      </c>
+      <c r="D87">
+        <v>1</v>
+      </c>
+      <c r="E87">
         <v>3</v>
       </c>
-      <c r="B85" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="86" spans="1:16">
-      <c r="B86" t="s">
-        <v>61</v>
-      </c>
-      <c r="C86">
-        <v>32</v>
-      </c>
-      <c r="P86">
-        <f>18/40</f>
-        <v>0.45</v>
-      </c>
-    </row>
-    <row r="87" spans="1:16">
-      <c r="B87" t="s">
-        <v>58</v>
-      </c>
-      <c r="C87">
-        <v>64</v>
-      </c>
-      <c r="D87" t="s">
-        <v>74</v>
-      </c>
-      <c r="E87">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="88" spans="1:16">
+      <c r="F87">
+        <v>1</v>
+      </c>
+      <c r="G87">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="88" spans="1:24">
       <c r="B88" t="s">
-        <v>60</v>
+        <v>36</v>
       </c>
       <c r="C88">
         <v>2</v>
       </c>
-      <c r="D88" t="s">
-        <v>75</v>
-      </c>
-      <c r="E88">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="89" spans="1:16">
+      <c r="D88">
+        <v>1</v>
+      </c>
+      <c r="E88" t="s">
+        <v>4</v>
+      </c>
+      <c r="F88">
+        <v>1</v>
+      </c>
+      <c r="G88">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="89" spans="1:24">
       <c r="B89" t="s">
-        <v>59</v>
+        <v>37</v>
       </c>
       <c r="C89">
+        <v>0.22</v>
+      </c>
+      <c r="D89" t="s">
+        <v>39</v>
+      </c>
+      <c r="E89">
+        <v>1.56</v>
+      </c>
+      <c r="F89" t="s">
+        <v>40</v>
+      </c>
+      <c r="G89">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="90" spans="1:24">
+      <c r="C90">
+        <v>695</v>
+      </c>
+      <c r="E90">
+        <v>698</v>
+      </c>
+    </row>
+    <row r="92" spans="1:24">
+      <c r="A92" t="s">
+        <v>102</v>
+      </c>
+      <c r="F92" t="s">
+        <v>102</v>
+      </c>
+      <c r="G92" t="s">
+        <v>102</v>
+      </c>
+      <c r="H92" t="s">
+        <v>102</v>
+      </c>
+      <c r="I92" t="s">
+        <v>102</v>
+      </c>
+      <c r="M92" t="s">
+        <v>102</v>
+      </c>
+      <c r="N92" t="s">
+        <v>102</v>
+      </c>
+      <c r="Q92" t="s">
+        <v>102</v>
+      </c>
+      <c r="T92" t="s">
+        <v>102</v>
+      </c>
+      <c r="X92" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="94" spans="1:24">
+      <c r="A94">
+        <v>1</v>
+      </c>
+      <c r="B94" t="s">
+        <v>117</v>
+      </c>
+      <c r="C94">
+        <v>32</v>
+      </c>
+      <c r="D94">
+        <v>1</v>
+      </c>
+      <c r="E94">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="95" spans="1:24">
+      <c r="B95" t="s">
+        <v>118</v>
+      </c>
+      <c r="C95">
+        <v>64</v>
+      </c>
+      <c r="D95">
+        <v>32</v>
+      </c>
+      <c r="E95">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="96" spans="1:24">
+      <c r="B96" t="s">
+        <v>14</v>
+      </c>
+      <c r="C96">
+        <v>2</v>
+      </c>
+      <c r="D96">
+        <v>1</v>
+      </c>
+      <c r="E96">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5">
+      <c r="B97" t="s">
+        <v>119</v>
+      </c>
+      <c r="C97">
         <v>8</v>
       </c>
-      <c r="D89" t="s">
-        <v>76</v>
-      </c>
-      <c r="E89">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="90" spans="1:16">
-      <c r="B90" t="s">
-        <v>65</v>
-      </c>
-      <c r="D90">
+      <c r="D97">
+        <v>4</v>
+      </c>
+      <c r="E97">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5">
+      <c r="B98" t="s">
+        <v>11</v>
+      </c>
+      <c r="D98">
+        <v>240</v>
+      </c>
+      <c r="E98">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5">
+      <c r="B99" t="s">
+        <v>13</v>
+      </c>
+      <c r="C99">
+        <v>1405</v>
+      </c>
+      <c r="D99">
+        <v>1160</v>
+      </c>
+      <c r="E99">
+        <v>1405</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5">
+      <c r="B100" t="s">
+        <v>61</v>
+      </c>
+      <c r="C100">
+        <v>1405</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5">
+      <c r="A102">
+        <v>2</v>
+      </c>
+      <c r="B102" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5">
+      <c r="B103" t="s">
+        <v>117</v>
+      </c>
+      <c r="C103">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5">
+      <c r="B104" t="s">
+        <v>118</v>
+      </c>
+      <c r="C104">
+        <v>128</v>
+      </c>
+      <c r="D104">
+        <v>64</v>
+      </c>
+      <c r="E104">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5">
+      <c r="B105" t="s">
+        <v>14</v>
+      </c>
+      <c r="C105">
+        <v>2</v>
+      </c>
+      <c r="D105">
+        <v>1</v>
+      </c>
+      <c r="E105">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5">
+      <c r="B106" t="s">
+        <v>119</v>
+      </c>
+      <c r="C106">
+        <v>16</v>
+      </c>
+      <c r="D106">
+        <v>8</v>
+      </c>
+      <c r="E106">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5">
+      <c r="B107" t="s">
+        <v>11</v>
+      </c>
+      <c r="D107">
+        <v>0</v>
+      </c>
+      <c r="E107">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5">
+      <c r="B108" t="s">
+        <v>13</v>
+      </c>
+      <c r="C108">
+        <v>2301</v>
+      </c>
+      <c r="D108">
+        <v>2301</v>
+      </c>
+      <c r="E108">
+        <v>2301</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5">
+      <c r="B109" t="s">
+        <v>61</v>
+      </c>
+      <c r="C109">
+        <v>2301</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5">
+      <c r="B110" s="1"/>
+    </row>
+    <row r="111" spans="1:5">
+      <c r="A111">
+        <v>3</v>
+      </c>
+      <c r="B111" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5">
+      <c r="B112" t="s">
+        <v>116</v>
+      </c>
+      <c r="C112">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5">
+      <c r="B113" t="s">
+        <v>113</v>
+      </c>
+      <c r="C113">
+        <v>64</v>
+      </c>
+      <c r="D113" t="s">
+        <v>19</v>
+      </c>
+      <c r="E113">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5">
+      <c r="B114" t="s">
+        <v>115</v>
+      </c>
+      <c r="C114">
+        <v>2</v>
+      </c>
+      <c r="D114" t="s">
+        <v>20</v>
+      </c>
+      <c r="E114">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5">
+      <c r="B115" t="s">
+        <v>114</v>
+      </c>
+      <c r="C115">
+        <v>8</v>
+      </c>
+      <c r="D115" t="s">
+        <v>21</v>
+      </c>
+      <c r="E115">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5">
+      <c r="B116" t="s">
+        <v>120</v>
+      </c>
+      <c r="D116">
         <v>38794</v>
       </c>
-      <c r="E90">
+      <c r="E116">
         <f>38794-2184</f>
         <v>36610</v>
       </c>
     </row>
-    <row r="91" spans="1:16">
-      <c r="B91" t="s">
-        <v>67</v>
-      </c>
-      <c r="C91">
+    <row r="117" spans="1:5">
+      <c r="B117" t="s">
+        <v>12</v>
+      </c>
+      <c r="C117">
         <v>38794</v>
       </c>
-      <c r="D91">
+      <c r="D117">
         <v>38794</v>
       </c>
-      <c r="E91">
+      <c r="E117">
         <v>2184</v>
       </c>
     </row>
-    <row r="92" spans="1:16">
-      <c r="B92" t="s">
-        <v>78</v>
-      </c>
-      <c r="C92">
+    <row r="118" spans="1:5">
+      <c r="B118" t="s">
+        <v>23</v>
+      </c>
+      <c r="C118">
         <v>2184</v>
       </c>
     </row>
-    <row r="94" spans="1:16">
-      <c r="A94">
-        <v>4</v>
-      </c>
-      <c r="B94" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="95" spans="1:16">
-      <c r="B95" t="s">
-        <v>61</v>
-      </c>
-      <c r="C95">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="96" spans="1:16">
-      <c r="B96" t="s">
-        <v>58</v>
-      </c>
-      <c r="C96">
-        <v>64</v>
-      </c>
-      <c r="D96">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="97" spans="1:4">
-      <c r="B97" t="s">
-        <v>60</v>
-      </c>
-      <c r="C97">
-        <v>1</v>
-      </c>
-      <c r="D97">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="98" spans="1:4">
-      <c r="B98" t="s">
-        <v>59</v>
-      </c>
-      <c r="C98">
+    <row r="120" spans="1:5">
+      <c r="A120">
+        <v>4</v>
+      </c>
+      <c r="B120" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5">
+      <c r="B121" t="s">
+        <v>116</v>
+      </c>
+      <c r="C121">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="122" spans="1:5">
+      <c r="B122" t="s">
+        <v>113</v>
+      </c>
+      <c r="C122">
+        <v>64</v>
+      </c>
+      <c r="D122">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="123" spans="1:5">
+      <c r="B123" t="s">
+        <v>115</v>
+      </c>
+      <c r="C123">
+        <v>1</v>
+      </c>
+      <c r="D123">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="124" spans="1:5">
+      <c r="B124" t="s">
+        <v>114</v>
+      </c>
+      <c r="C124">
         <v>16</v>
       </c>
-      <c r="D98">
+      <c r="D124">
         <v>16</v>
       </c>
     </row>
-    <row r="99" spans="1:4">
-      <c r="B99" t="s">
-        <v>65</v>
-      </c>
-      <c r="D99">
+    <row r="125" spans="1:5">
+      <c r="B125" t="s">
+        <v>120</v>
+      </c>
+      <c r="D125">
         <f>501416-484354</f>
         <v>17062</v>
       </c>
     </row>
-    <row r="100" spans="1:4">
-      <c r="B100" t="s">
-        <v>67</v>
-      </c>
-      <c r="C100">
+    <row r="126" spans="1:5">
+      <c r="B126" t="s">
+        <v>12</v>
+      </c>
+      <c r="C126">
         <f>503606-484354</f>
         <v>19252</v>
       </c>
     </row>
-    <row r="101" spans="1:4">
-      <c r="B101" t="s">
-        <v>78</v>
-      </c>
-      <c r="C101">
+    <row r="127" spans="1:5">
+      <c r="B127" t="s">
+        <v>23</v>
+      </c>
+      <c r="C127">
         <f>19252-17062</f>
         <v>2190</v>
       </c>
-      <c r="D101">
+      <c r="D127">
         <f>19252-17062</f>
         <v>2190</v>
       </c>
     </row>
-    <row r="103" spans="1:4">
-      <c r="A103">
+    <row r="129" spans="1:4">
+      <c r="A129">
         <v>5</v>
       </c>
-      <c r="B103" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="104" spans="1:4">
-      <c r="B104" t="s">
-        <v>61</v>
-      </c>
-      <c r="C104">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="105" spans="1:4">
-      <c r="B105" t="s">
-        <v>58</v>
-      </c>
-      <c r="C105">
+      <c r="B129" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4">
+      <c r="B130" t="s">
+        <v>116</v>
+      </c>
+      <c r="C130">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4">
+      <c r="B131" t="s">
+        <v>113</v>
+      </c>
+      <c r="C131">
         <v>128</v>
       </c>
-      <c r="D105">
+      <c r="D131">
         <v>128</v>
       </c>
     </row>
-    <row r="106" spans="1:4">
-      <c r="B106" t="s">
-        <v>60</v>
-      </c>
-      <c r="C106">
-        <v>1</v>
-      </c>
-      <c r="D106">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="107" spans="1:4">
-      <c r="B107" t="s">
-        <v>59</v>
-      </c>
-      <c r="C107">
+    <row r="132" spans="1:4">
+      <c r="B132" t="s">
+        <v>115</v>
+      </c>
+      <c r="C132">
+        <v>1</v>
+      </c>
+      <c r="D132">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="133" spans="1:4">
+      <c r="B133" t="s">
+        <v>114</v>
+      </c>
+      <c r="C133">
         <v>16</v>
       </c>
-      <c r="D107">
+      <c r="D133">
         <v>16</v>
       </c>
     </row>
-    <row r="108" spans="1:4">
-      <c r="B108" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="109" spans="1:4">
-      <c r="B109" t="s">
-        <v>67</v>
-      </c>
-      <c r="C109">
+    <row r="134" spans="1:4">
+      <c r="B134" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="135" spans="1:4">
+      <c r="B135" t="s">
+        <v>12</v>
+      </c>
+      <c r="C135">
         <f>7417-5128</f>
         <v>2289</v>
       </c>
     </row>
-    <row r="110" spans="1:4">
-      <c r="B110" t="s">
-        <v>78</v>
-      </c>
-      <c r="C110">
+    <row r="136" spans="1:4">
+      <c r="B136" t="s">
+        <v>23</v>
+      </c>
+      <c r="C136">
         <f>7417-5128</f>
         <v>2289</v>
       </c>
     </row>
-    <row r="112" spans="1:4">
-      <c r="A112">
+    <row r="138" spans="1:4">
+      <c r="A138">
         <v>6</v>
       </c>
-      <c r="B112" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="113" spans="1:5">
-      <c r="B113" t="s">
-        <v>61</v>
-      </c>
-      <c r="C113">
+      <c r="B138" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="139" spans="1:4">
+      <c r="B139" t="s">
+        <v>116</v>
+      </c>
+      <c r="C139">
         <v>128</v>
       </c>
     </row>
-    <row r="114" spans="1:5">
-      <c r="B114" t="s">
-        <v>58</v>
-      </c>
-      <c r="C114">
+    <row r="140" spans="1:4">
+      <c r="B140" t="s">
+        <v>113</v>
+      </c>
+      <c r="C140">
         <v>128</v>
       </c>
-      <c r="D114">
+      <c r="D140">
         <v>128</v>
       </c>
     </row>
-    <row r="115" spans="1:5">
-      <c r="B115" t="s">
-        <v>60</v>
-      </c>
-      <c r="C115">
-        <v>1</v>
-      </c>
-      <c r="D115">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="116" spans="1:5">
-      <c r="B116" t="s">
-        <v>59</v>
-      </c>
-      <c r="C116">
+    <row r="141" spans="1:4">
+      <c r="B141" t="s">
+        <v>115</v>
+      </c>
+      <c r="C141">
+        <v>1</v>
+      </c>
+      <c r="D141">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="142" spans="1:4">
+      <c r="B142" t="s">
+        <v>114</v>
+      </c>
+      <c r="C142">
         <v>16</v>
       </c>
-      <c r="D116">
+      <c r="D142">
         <v>16</v>
       </c>
     </row>
-    <row r="117" spans="1:5">
-      <c r="B117" t="s">
-        <v>65</v>
-      </c>
-      <c r="D117">
+    <row r="143" spans="1:4">
+      <c r="B143" t="s">
+        <v>120</v>
+      </c>
+      <c r="D143">
         <v>36</v>
       </c>
     </row>
-    <row r="118" spans="1:5">
-      <c r="B118" t="s">
-        <v>67</v>
-      </c>
-      <c r="C118">
+    <row r="144" spans="1:4">
+      <c r="B144" t="s">
+        <v>12</v>
+      </c>
+      <c r="C144">
         <v>4406</v>
       </c>
     </row>
-    <row r="119" spans="1:5">
-      <c r="B119" t="s">
-        <v>78</v>
-      </c>
-      <c r="C119">
+    <row r="145" spans="1:5">
+      <c r="B145" t="s">
+        <v>23</v>
+      </c>
+      <c r="C145">
         <v>4370</v>
       </c>
     </row>
-    <row r="121" spans="1:5">
-      <c r="A121">
+    <row r="147" spans="1:5">
+      <c r="A147">
         <v>7</v>
       </c>
-      <c r="B121" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="122" spans="1:5">
-      <c r="B122" t="s">
-        <v>61</v>
-      </c>
-      <c r="C122">
+      <c r="B147" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="148" spans="1:5">
+      <c r="B148" t="s">
+        <v>116</v>
+      </c>
+      <c r="C148">
         <v>32</v>
       </c>
     </row>
-    <row r="123" spans="1:5">
-      <c r="B123" t="s">
-        <v>58</v>
-      </c>
-      <c r="C123">
-        <v>64</v>
-      </c>
-      <c r="D123" t="s">
-        <v>7</v>
-      </c>
-      <c r="E123">
+    <row r="149" spans="1:5">
+      <c r="B149" t="s">
+        <v>113</v>
+      </c>
+      <c r="C149">
+        <v>64</v>
+      </c>
+      <c r="D149" t="s">
+        <v>62</v>
+      </c>
+      <c r="E149">
         <v>32</v>
       </c>
     </row>
-    <row r="124" spans="1:5">
-      <c r="B124" t="s">
-        <v>60</v>
-      </c>
-      <c r="C124">
+    <row r="150" spans="1:5">
+      <c r="B150" t="s">
+        <v>115</v>
+      </c>
+      <c r="C150">
         <v>2</v>
       </c>
-      <c r="D124">
-        <v>1</v>
-      </c>
-      <c r="E124">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="125" spans="1:5">
-      <c r="B125" t="s">
-        <v>59</v>
-      </c>
-      <c r="C125">
+      <c r="D150">
+        <v>1</v>
+      </c>
+      <c r="E150">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="151" spans="1:5">
+      <c r="B151" t="s">
+        <v>114</v>
+      </c>
+      <c r="C151">
         <v>8</v>
       </c>
-      <c r="D125" t="s">
-        <v>80</v>
-      </c>
-      <c r="E125">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="126" spans="1:5">
-      <c r="B126" t="s">
-        <v>65</v>
-      </c>
-      <c r="D126">
+      <c r="D151" t="s">
+        <v>25</v>
+      </c>
+      <c r="E151">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="152" spans="1:5">
+      <c r="B152" t="s">
+        <v>120</v>
+      </c>
+      <c r="D152">
         <v>2377</v>
       </c>
-      <c r="E126">
+      <c r="E152">
         <v>0</v>
       </c>
     </row>
-    <row r="127" spans="1:5">
-      <c r="B127" t="s">
-        <v>67</v>
-      </c>
-      <c r="C127">
+    <row r="153" spans="1:5">
+      <c r="B153" t="s">
+        <v>12</v>
+      </c>
+      <c r="C153">
         <f>6565-4188</f>
         <v>2377</v>
       </c>
     </row>
-    <row r="128" spans="1:5">
-      <c r="B128" t="s">
-        <v>78</v>
-      </c>
-      <c r="C128">
+    <row r="154" spans="1:5">
+      <c r="B154" t="s">
+        <v>23</v>
+      </c>
+      <c r="C154">
         <v>2377</v>
       </c>
     </row>
-    <row r="130" spans="1:8">
-      <c r="A130">
+    <row r="156" spans="1:5">
+      <c r="A156">
         <v>8</v>
       </c>
-      <c r="B130" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="131" spans="1:8">
-      <c r="B131" t="s">
-        <v>61</v>
-      </c>
-      <c r="C131">
+      <c r="B156" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="157" spans="1:5">
+      <c r="B157" t="s">
+        <v>116</v>
+      </c>
+      <c r="C157">
         <v>32</v>
       </c>
     </row>
-    <row r="132" spans="1:8">
-      <c r="B132" t="s">
-        <v>58</v>
-      </c>
-      <c r="C132">
-        <v>64</v>
-      </c>
-      <c r="D132" t="s">
-        <v>79</v>
-      </c>
-      <c r="E132">
+    <row r="158" spans="1:5">
+      <c r="B158" t="s">
+        <v>113</v>
+      </c>
+      <c r="C158">
+        <v>64</v>
+      </c>
+      <c r="D158" t="s">
+        <v>24</v>
+      </c>
+      <c r="E158">
         <v>32</v>
       </c>
     </row>
-    <row r="133" spans="1:8">
-      <c r="B133" t="s">
-        <v>60</v>
-      </c>
-      <c r="C133">
+    <row r="159" spans="1:5">
+      <c r="B159" t="s">
+        <v>115</v>
+      </c>
+      <c r="C159">
         <v>2</v>
       </c>
-      <c r="D133">
-        <v>1</v>
-      </c>
-      <c r="E133">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="134" spans="1:8">
-      <c r="B134" t="s">
-        <v>59</v>
-      </c>
-      <c r="C134">
+      <c r="D159">
+        <v>1</v>
+      </c>
+      <c r="E159">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="160" spans="1:5">
+      <c r="B160" t="s">
+        <v>114</v>
+      </c>
+      <c r="C160">
         <v>8</v>
       </c>
-      <c r="D134" t="s">
-        <v>79</v>
-      </c>
-      <c r="E134">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="135" spans="1:8">
-      <c r="B135" t="s">
-        <v>65</v>
-      </c>
-      <c r="D135">
+      <c r="D160" t="s">
+        <v>24</v>
+      </c>
+      <c r="E160">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="161" spans="1:8">
+      <c r="B161" t="s">
+        <v>120</v>
+      </c>
+      <c r="D161">
         <v>2482</v>
       </c>
     </row>
-    <row r="136" spans="1:8">
-      <c r="B136" t="s">
-        <v>67</v>
-      </c>
-      <c r="C136">
+    <row r="162" spans="1:8">
+      <c r="B162" t="s">
+        <v>12</v>
+      </c>
+      <c r="C162">
         <f>61813-59331</f>
         <v>2482</v>
       </c>
     </row>
-    <row r="137" spans="1:8">
-      <c r="B137" t="s">
-        <v>77</v>
-      </c>
-      <c r="C137">
+    <row r="163" spans="1:8">
+      <c r="B163" t="s">
+        <v>22</v>
+      </c>
+      <c r="C163">
         <v>2482</v>
       </c>
     </row>
-    <row r="139" spans="1:8">
-      <c r="A139">
+    <row r="165" spans="1:8">
+      <c r="A165">
         <v>9</v>
       </c>
-      <c r="B139" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="140" spans="1:8">
-      <c r="B140" t="s">
-        <v>61</v>
-      </c>
-      <c r="C140">
+      <c r="B165" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="166" spans="1:8">
+      <c r="B166" t="s">
+        <v>116</v>
+      </c>
+      <c r="C166">
         <v>32</v>
       </c>
     </row>
-    <row r="141" spans="1:8">
-      <c r="B141" t="s">
-        <v>58</v>
-      </c>
-      <c r="C141">
-        <v>64</v>
-      </c>
-      <c r="D141">
+    <row r="167" spans="1:8">
+      <c r="B167" t="s">
+        <v>113</v>
+      </c>
+      <c r="C167">
+        <v>64</v>
+      </c>
+      <c r="D167">
         <v>32</v>
       </c>
-      <c r="H141">
+      <c r="H167">
         <v>32</v>
       </c>
     </row>
-    <row r="142" spans="1:8">
-      <c r="B142" t="s">
-        <v>60</v>
-      </c>
-      <c r="C142">
+    <row r="168" spans="1:8">
+      <c r="B168" t="s">
+        <v>115</v>
+      </c>
+      <c r="C168">
         <v>2</v>
       </c>
-      <c r="D142">
-        <v>1</v>
-      </c>
-      <c r="H142">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="143" spans="1:8">
-      <c r="B143" t="s">
-        <v>59</v>
-      </c>
-      <c r="C143">
+      <c r="D168">
+        <v>1</v>
+      </c>
+      <c r="H168">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="169" spans="1:8">
+      <c r="B169" t="s">
+        <v>114</v>
+      </c>
+      <c r="C169">
         <v>8</v>
       </c>
-      <c r="D143">
-        <v>4</v>
-      </c>
-      <c r="H143">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="144" spans="1:8">
-      <c r="B144" t="s">
-        <v>65</v>
-      </c>
-      <c r="D144">
+      <c r="D169">
+        <v>4</v>
+      </c>
+      <c r="H169">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="170" spans="1:8">
+      <c r="B170" t="s">
+        <v>120</v>
+      </c>
+      <c r="D170">
         <v>210</v>
       </c>
-      <c r="H144">
+      <c r="H170">
         <v>30</v>
       </c>
     </row>
-    <row r="145" spans="1:8">
-      <c r="B145" t="s">
-        <v>67</v>
-      </c>
-      <c r="C145">
+    <row r="171" spans="1:8">
+      <c r="B171" t="s">
+        <v>12</v>
+      </c>
+      <c r="C171">
         <f>8939-7292</f>
         <v>1647</v>
       </c>
     </row>
-    <row r="146" spans="1:8">
-      <c r="B146" t="s">
-        <v>77</v>
-      </c>
-      <c r="C146">
+    <row r="172" spans="1:8">
+      <c r="B172" t="s">
+        <v>22</v>
+      </c>
+      <c r="C172">
         <v>1617</v>
       </c>
     </row>
-    <row r="148" spans="1:8">
-      <c r="A148">
+    <row r="174" spans="1:8">
+      <c r="A174">
         <v>10</v>
       </c>
-      <c r="B148" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="149" spans="1:8">
-      <c r="B149" t="s">
-        <v>61</v>
-      </c>
-      <c r="C149">
+      <c r="B174" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="175" spans="1:8">
+      <c r="B175" t="s">
+        <v>116</v>
+      </c>
+      <c r="C175">
         <v>32</v>
       </c>
     </row>
-    <row r="150" spans="1:8">
-      <c r="B150" t="s">
-        <v>58</v>
-      </c>
-      <c r="C150">
+    <row r="176" spans="1:8">
+      <c r="B176" t="s">
+        <v>113</v>
+      </c>
+      <c r="C176">
         <v>128</v>
       </c>
-      <c r="H150">
+      <c r="H176">
         <v>128</v>
       </c>
     </row>
-    <row r="151" spans="1:8">
-      <c r="B151" t="s">
-        <v>60</v>
-      </c>
-      <c r="C151">
-        <v>1</v>
-      </c>
-      <c r="H151">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="152" spans="1:8">
-      <c r="B152" t="s">
-        <v>59</v>
-      </c>
-      <c r="C152">
+    <row r="177" spans="1:8">
+      <c r="B177" t="s">
+        <v>115</v>
+      </c>
+      <c r="C177">
+        <v>1</v>
+      </c>
+      <c r="H177">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="178" spans="1:8">
+      <c r="B178" t="s">
+        <v>114</v>
+      </c>
+      <c r="C178">
         <v>16</v>
       </c>
-      <c r="H152">
+      <c r="H178">
         <v>16</v>
       </c>
     </row>
-    <row r="153" spans="1:8">
-      <c r="B153" t="s">
-        <v>65</v>
-      </c>
-      <c r="H153">
+    <row r="179" spans="1:8">
+      <c r="B179" t="s">
+        <v>120</v>
+      </c>
+      <c r="H179">
         <v>85</v>
       </c>
     </row>
-    <row r="154" spans="1:8">
-      <c r="B154" t="s">
-        <v>67</v>
-      </c>
-      <c r="C154">
+    <row r="180" spans="1:8">
+      <c r="B180" t="s">
+        <v>12</v>
+      </c>
+      <c r="C180">
         <v>1432</v>
       </c>
     </row>
-    <row r="155" spans="1:8">
-      <c r="B155" t="s">
-        <v>77</v>
-      </c>
-      <c r="C155">
+    <row r="181" spans="1:8">
+      <c r="B181" t="s">
+        <v>22</v>
+      </c>
+      <c r="C181">
         <f>1432-85</f>
         <v>1347</v>
       </c>
     </row>
-    <row r="157" spans="1:8">
-      <c r="A157">
+    <row r="183" spans="1:8">
+      <c r="A183">
         <v>11</v>
       </c>
-      <c r="B157" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="158" spans="1:8">
-      <c r="B158" t="s">
-        <v>61</v>
-      </c>
-      <c r="C158">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="159" spans="1:8">
-      <c r="B159" t="s">
-        <v>58</v>
-      </c>
-      <c r="C159">
+      <c r="B183" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="184" spans="1:8">
+      <c r="B184" t="s">
+        <v>116</v>
+      </c>
+      <c r="C184">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="185" spans="1:8">
+      <c r="B185" t="s">
+        <v>113</v>
+      </c>
+      <c r="C185">
         <v>128</v>
       </c>
-      <c r="H159">
+      <c r="H185">
         <v>128</v>
       </c>
     </row>
-    <row r="160" spans="1:8">
-      <c r="B160" t="s">
-        <v>60</v>
-      </c>
-      <c r="C160">
-        <v>1</v>
-      </c>
-      <c r="H160">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="161" spans="1:8">
-      <c r="B161" t="s">
-        <v>59</v>
-      </c>
-      <c r="C161">
+    <row r="186" spans="1:8">
+      <c r="B186" t="s">
+        <v>115</v>
+      </c>
+      <c r="C186">
+        <v>1</v>
+      </c>
+      <c r="H186">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="187" spans="1:8">
+      <c r="B187" t="s">
+        <v>114</v>
+      </c>
+      <c r="C187">
         <v>16</v>
       </c>
-      <c r="H161">
+      <c r="H187">
         <v>16</v>
       </c>
     </row>
-    <row r="162" spans="1:8">
-      <c r="B162" t="s">
-        <v>65</v>
-      </c>
-      <c r="H162">
+    <row r="188" spans="1:8">
+      <c r="B188" t="s">
+        <v>120</v>
+      </c>
+      <c r="H188">
         <v>98</v>
       </c>
     </row>
-    <row r="163" spans="1:8">
-      <c r="B163" t="s">
-        <v>67</v>
-      </c>
-      <c r="C163">
+    <row r="189" spans="1:8">
+      <c r="B189" t="s">
+        <v>12</v>
+      </c>
+      <c r="C189">
         <v>1771</v>
       </c>
     </row>
-    <row r="164" spans="1:8">
-      <c r="B164" t="s">
-        <v>77</v>
-      </c>
-      <c r="C164">
+    <row r="190" spans="1:8">
+      <c r="B190" t="s">
+        <v>22</v>
+      </c>
+      <c r="C190">
         <f>1771-98</f>
         <v>1673</v>
       </c>
     </row>
-    <row r="166" spans="1:8">
-      <c r="A166">
+    <row r="192" spans="1:8">
+      <c r="A192">
         <v>12</v>
       </c>
-      <c r="B166" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="167" spans="1:8">
-      <c r="B167" t="s">
-        <v>61</v>
-      </c>
-      <c r="C167">
+      <c r="B192" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="193" spans="1:8">
+      <c r="B193" t="s">
+        <v>116</v>
+      </c>
+      <c r="C193">
         <v>128</v>
       </c>
     </row>
-    <row r="168" spans="1:8">
-      <c r="B168" t="s">
-        <v>58</v>
-      </c>
-      <c r="C168">
+    <row r="194" spans="1:8">
+      <c r="B194" t="s">
+        <v>113</v>
+      </c>
+      <c r="C194">
         <v>128</v>
       </c>
-      <c r="H168">
+      <c r="H194">
         <v>128</v>
       </c>
     </row>
-    <row r="169" spans="1:8">
-      <c r="B169" t="s">
-        <v>60</v>
-      </c>
-      <c r="C169">
-        <v>1</v>
-      </c>
-      <c r="H169">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="170" spans="1:8">
-      <c r="B170" t="s">
-        <v>59</v>
-      </c>
-      <c r="C170">
+    <row r="195" spans="1:8">
+      <c r="B195" t="s">
+        <v>115</v>
+      </c>
+      <c r="C195">
+        <v>1</v>
+      </c>
+      <c r="H195">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="196" spans="1:8">
+      <c r="B196" t="s">
+        <v>114</v>
+      </c>
+      <c r="C196">
         <v>16</v>
       </c>
-      <c r="H170">
+      <c r="H196">
         <v>16</v>
       </c>
     </row>
-    <row r="171" spans="1:8">
-      <c r="B171" t="s">
-        <v>65</v>
-      </c>
-      <c r="H171">
+    <row r="197" spans="1:8">
+      <c r="B197" t="s">
+        <v>120</v>
+      </c>
+      <c r="H197">
         <v>72</v>
       </c>
     </row>
-    <row r="172" spans="1:8">
-      <c r="B172" t="s">
-        <v>67</v>
-      </c>
-      <c r="C172">
+    <row r="198" spans="1:8">
+      <c r="B198" t="s">
+        <v>12</v>
+      </c>
+      <c r="C198">
         <v>3037</v>
       </c>
     </row>
-    <row r="173" spans="1:8">
-      <c r="B173" t="s">
-        <v>77</v>
-      </c>
-      <c r="C173">
+    <row r="199" spans="1:8">
+      <c r="B199" t="s">
+        <v>22</v>
+      </c>
+      <c r="C199">
         <f>3037-72</f>
         <v>2965</v>
       </c>
     </row>
-    <row r="175" spans="1:8">
-      <c r="A175">
+    <row r="201" spans="1:8">
+      <c r="A201">
         <v>13</v>
       </c>
-      <c r="B175" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="176" spans="1:8">
-      <c r="B176" t="s">
-        <v>61</v>
-      </c>
-      <c r="C176">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="177" spans="1:4">
-      <c r="B177" t="s">
-        <v>58</v>
-      </c>
-      <c r="C177">
+      <c r="B201" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="202" spans="1:8">
+      <c r="B202" t="s">
+        <v>116</v>
+      </c>
+      <c r="C202">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="203" spans="1:8">
+      <c r="B203" t="s">
+        <v>113</v>
+      </c>
+      <c r="C203">
         <v>128</v>
       </c>
-      <c r="D177">
+      <c r="D203">
         <v>128</v>
       </c>
     </row>
-    <row r="178" spans="1:4">
-      <c r="B178" t="s">
-        <v>60</v>
-      </c>
-      <c r="C178">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="179" spans="1:4">
-      <c r="B179" t="s">
-        <v>59</v>
-      </c>
-      <c r="C179">
+    <row r="204" spans="1:8">
+      <c r="B204" t="s">
+        <v>115</v>
+      </c>
+      <c r="C204">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="205" spans="1:8">
+      <c r="B205" t="s">
+        <v>114</v>
+      </c>
+      <c r="C205">
         <v>16</v>
       </c>
-      <c r="D179">
+      <c r="D205">
         <v>16</v>
       </c>
     </row>
-    <row r="180" spans="1:4">
-      <c r="B180" t="s">
-        <v>65</v>
-      </c>
-      <c r="D180">
+    <row r="206" spans="1:8">
+      <c r="B206" t="s">
+        <v>120</v>
+      </c>
+      <c r="D206">
         <v>10</v>
       </c>
     </row>
-    <row r="181" spans="1:4">
-      <c r="B181" t="s">
-        <v>67</v>
-      </c>
-      <c r="C181">
+    <row r="207" spans="1:8">
+      <c r="B207" t="s">
+        <v>12</v>
+      </c>
+      <c r="C207">
         <v>1417</v>
       </c>
     </row>
-    <row r="182" spans="1:4">
-      <c r="B182" t="s">
-        <v>77</v>
-      </c>
-      <c r="C182">
+    <row r="208" spans="1:8">
+      <c r="B208" t="s">
+        <v>22</v>
+      </c>
+      <c r="C208">
         <v>1407</v>
       </c>
     </row>
-    <row r="184" spans="1:4">
-      <c r="A184">
+    <row r="210" spans="1:8">
+      <c r="A210">
         <v>14</v>
       </c>
-      <c r="B184" t="s">
-        <v>71</v>
-      </c>
-      <c r="D184" t="s">
+      <c r="B210" t="s">
+        <v>16</v>
+      </c>
+      <c r="D210" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="211" spans="1:8">
+      <c r="B211" t="s">
+        <v>116</v>
+      </c>
+      <c r="C211">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="212" spans="1:8">
+      <c r="B212" t="s">
+        <v>113</v>
+      </c>
+      <c r="C212">
+        <v>64</v>
+      </c>
+      <c r="D212">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="213" spans="1:8">
+      <c r="B213" t="s">
+        <v>115</v>
+      </c>
+      <c r="C213">
+        <v>1</v>
+      </c>
+      <c r="D213">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="214" spans="1:8">
+      <c r="B214" t="s">
+        <v>114</v>
+      </c>
+      <c r="C214">
         <v>8</v>
       </c>
-    </row>
-    <row r="185" spans="1:4">
-      <c r="B185" t="s">
-        <v>61</v>
-      </c>
-      <c r="C185">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="186" spans="1:4">
-      <c r="B186" t="s">
-        <v>58</v>
-      </c>
-      <c r="C186">
-        <v>64</v>
-      </c>
-      <c r="D186">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="187" spans="1:4">
-      <c r="B187" t="s">
-        <v>60</v>
-      </c>
-      <c r="C187">
-        <v>1</v>
-      </c>
-      <c r="D187">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="188" spans="1:4">
-      <c r="B188" t="s">
-        <v>59</v>
-      </c>
-      <c r="C188">
+      <c r="D214">
         <v>8</v>
       </c>
-      <c r="D188">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="189" spans="1:4">
-      <c r="B189" t="s">
-        <v>65</v>
-      </c>
-      <c r="D189">
+    </row>
+    <row r="215" spans="1:8">
+      <c r="B215" t="s">
+        <v>120</v>
+      </c>
+      <c r="D215">
         <v>31</v>
       </c>
     </row>
-    <row r="190" spans="1:4">
-      <c r="B190" t="s">
-        <v>67</v>
-      </c>
-      <c r="C190">
+    <row r="216" spans="1:8">
+      <c r="B216" t="s">
+        <v>12</v>
+      </c>
+      <c r="C216">
         <v>4028</v>
       </c>
     </row>
-    <row r="191" spans="1:4">
-      <c r="B191" t="s">
-        <v>77</v>
-      </c>
-      <c r="C191">
+    <row r="217" spans="1:8">
+      <c r="B217" t="s">
+        <v>22</v>
+      </c>
+      <c r="C217">
         <f>4028-31</f>
         <v>3997</v>
       </c>
     </row>
-    <row r="193" spans="1:8">
-      <c r="A193">
+    <row r="219" spans="1:8">
+      <c r="A219">
         <v>15</v>
       </c>
-      <c r="B193" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="194" spans="1:8">
-      <c r="B194" t="s">
-        <v>61</v>
-      </c>
-      <c r="C194">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="195" spans="1:8">
-      <c r="B195" t="s">
-        <v>58</v>
-      </c>
-      <c r="C195">
+      <c r="B219" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="220" spans="1:8">
+      <c r="B220" t="s">
+        <v>116</v>
+      </c>
+      <c r="C220">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="221" spans="1:8">
+      <c r="B221" t="s">
+        <v>113</v>
+      </c>
+      <c r="C221">
         <v>128</v>
       </c>
-      <c r="H195" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="196" spans="1:8">
-      <c r="B196" t="s">
-        <v>60</v>
-      </c>
-      <c r="C196">
+      <c r="H221" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="222" spans="1:8">
+      <c r="B222" t="s">
+        <v>115</v>
+      </c>
+      <c r="C222">
         <v>2</v>
       </c>
-      <c r="H196" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="197" spans="1:8">
-      <c r="B197" t="s">
-        <v>59</v>
-      </c>
-      <c r="C197">
+      <c r="H222" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="223" spans="1:8">
+      <c r="B223" t="s">
+        <v>114</v>
+      </c>
+      <c r="C223">
         <v>16</v>
       </c>
-      <c r="H197" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="198" spans="1:8">
-      <c r="B198" t="s">
+      <c r="H223" t="s">
         <v>65</v>
       </c>
-      <c r="H198" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="199" spans="1:8">
-      <c r="B199" t="s">
-        <v>67</v>
-      </c>
-      <c r="C199">
-        <v>2286</v>
-      </c>
-    </row>
-    <row r="200" spans="1:8">
-      <c r="B200" t="s">
-        <v>77</v>
-      </c>
-      <c r="C200">
-        <v>2266</v>
-      </c>
-    </row>
-    <row r="202" spans="1:8">
-      <c r="A202">
-        <v>16</v>
-      </c>
-      <c r="B202" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="203" spans="1:8">
-      <c r="B203" t="s">
-        <v>61</v>
-      </c>
-      <c r="C203">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="204" spans="1:8">
-      <c r="B204" t="s">
-        <v>58</v>
-      </c>
-      <c r="C204">
-        <v>128</v>
-      </c>
-      <c r="D204">
-        <v>64</v>
-      </c>
-      <c r="H204">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="205" spans="1:8">
-      <c r="B205" t="s">
-        <v>60</v>
-      </c>
-      <c r="C205">
-        <v>2</v>
-      </c>
-      <c r="D205">
-        <v>1</v>
-      </c>
-      <c r="H205">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="206" spans="1:8">
-      <c r="B206" t="s">
-        <v>59</v>
-      </c>
-      <c r="C206">
-        <v>16</v>
-      </c>
-      <c r="D206">
-        <v>8</v>
-      </c>
-      <c r="H206">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="207" spans="1:8">
-      <c r="B207" t="s">
-        <v>65</v>
-      </c>
-      <c r="D207">
-        <v>0</v>
-      </c>
-      <c r="H207">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="208" spans="1:8">
-      <c r="B208" t="s">
-        <v>67</v>
-      </c>
-      <c r="C208">
-        <v>1670</v>
-      </c>
-    </row>
-    <row r="209" spans="1:9">
-      <c r="B209" t="s">
-        <v>77</v>
-      </c>
-      <c r="C209">
-        <v>1670</v>
-      </c>
-    </row>
-    <row r="212" spans="1:9">
-      <c r="A212">
-        <v>17</v>
-      </c>
-      <c r="B212" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="213" spans="1:9">
-      <c r="B213" t="s">
-        <v>61</v>
-      </c>
-      <c r="C213">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="214" spans="1:9">
-      <c r="B214" t="s">
-        <v>58</v>
-      </c>
-      <c r="C214">
-        <v>216</v>
-      </c>
-      <c r="D214">
-        <v>72</v>
-      </c>
-      <c r="E214">
-        <v>72</v>
-      </c>
-      <c r="I214">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="215" spans="1:9">
-      <c r="B215" t="s">
-        <v>60</v>
-      </c>
-      <c r="C215">
-        <v>3</v>
-      </c>
-      <c r="D215">
-        <v>1</v>
-      </c>
-      <c r="E215">
-        <v>1</v>
-      </c>
-      <c r="I215">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="216" spans="1:9">
-      <c r="B216" t="s">
-        <v>59</v>
-      </c>
-      <c r="C216">
-        <v>18</v>
-      </c>
-      <c r="D216">
-        <v>6</v>
-      </c>
-      <c r="E216">
-        <v>6</v>
-      </c>
-      <c r="I216">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="217" spans="1:9">
-      <c r="B217" t="s">
-        <v>65</v>
-      </c>
-      <c r="D217">
-        <v>2106</v>
-      </c>
-      <c r="E217">
-        <v>0</v>
-      </c>
-      <c r="I217">
+    </row>
+    <row r="224" spans="1:8">
+      <c r="B224" t="s">
         <v>120</v>
       </c>
-    </row>
-    <row r="218" spans="1:9">
-      <c r="B218" t="s">
-        <v>67</v>
-      </c>
-      <c r="C218">
-        <v>2106</v>
-      </c>
-    </row>
-    <row r="219" spans="1:9">
-      <c r="B219" t="s">
-        <v>77</v>
-      </c>
-      <c r="C219">
-        <v>2106</v>
-      </c>
-    </row>
-    <row r="221" spans="1:9">
-      <c r="A221">
-        <v>18</v>
-      </c>
-      <c r="B221" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="222" spans="1:9">
-      <c r="B222" t="s">
-        <v>61</v>
-      </c>
-      <c r="C222">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="223" spans="1:9">
-      <c r="B223" t="s">
-        <v>58</v>
-      </c>
-      <c r="C223">
-        <v>216</v>
-      </c>
-      <c r="E223">
-        <v>72</v>
-      </c>
-      <c r="H223">
-        <v>72</v>
-      </c>
-      <c r="I223">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="224" spans="1:9">
-      <c r="B224" t="s">
-        <v>60</v>
-      </c>
-      <c r="C224">
-        <v>3</v>
-      </c>
-      <c r="E224">
-        <v>1</v>
-      </c>
-      <c r="H224">
-        <v>1</v>
-      </c>
-      <c r="I224">
-        <v>1</v>
+      <c r="H224" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="225" spans="1:9">
       <c r="B225" t="s">
-        <v>59</v>
+        <v>12</v>
       </c>
       <c r="C225">
-        <v>18</v>
-      </c>
-      <c r="E225">
-        <v>6</v>
-      </c>
-      <c r="H225">
-        <v>6</v>
-      </c>
-      <c r="I225">
-        <v>6</v>
+        <v>2286</v>
       </c>
     </row>
     <row r="226" spans="1:9">
       <c r="B226" t="s">
-        <v>65</v>
-      </c>
-      <c r="E226">
-        <v>20</v>
-      </c>
-      <c r="H226">
-        <v>86</v>
-      </c>
-      <c r="I226">
+        <v>22</v>
+      </c>
+      <c r="C226">
+        <v>2266</v>
+      </c>
+    </row>
+    <row r="228" spans="1:9">
+      <c r="A228">
+        <v>16</v>
+      </c>
+      <c r="B228" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="229" spans="1:9">
+      <c r="B229" t="s">
         <v>116</v>
       </c>
-    </row>
-    <row r="227" spans="1:9">
-      <c r="B227" t="s">
-        <v>67</v>
-      </c>
-      <c r="C227">
-        <v>1570</v>
-      </c>
-    </row>
-    <row r="228" spans="1:9">
-      <c r="B228" t="s">
-        <v>77</v>
-      </c>
-      <c r="C228">
-        <v>1550</v>
+      <c r="C229">
+        <v>64</v>
       </c>
     </row>
     <row r="230" spans="1:9">
-      <c r="A230">
-        <v>19</v>
-      </c>
       <c r="B230" t="s">
-        <v>71</v>
+        <v>113</v>
+      </c>
+      <c r="C230">
+        <v>128</v>
+      </c>
+      <c r="D230">
+        <v>64</v>
+      </c>
+      <c r="H230">
+        <v>64</v>
       </c>
     </row>
     <row r="231" spans="1:9">
       <c r="B231" t="s">
-        <v>61</v>
+        <v>115</v>
       </c>
       <c r="C231">
-        <v>64</v>
+        <v>2</v>
+      </c>
+      <c r="D231">
+        <v>1</v>
+      </c>
+      <c r="H231">
+        <v>1</v>
       </c>
     </row>
     <row r="232" spans="1:9">
       <c r="B232" t="s">
-        <v>58</v>
+        <v>114</v>
       </c>
       <c r="C232">
-        <v>216</v>
-      </c>
-      <c r="E232">
-        <v>72</v>
+        <v>16</v>
+      </c>
+      <c r="D232">
+        <v>8</v>
       </c>
       <c r="H232">
-        <v>72</v>
-      </c>
-      <c r="I232">
-        <v>72</v>
+        <v>8</v>
       </c>
     </row>
     <row r="233" spans="1:9">
       <c r="B233" t="s">
-        <v>60</v>
-      </c>
-      <c r="C233">
-        <v>3</v>
-      </c>
-      <c r="E233">
-        <v>1</v>
+        <v>120</v>
+      </c>
+      <c r="D233">
+        <v>0</v>
       </c>
       <c r="H233">
-        <v>1</v>
-      </c>
-      <c r="I233">
-        <v>1</v>
+        <v>20</v>
       </c>
     </row>
     <row r="234" spans="1:9">
       <c r="B234" t="s">
-        <v>59</v>
+        <v>12</v>
       </c>
       <c r="C234">
-        <v>18</v>
-      </c>
-      <c r="E234">
-        <v>6</v>
-      </c>
-      <c r="H234">
-        <v>6</v>
-      </c>
-      <c r="I234">
-        <v>6</v>
+        <v>1670</v>
       </c>
     </row>
     <row r="235" spans="1:9">
       <c r="B235" t="s">
-        <v>65</v>
-      </c>
-      <c r="E235">
-        <v>0</v>
-      </c>
-      <c r="H235">
-        <v>0</v>
-      </c>
-      <c r="I235">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="236" spans="1:9">
-      <c r="B236" t="s">
-        <v>67</v>
-      </c>
-      <c r="C236">
-        <v>1615</v>
-      </c>
-    </row>
-    <row r="237" spans="1:9">
-      <c r="B237" t="s">
-        <v>77</v>
-      </c>
-      <c r="C237">
-        <v>1615</v>
+        <v>22</v>
+      </c>
+      <c r="C235">
+        <v>1670</v>
+      </c>
+    </row>
+    <row r="238" spans="1:9">
+      <c r="A238">
+        <v>17</v>
+      </c>
+      <c r="B238" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="239" spans="1:9">
-      <c r="A239">
-        <v>20</v>
-      </c>
       <c r="B239" t="s">
-        <v>71</v>
+        <v>116</v>
+      </c>
+      <c r="C239">
+        <v>64</v>
       </c>
     </row>
     <row r="240" spans="1:9">
       <c r="B240" t="s">
-        <v>61</v>
+        <v>113</v>
       </c>
       <c r="C240">
-        <v>64</v>
+        <v>216</v>
+      </c>
+      <c r="D240">
+        <v>72</v>
+      </c>
+      <c r="E240">
+        <v>72</v>
+      </c>
+      <c r="I240">
+        <v>72</v>
       </c>
     </row>
     <row r="241" spans="1:9">
       <c r="B241" t="s">
-        <v>58</v>
+        <v>115</v>
       </c>
       <c r="C241">
-        <v>216</v>
+        <v>3</v>
+      </c>
+      <c r="D241">
+        <v>1</v>
       </c>
       <c r="E241">
-        <v>72</v>
-      </c>
-      <c r="H241">
-        <v>72</v>
+        <v>1</v>
       </c>
       <c r="I241">
-        <v>72</v>
+        <v>1</v>
       </c>
     </row>
     <row r="242" spans="1:9">
       <c r="B242" t="s">
-        <v>60</v>
+        <v>114</v>
       </c>
       <c r="C242">
-        <v>3</v>
+        <v>18</v>
+      </c>
+      <c r="D242">
+        <v>6</v>
       </c>
       <c r="E242">
-        <v>1</v>
-      </c>
-      <c r="H242">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="I242">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="243" spans="1:9">
       <c r="B243" t="s">
-        <v>59</v>
-      </c>
-      <c r="C243">
-        <v>18</v>
+        <v>120</v>
+      </c>
+      <c r="D243">
+        <v>2106</v>
       </c>
       <c r="E243">
-        <v>6</v>
-      </c>
-      <c r="H243">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="I243">
-        <v>6</v>
+        <v>120</v>
       </c>
     </row>
     <row r="244" spans="1:9">
       <c r="B244" t="s">
-        <v>65</v>
-      </c>
-      <c r="E244">
-        <v>0</v>
-      </c>
-      <c r="H244">
-        <v>16</v>
-      </c>
-      <c r="I244">
-        <v>0</v>
+        <v>12</v>
+      </c>
+      <c r="C244">
+        <v>2106</v>
       </c>
     </row>
     <row r="245" spans="1:9">
       <c r="B245" t="s">
-        <v>67</v>
+        <v>22</v>
       </c>
       <c r="C245">
-        <v>1648</v>
-      </c>
-    </row>
-    <row r="246" spans="1:9">
-      <c r="B246" t="s">
-        <v>77</v>
-      </c>
-      <c r="C246">
-        <v>1648</v>
+        <v>2106</v>
+      </c>
+    </row>
+    <row r="247" spans="1:9">
+      <c r="A247">
+        <v>18</v>
+      </c>
+      <c r="B247" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="248" spans="1:9">
-      <c r="A248">
-        <v>21</v>
-      </c>
       <c r="B248" t="s">
-        <v>71</v>
+        <v>116</v>
+      </c>
+      <c r="C248">
+        <v>64</v>
       </c>
     </row>
     <row r="249" spans="1:9">
       <c r="B249" t="s">
-        <v>61</v>
+        <v>113</v>
       </c>
       <c r="C249">
-        <v>64</v>
+        <v>216</v>
+      </c>
+      <c r="E249">
+        <v>72</v>
+      </c>
+      <c r="H249">
+        <v>72</v>
+      </c>
+      <c r="I249">
+        <v>72</v>
       </c>
     </row>
     <row r="250" spans="1:9">
       <c r="B250" t="s">
-        <v>58</v>
+        <v>115</v>
       </c>
       <c r="C250">
-        <v>216</v>
+        <v>3</v>
       </c>
       <c r="E250">
-        <v>72</v>
+        <v>1</v>
       </c>
       <c r="H250">
-        <v>72</v>
+        <v>1</v>
       </c>
       <c r="I250">
-        <v>72</v>
+        <v>1</v>
       </c>
     </row>
     <row r="251" spans="1:9">
       <c r="B251" t="s">
-        <v>60</v>
+        <v>114</v>
       </c>
       <c r="C251">
-        <v>3</v>
+        <v>18</v>
       </c>
       <c r="E251">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="H251">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="I251">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="252" spans="1:9">
       <c r="B252" t="s">
-        <v>59</v>
-      </c>
-      <c r="C252">
-        <v>18</v>
+        <v>120</v>
       </c>
       <c r="E252">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="H252">
-        <v>6</v>
+        <v>86</v>
       </c>
       <c r="I252">
-        <v>6</v>
+        <v>116</v>
       </c>
     </row>
     <row r="253" spans="1:9">
       <c r="B253" t="s">
-        <v>65</v>
-      </c>
-      <c r="E253">
         <v>12</v>
       </c>
-      <c r="H253">
-        <v>72</v>
-      </c>
-      <c r="I253">
-        <v>18</v>
+      <c r="C253">
+        <v>1570</v>
       </c>
     </row>
     <row r="254" spans="1:9">
       <c r="B254" t="s">
-        <v>67</v>
+        <v>22</v>
       </c>
       <c r="C254">
-        <v>1661</v>
-      </c>
-    </row>
-    <row r="255" spans="1:9">
-      <c r="B255" t="s">
-        <v>77</v>
-      </c>
-      <c r="C255">
-        <v>1649</v>
+        <v>1550</v>
+      </c>
+    </row>
+    <row r="256" spans="1:9">
+      <c r="A256">
+        <v>19</v>
+      </c>
+      <c r="B256" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="257" spans="1:9">
+      <c r="B257" t="s">
+        <v>116</v>
+      </c>
+      <c r="C257">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="258" spans="1:9">
+      <c r="B258" t="s">
+        <v>113</v>
+      </c>
+      <c r="C258">
+        <v>216</v>
+      </c>
+      <c r="E258">
+        <v>72</v>
+      </c>
+      <c r="H258">
+        <v>72</v>
+      </c>
+      <c r="I258">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="259" spans="1:9">
+      <c r="B259" t="s">
+        <v>115</v>
+      </c>
+      <c r="C259">
+        <v>3</v>
+      </c>
+      <c r="E259">
+        <v>1</v>
+      </c>
+      <c r="H259">
+        <v>1</v>
+      </c>
+      <c r="I259">
+        <v>1</v>
       </c>
     </row>
     <row r="260" spans="1:9">
-      <c r="A260">
-        <v>22</v>
-      </c>
       <c r="B260" t="s">
-        <v>71</v>
+        <v>114</v>
+      </c>
+      <c r="C260">
+        <v>18</v>
+      </c>
+      <c r="E260">
+        <v>6</v>
+      </c>
+      <c r="H260">
+        <v>6</v>
+      </c>
+      <c r="I260">
+        <v>6</v>
       </c>
     </row>
     <row r="261" spans="1:9">
       <c r="B261" t="s">
-        <v>61</v>
-      </c>
-      <c r="C261">
-        <v>64</v>
+        <v>120</v>
+      </c>
+      <c r="E261">
+        <v>0</v>
+      </c>
+      <c r="H261">
+        <v>0</v>
+      </c>
+      <c r="I261">
+        <v>0</v>
       </c>
     </row>
     <row r="262" spans="1:9">
       <c r="B262" t="s">
-        <v>58</v>
+        <v>12</v>
       </c>
       <c r="C262">
-        <v>216</v>
-      </c>
-      <c r="E262">
-        <v>72</v>
-      </c>
-      <c r="H262">
-        <v>72</v>
-      </c>
-      <c r="I262">
-        <v>72</v>
+        <v>1615</v>
       </c>
     </row>
     <row r="263" spans="1:9">
       <c r="B263" t="s">
-        <v>60</v>
+        <v>22</v>
       </c>
       <c r="C263">
-        <v>3</v>
-      </c>
-      <c r="E263">
-        <v>1</v>
-      </c>
-      <c r="H263">
-        <v>1</v>
-      </c>
-      <c r="I263">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="264" spans="1:9">
-      <c r="B264" t="s">
-        <v>59</v>
-      </c>
-      <c r="C264">
-        <v>18</v>
-      </c>
-      <c r="E264">
-        <v>6</v>
-      </c>
-      <c r="H264">
-        <v>6</v>
-      </c>
-      <c r="I264">
-        <v>6</v>
+        <v>1615</v>
       </c>
     </row>
     <row r="265" spans="1:9">
+      <c r="A265">
+        <v>20</v>
+      </c>
       <c r="B265" t="s">
-        <v>65</v>
-      </c>
-      <c r="E265">
-        <v>0</v>
-      </c>
-      <c r="H265">
-        <v>76</v>
-      </c>
-      <c r="I265">
-        <v>0</v>
+        <v>16</v>
       </c>
     </row>
     <row r="266" spans="1:9">
       <c r="B266" t="s">
-        <v>67</v>
+        <v>116</v>
       </c>
       <c r="C266">
-        <v>1593</v>
+        <v>64</v>
       </c>
     </row>
     <row r="267" spans="1:9">
       <c r="B267" t="s">
-        <v>77</v>
+        <v>113</v>
       </c>
       <c r="C267">
+        <v>216</v>
+      </c>
+      <c r="E267">
+        <v>72</v>
+      </c>
+      <c r="H267">
+        <v>72</v>
+      </c>
+      <c r="I267">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="268" spans="1:9">
+      <c r="B268" t="s">
+        <v>115</v>
+      </c>
+      <c r="C268">
+        <v>3</v>
+      </c>
+      <c r="E268">
+        <v>1</v>
+      </c>
+      <c r="H268">
+        <v>1</v>
+      </c>
+      <c r="I268">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="269" spans="1:9">
+      <c r="B269" t="s">
+        <v>114</v>
+      </c>
+      <c r="C269">
+        <v>18</v>
+      </c>
+      <c r="E269">
+        <v>6</v>
+      </c>
+      <c r="H269">
+        <v>6</v>
+      </c>
+      <c r="I269">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="270" spans="1:9">
+      <c r="B270" t="s">
+        <v>120</v>
+      </c>
+      <c r="E270">
+        <v>0</v>
+      </c>
+      <c r="H270">
+        <v>16</v>
+      </c>
+      <c r="I270">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="271" spans="1:9">
+      <c r="B271" t="s">
+        <v>12</v>
+      </c>
+      <c r="C271">
+        <v>1648</v>
+      </c>
+    </row>
+    <row r="272" spans="1:9">
+      <c r="B272" t="s">
+        <v>22</v>
+      </c>
+      <c r="C272">
+        <v>1648</v>
+      </c>
+    </row>
+    <row r="274" spans="1:9">
+      <c r="A274">
+        <v>21</v>
+      </c>
+      <c r="B274" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="275" spans="1:9">
+      <c r="B275" t="s">
+        <v>116</v>
+      </c>
+      <c r="C275">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="276" spans="1:9">
+      <c r="B276" t="s">
+        <v>113</v>
+      </c>
+      <c r="C276">
+        <v>216</v>
+      </c>
+      <c r="E276">
+        <v>72</v>
+      </c>
+      <c r="H276">
+        <v>72</v>
+      </c>
+      <c r="I276">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="277" spans="1:9">
+      <c r="B277" t="s">
+        <v>115</v>
+      </c>
+      <c r="C277">
+        <v>3</v>
+      </c>
+      <c r="E277">
+        <v>1</v>
+      </c>
+      <c r="H277">
+        <v>1</v>
+      </c>
+      <c r="I277">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="278" spans="1:9">
+      <c r="B278" t="s">
+        <v>114</v>
+      </c>
+      <c r="C278">
+        <v>18</v>
+      </c>
+      <c r="E278">
+        <v>6</v>
+      </c>
+      <c r="H278">
+        <v>6</v>
+      </c>
+      <c r="I278">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="279" spans="1:9">
+      <c r="B279" t="s">
+        <v>120</v>
+      </c>
+      <c r="E279">
+        <v>12</v>
+      </c>
+      <c r="H279">
+        <v>72</v>
+      </c>
+      <c r="I279">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="280" spans="1:9">
+      <c r="B280" t="s">
+        <v>12</v>
+      </c>
+      <c r="C280">
+        <v>1661</v>
+      </c>
+    </row>
+    <row r="281" spans="1:9">
+      <c r="B281" t="s">
+        <v>22</v>
+      </c>
+      <c r="C281">
+        <v>1649</v>
+      </c>
+    </row>
+    <row r="286" spans="1:9">
+      <c r="A286">
+        <v>22</v>
+      </c>
+      <c r="B286" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="287" spans="1:9">
+      <c r="B287" t="s">
+        <v>116</v>
+      </c>
+      <c r="C287">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="288" spans="1:9">
+      <c r="B288" t="s">
+        <v>113</v>
+      </c>
+      <c r="C288">
+        <v>216</v>
+      </c>
+      <c r="E288">
+        <v>72</v>
+      </c>
+      <c r="H288">
+        <v>72</v>
+      </c>
+      <c r="I288">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="289" spans="2:9">
+      <c r="B289" t="s">
+        <v>115</v>
+      </c>
+      <c r="C289">
+        <v>3</v>
+      </c>
+      <c r="E289">
+        <v>1</v>
+      </c>
+      <c r="H289">
+        <v>1</v>
+      </c>
+      <c r="I289">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="290" spans="2:9">
+      <c r="B290" t="s">
+        <v>114</v>
+      </c>
+      <c r="C290">
+        <v>18</v>
+      </c>
+      <c r="E290">
+        <v>6</v>
+      </c>
+      <c r="H290">
+        <v>6</v>
+      </c>
+      <c r="I290">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="291" spans="2:9">
+      <c r="B291" t="s">
+        <v>120</v>
+      </c>
+      <c r="E291">
+        <v>0</v>
+      </c>
+      <c r="H291">
+        <v>76</v>
+      </c>
+      <c r="I291">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="292" spans="2:9">
+      <c r="B292" t="s">
+        <v>12</v>
+      </c>
+      <c r="C292">
         <v>1593</v>
       </c>
     </row>
-    <row r="291" spans="1:4">
-      <c r="A291" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="293" spans="1:4">
-      <c r="A293" t="s">
-        <v>87</v>
-      </c>
+    <row r="293" spans="2:9">
       <c r="B293" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="294" spans="1:4">
-      <c r="A294" t="s">
-        <v>85</v>
-      </c>
-      <c r="B294">
+        <v>22</v>
+      </c>
+      <c r="C293">
+        <v>1593</v>
+      </c>
+    </row>
+    <row r="317" spans="1:3">
+      <c r="A317" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="319" spans="1:3">
+      <c r="A319" t="s">
+        <v>47</v>
+      </c>
+      <c r="B319" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="320" spans="1:3">
+      <c r="A320" t="s">
+        <v>45</v>
+      </c>
+      <c r="B320">
         <v>32</v>
       </c>
-      <c r="C294">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="295" spans="1:4">
-      <c r="A295" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="296" spans="1:4">
-      <c r="A296" t="s">
-        <v>82</v>
-      </c>
-      <c r="B296">
+      <c r="C320">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="321" spans="1:5">
+      <c r="A321" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="322" spans="1:5">
+      <c r="A322" t="s">
+        <v>42</v>
+      </c>
+      <c r="B322">
         <v>1405</v>
       </c>
     </row>
-    <row r="297" spans="1:4">
-      <c r="A297" t="s">
-        <v>83</v>
-      </c>
-      <c r="B297">
+    <row r="323" spans="1:5">
+      <c r="A323" t="s">
+        <v>43</v>
+      </c>
+      <c r="B323">
         <v>1617</v>
       </c>
     </row>
-    <row r="300" spans="1:4">
-      <c r="A300" t="s">
-        <v>89</v>
-      </c>
-      <c r="B300" t="s">
-        <v>94</v>
-      </c>
-      <c r="D300" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="301" spans="1:4">
-      <c r="A301" t="s">
-        <v>86</v>
-      </c>
-      <c r="B301">
-        <v>64</v>
-      </c>
-      <c r="C301">
+    <row r="326" spans="1:5">
+      <c r="A326" t="s">
+        <v>49</v>
+      </c>
+      <c r="B326" t="s">
+        <v>54</v>
+      </c>
+      <c r="D326" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="327" spans="1:5">
+      <c r="A327" t="s">
+        <v>46</v>
+      </c>
+      <c r="B327">
+        <v>64</v>
+      </c>
+      <c r="C327">
         <v>32</v>
       </c>
-      <c r="D301">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="302" spans="1:4">
-      <c r="A302" t="s">
-        <v>56</v>
-      </c>
-      <c r="B302">
+      <c r="D327">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="328" spans="1:5">
+      <c r="A328" t="s">
+        <v>111</v>
+      </c>
+      <c r="B328">
         <v>2190</v>
       </c>
     </row>
-    <row r="303" spans="1:4">
-      <c r="A303" t="s">
-        <v>84</v>
-      </c>
-      <c r="B303">
+    <row r="329" spans="1:5">
+      <c r="A329" t="s">
+        <v>44</v>
+      </c>
+      <c r="B329">
         <v>2301</v>
       </c>
-      <c r="D303">
+      <c r="D329">
         <v>2301</v>
       </c>
     </row>
-    <row r="304" spans="1:4">
-      <c r="A304" t="s">
-        <v>57</v>
-      </c>
-      <c r="B304">
+    <row r="330" spans="1:5">
+      <c r="A330" t="s">
+        <v>112</v>
+      </c>
+      <c r="B330">
         <v>1771</v>
       </c>
-      <c r="C304">
+      <c r="C330">
         <v>1432</v>
       </c>
-      <c r="D304">
+      <c r="D330">
         <v>2226</v>
       </c>
     </row>
-    <row r="305" spans="1:8">
-      <c r="A305" t="s">
-        <v>4</v>
-      </c>
-      <c r="D305">
+    <row r="331" spans="1:5">
+      <c r="A331" t="s">
+        <v>59</v>
+      </c>
+      <c r="D331">
         <v>1671</v>
       </c>
     </row>
-    <row r="306" spans="1:8">
-      <c r="A306" t="s">
-        <v>89</v>
-      </c>
-      <c r="B306" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="307" spans="1:8">
-      <c r="A307" t="s">
-        <v>86</v>
-      </c>
-      <c r="B307">
-        <v>64</v>
-      </c>
-      <c r="C307">
+    <row r="332" spans="1:5">
+      <c r="A332" t="s">
+        <v>49</v>
+      </c>
+      <c r="B332" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="333" spans="1:5">
+      <c r="A333" t="s">
+        <v>46</v>
+      </c>
+      <c r="B333">
+        <v>64</v>
+      </c>
+      <c r="C333">
         <v>128</v>
       </c>
-      <c r="E307">
+      <c r="E333">
         <f>518/2281</f>
         <v>0.22709338009644892</v>
       </c>
     </row>
-    <row r="308" spans="1:8">
-      <c r="A308" t="s">
-        <v>91</v>
-      </c>
-      <c r="B308">
+    <row r="334" spans="1:5">
+      <c r="A334" t="s">
+        <v>51</v>
+      </c>
+      <c r="B334">
         <v>2289</v>
       </c>
-      <c r="C308">
+      <c r="C334">
         <v>4370</v>
       </c>
     </row>
-    <row r="309" spans="1:8">
-      <c r="A309" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="310" spans="1:8">
-      <c r="A310" t="s">
-        <v>93</v>
-      </c>
-      <c r="C310">
+    <row r="335" spans="1:5">
+      <c r="A335" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="336" spans="1:5">
+      <c r="A336" t="s">
+        <v>53</v>
+      </c>
+      <c r="C336">
         <v>3037</v>
       </c>
     </row>
-    <row r="312" spans="1:8">
-      <c r="H312" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="313" spans="1:8">
-      <c r="H313">
+    <row r="338" spans="1:8">
+      <c r="H338" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="339" spans="1:8">
+      <c r="H339">
         <v>3868</v>
       </c>
     </row>
-    <row r="314" spans="1:8">
-      <c r="H314">
+    <row r="340" spans="1:8">
+      <c r="H340">
         <v>6154</v>
       </c>
     </row>
-    <row r="315" spans="1:8">
-      <c r="H315">
+    <row r="341" spans="1:8">
+      <c r="H341">
         <f>6154-3868</f>
         <v>2286</v>
       </c>
     </row>
-    <row r="316" spans="1:8">
-      <c r="A316">
+    <row r="342" spans="1:8">
+      <c r="A342">
         <v>32</v>
       </c>
-      <c r="B316">
+      <c r="B342">
         <f>1432/60</f>
         <v>23.866666666666667</v>
       </c>
-      <c r="C316">
+      <c r="C342">
         <v>1617</v>
       </c>
     </row>
-    <row r="317" spans="1:8">
-      <c r="A317">
-        <v>64</v>
-      </c>
-      <c r="B317">
+    <row r="343" spans="1:8">
+      <c r="A343">
+        <v>64</v>
+      </c>
+      <c r="B343">
         <f>1771/60</f>
         <v>29.516666666666666</v>
       </c>
-      <c r="C317">
+      <c r="C343">
         <v>2301</v>
       </c>
     </row>
-    <row r="318" spans="1:8">
-      <c r="A318">
+    <row r="344" spans="1:8">
+      <c r="A344">
         <v>128</v>
       </c>
-      <c r="B318">
+      <c r="B344">
         <f>3037/60</f>
         <v>50.616666666666667</v>
       </c>
-      <c r="C318">
+      <c r="C344">
         <v>4251</v>
       </c>
-      <c r="H318">
+      <c r="H344">
         <f>3602-1931</f>
         <v>1671</v>
       </c>
     </row>
-    <row r="321" spans="1:8">
-      <c r="D321">
+    <row r="347" spans="1:8">
+      <c r="D347">
         <f>4199-1162</f>
         <v>3037</v>
       </c>
     </row>
-    <row r="324" spans="1:8">
-      <c r="D324">
+    <row r="350" spans="1:8">
+      <c r="D350">
         <f>1771/60</f>
         <v>29.516666666666666</v>
       </c>
     </row>
-    <row r="325" spans="1:8">
-      <c r="A325" t="s">
-        <v>0</v>
-      </c>
-      <c r="D325">
+    <row r="351" spans="1:8">
+      <c r="A351" t="s">
+        <v>55</v>
+      </c>
+      <c r="D351">
         <f>2301/60</f>
         <v>38.35</v>
       </c>
-      <c r="H325">
+      <c r="H351">
         <f>2301/60</f>
         <v>38.35</v>
       </c>
     </row>
-    <row r="326" spans="1:8">
-      <c r="A326" t="s">
-        <v>1</v>
-      </c>
-      <c r="B326">
+    <row r="352" spans="1:8">
+      <c r="A352" t="s">
+        <v>56</v>
+      </c>
+      <c r="B352">
         <f>2286/60</f>
         <v>38.1</v>
       </c>
     </row>
-    <row r="327" spans="1:8">
-      <c r="A327" t="s">
-        <v>5</v>
-      </c>
-      <c r="B327">
+    <row r="353" spans="1:4">
+      <c r="A353" t="s">
+        <v>60</v>
+      </c>
+      <c r="B353">
         <f>1671/60</f>
         <v>27.85</v>
       </c>
-      <c r="D327">
+      <c r="D353">
         <f>2301/60</f>
         <v>38.35</v>
       </c>
@@ -5141,6 +6039,7 @@
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <drawing r:id="rId1"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="http://schemas.microsoft.com/office/mac/excel/2008/main">
